--- a/on_trucks/Processed_Stand_Alone/45_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/45_225-80R17.xlsx
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>94</v>
       </c>
       <c r="E3">
-        <v>0.02789942713043054</v>
+        <v>0.001255529070589158</v>
       </c>
       <c r="F3">
         <v>0.5009892534805608</v>
       </c>
       <c r="G3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>95</v>
       </c>
       <c r="E4">
-        <v>0.001851530567102251</v>
+        <v>0.001802049215885368</v>
       </c>
       <c r="F4">
         <v>0.5025161105524972</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>94</v>
       </c>
       <c r="E5">
-        <v>0.0008994153759285401</v>
+        <v>0.0008840628832351372</v>
       </c>
       <c r="F5">
         <v>0.5011202029146478</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>94</v>
       </c>
       <c r="E6">
-        <v>0.0330628001460306</v>
+        <v>0.03332298524579122</v>
       </c>
       <c r="F6">
         <v>0.5051072692291265</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>45</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>108</v>
       </c>
       <c r="E3">
-        <v>0.02789942713043054</v>
+        <v>0.001255529070589158</v>
       </c>
       <c r="F3">
         <v>0.7029113170744313</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>108</v>
       </c>
       <c r="E4">
-        <v>0.001851530567102251</v>
+        <v>0.001802049215885368</v>
       </c>
       <c r="F4">
         <v>0.7016663834801524</v>
       </c>
       <c r="G4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>109</v>
       </c>
       <c r="E5">
-        <v>0.0008994153759285401</v>
+        <v>0.0008840628832351372</v>
       </c>
       <c r="F5">
         <v>0.7160928323439927</v>
       </c>
       <c r="G5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>108</v>
       </c>
       <c r="E6">
-        <v>0.0330628001460306</v>
+        <v>0.03332298524579122</v>
       </c>
       <c r="F6">
         <v>0.7007093298491632</v>
       </c>
       <c r="G6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6">
         <v>45</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>120</v>
       </c>
       <c r="E3">
-        <v>0.02789942713043054</v>
+        <v>0.001255529070589158</v>
       </c>
       <c r="F3">
         <v>0.8015856122500454</v>
       </c>
       <c r="G3">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>124</v>
       </c>
       <c r="E4">
-        <v>0.001851530567102251</v>
+        <v>0.001802049215885368</v>
       </c>
       <c r="F4">
         <v>0.8060302987577493</v>
       </c>
       <c r="G4">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>124</v>
       </c>
       <c r="E5">
-        <v>0.0008994153759285401</v>
+        <v>0.0008840628832351372</v>
       </c>
       <c r="F5">
         <v>0.8026731647264361</v>
       </c>
       <c r="G5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>123</v>
       </c>
       <c r="E6">
-        <v>0.0330628001460306</v>
+        <v>0.03332298524579122</v>
       </c>
       <c r="F6">
         <v>0.8047183422814698</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <v>45</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>158</v>
       </c>
       <c r="E3">
-        <v>0.02789942713043054</v>
+        <v>0.001255529070589158</v>
       </c>
       <c r="F3">
         <v>0.9040837537364882</v>
       </c>
       <c r="G3">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>161</v>
       </c>
       <c r="E4">
-        <v>0.001851530567102251</v>
+        <v>0.001802049215885368</v>
       </c>
       <c r="F4">
         <v>0.9009431519849186</v>
       </c>
       <c r="G4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>162</v>
       </c>
       <c r="E5">
-        <v>0.0008994153759285401</v>
+        <v>0.0008840628832351372</v>
       </c>
       <c r="F5">
         <v>0.9047913032440524</v>
       </c>
       <c r="G5">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>158</v>
       </c>
       <c r="E6">
-        <v>0.0330628001460306</v>
+        <v>0.03332298524579122</v>
       </c>
       <c r="F6">
         <v>0.9023047581736854</v>
       </c>
       <c r="G6">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6">
         <v>45</v>

--- a/on_trucks/Processed_Stand_Alone/45_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/45_225-80R17.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.529163214799675E-06</v>
+        <v>3.346972907940767E-06</v>
       </c>
       <c r="C2">
-        <v>7.92742098249609E-06</v>
+        <v>7.745387182967063E-06</v>
       </c>
       <c r="D2">
-        <v>2.824608571917524E-06</v>
+        <v>2.64239319423018E-06</v>
       </c>
       <c r="E2">
-        <v>1.132612268935533E-06</v>
+        <v>9.503366833573523E-07</v>
       </c>
       <c r="F2">
-        <v>1.892427615181081E-05</v>
+        <v>1.874263366368974E-05</v>
       </c>
       <c r="G2">
-        <v>1.779353008298887E-05</v>
+        <v>1.761184735847026E-05</v>
       </c>
       <c r="H2">
-        <v>3.412223207682215E-05</v>
+        <v>3.394113039181611E-05</v>
       </c>
       <c r="I2">
-        <v>1.111597967656514E-05</v>
+        <v>1.093405933850967E-05</v>
       </c>
       <c r="J2">
-        <v>1.961944219412154E-05</v>
+        <v>1.943782444274552E-05</v>
       </c>
       <c r="K2">
-        <v>1.40112378527827E-05</v>
+        <v>1.382942053941345E-05</v>
       </c>
       <c r="L2">
-        <v>1.085355666059298E-05</v>
+        <v>1.067162698449328E-05</v>
       </c>
       <c r="M2">
-        <v>8.788602534911209E-06</v>
+        <v>8.606599379612791E-06</v>
       </c>
       <c r="N2">
-        <v>2.068570125901854E-05</v>
+        <v>2.050412144933853E-05</v>
       </c>
       <c r="O2">
-        <v>5.190800315933878E-06</v>
+        <v>5.008669136665863E-06</v>
       </c>
       <c r="P2">
-        <v>1.823094010961148E-07</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.693101763913468E-06</v>
+        <v>2.510881706696076E-06</v>
       </c>
       <c r="R2">
-        <v>3.242450797349154E-08</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>3.78910383062075E-07</v>
+        <v>1.966079778030313E-07</v>
       </c>
       <c r="T2">
-        <v>4.712575586827115E-10</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>5.233582118537757E-06</v>
+        <v>5.051452461614735E-06</v>
       </c>
       <c r="V2">
-        <v>8.939189244076548E-07</v>
+        <v>7.116348451804011E-07</v>
       </c>
       <c r="W2">
-        <v>2.176847232492052E-07</v>
+        <v>3.537658094634595E-08</v>
       </c>
       <c r="X2">
-        <v>7.222271939577761E-06</v>
+        <v>7.040213048069202E-06</v>
       </c>
       <c r="Y2">
-        <v>3.347609203749536E-06</v>
+        <v>3.165412436484031E-06</v>
       </c>
       <c r="Z2">
-        <v>1.787266708780548E-05</v>
+        <v>1.769098717929311E-05</v>
       </c>
       <c r="AA2">
-        <v>1.198684772956983E-05</v>
+        <v>1.180495838042879E-05</v>
       </c>
       <c r="AB2">
-        <v>7.487818455740035E-06</v>
+        <v>7.305769013422134E-06</v>
       </c>
       <c r="AC2">
-        <v>2.927101978155703E-06</v>
+        <v>2.744890247587329E-06</v>
       </c>
       <c r="AD2">
-        <v>1.219701674236159E-05</v>
+        <v>1.201513487186159E-05</v>
       </c>
       <c r="AE2">
-        <v>4.712575586827115E-10</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.74396000614472E-07</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.328335541712266E-05</v>
+        <v>2.310186804220609E-05</v>
       </c>
       <c r="AH2">
-        <v>1.584595996445158E-05</v>
+        <v>1.566420793771944E-05</v>
       </c>
       <c r="AI2">
-        <v>5.983218364163764E-06</v>
+        <v>5.801115382250116E-06</v>
       </c>
       <c r="AJ2">
-        <v>8.151924496160314E-06</v>
+        <v>7.969898685350305E-06</v>
       </c>
       <c r="AK2">
-        <v>7.438474452736752E-07</v>
+        <v>5.61558025912275E-07</v>
       </c>
       <c r="AL2">
-        <v>4.82659129376659E-07</v>
+        <v>3.003604159065284E-07</v>
       </c>
       <c r="AM2">
-        <v>4.836273794355907E-06</v>
+        <v>4.654129999638275E-06</v>
       </c>
       <c r="AN2">
-        <v>9.420883573394485E-09</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>2.159462731433959E-06</v>
+        <v>1.977223685238543E-06</v>
       </c>
       <c r="AP2">
-        <v>3.989512242818447E-06</v>
+        <v>3.807338316990619E-06</v>
       </c>
       <c r="AQ2">
-        <v>9.564774582152295E-06</v>
+        <v>9.382799046111559E-06</v>
       </c>
       <c r="AR2">
-        <v>5.416289329658084E-06</v>
+        <v>5.234166174177059E-06</v>
       </c>
       <c r="AS2">
-        <v>1.226255224635036E-05</v>
+        <v>1.208067270786164E-05</v>
       </c>
       <c r="AT2">
-        <v>1.688254902754274E-05</v>
+        <v>1.670083388673112E-05</v>
       </c>
       <c r="AU2">
-        <v>1.61686869840941E-06</v>
+        <v>1.43461034458179E-06</v>
       </c>
       <c r="AV2">
-        <v>0.05685432946039293</v>
+        <v>0.0568561702454154</v>
       </c>
       <c r="AW2">
-        <v>0.0008603328523634656</v>
+        <v>0.0008601811505056023</v>
       </c>
       <c r="AX2">
-        <v>0.07405815450748988</v>
+        <v>0.07406060747234902</v>
       </c>
       <c r="AY2">
-        <v>0.0009411082572797956</v>
+        <v>0.0009409594297288992</v>
       </c>
       <c r="AZ2">
-        <v>0.003117019189714861</v>
+        <v>0.003116947789642771</v>
       </c>
       <c r="BA2">
-        <v>0.01345147981871348</v>
+        <v>0.01345177615944337</v>
       </c>
       <c r="BB2">
-        <v>0.0001560632294986627</v>
+        <v>0.0001558864669544977</v>
       </c>
       <c r="BC2">
-        <v>0.02585421857359618</v>
+        <v>0.02585495625260778</v>
       </c>
       <c r="BD2">
-        <v>0.02183910432921948</v>
+        <v>0.02183969913465642</v>
       </c>
       <c r="BE2">
-        <v>0.0003013090983389354</v>
+        <v>0.0003011375042147014</v>
       </c>
       <c r="BF2">
-        <v>0.03531571214946236</v>
+        <v>0.03531678650567081</v>
       </c>
       <c r="BG2">
-        <v>6.451406392659651E-05</v>
+        <v>6.433404370263804E-05</v>
       </c>
       <c r="BH2">
-        <v>0.005377143027275477</v>
+        <v>0.005377152051308952</v>
       </c>
       <c r="BI2">
-        <v>0.001555215794656956</v>
+        <v>0.001555088819470339</v>
       </c>
       <c r="BJ2">
-        <v>0.0006087578770515576</v>
+        <v>0.0006085972231654754</v>
       </c>
       <c r="BK2">
-        <v>0.001638839799746664</v>
+        <v>0.001638715800231424</v>
       </c>
       <c r="BL2">
-        <v>0.0154884889426944</v>
+        <v>0.01548885776822981</v>
       </c>
       <c r="BM2">
-        <v>0.01790489408976695</v>
+        <v>0.01790534890051229</v>
       </c>
       <c r="BN2">
-        <v>0.001674289001904251</v>
+        <v>0.001674166263811208</v>
       </c>
       <c r="BO2">
-        <v>0.001547938494214029</v>
+        <v>0.001547811260072407</v>
       </c>
       <c r="BP2">
-        <v>0.003014304183463195</v>
+        <v>0.003014229128386734</v>
       </c>
       <c r="BQ2">
-        <v>0.001139850569376086</v>
+        <v>0.001139708813859218</v>
       </c>
       <c r="BR2">
-        <v>0.004605739680324634</v>
+        <v>0.004605721254789559</v>
       </c>
       <c r="BS2">
-        <v>0.0122841387476642</v>
+        <v>0.01228439354980228</v>
       </c>
       <c r="BT2">
-        <v>0.003513477013844947</v>
+        <v>0.003513419721303325</v>
       </c>
       <c r="BU2">
-        <v>0.001479146490027059</v>
+        <v>0.001479016807995054</v>
       </c>
       <c r="BV2">
-        <v>0.01653607800645506</v>
+        <v>0.01653648410933433</v>
       </c>
       <c r="BW2">
-        <v>0.01083125865923583</v>
+        <v>0.01083146176217952</v>
       </c>
       <c r="BX2">
-        <v>0.008896455541475596</v>
+        <v>0.008896589796505913</v>
       </c>
       <c r="BY2">
-        <v>0.002267487038008771</v>
+        <v>0.00226738540823762</v>
       </c>
       <c r="BZ2">
-        <v>0.0004754808289397575</v>
+        <v>0.000475315432531514</v>
       </c>
       <c r="CA2">
-        <v>1.958555519205903E-05</v>
+        <v>1.940393623485005E-05</v>
       </c>
       <c r="CB2">
-        <v>0.0004094602249214666</v>
+        <v>0.0004092924792401705</v>
       </c>
       <c r="CC2">
-        <v>0.001194854472723855</v>
+        <v>0.00119471467446245</v>
       </c>
       <c r="CD2">
-        <v>5.572040039137726E-05</v>
+        <v>5.554006725424443E-05</v>
       </c>
       <c r="CE2">
-        <v>2.068570125901854E-05</v>
+        <v>2.050412144933853E-05</v>
       </c>
       <c r="CF2">
-        <v>0.0173026000531088</v>
+        <v>0.01730303343186074</v>
       </c>
       <c r="CG2">
-        <v>0.02419804947279478</v>
+        <v>0.02419872821878847</v>
       </c>
       <c r="CH2">
-        <v>0.009461004575836419</v>
+        <v>0.009461158919744337</v>
       </c>
       <c r="CI2">
-        <v>0.004122941250939496</v>
+        <v>0.004122905645535246</v>
       </c>
       <c r="CJ2">
-        <v>0.007148050635060341</v>
+        <v>0.007148122674959597</v>
       </c>
       <c r="CK2">
-        <v>0.0002654669961574348</v>
+        <v>0.000265294126630074</v>
       </c>
       <c r="CL2">
-        <v>0.001450860888305479</v>
+        <v>0.001450730199760387</v>
       </c>
       <c r="CM2">
-        <v>0.002520509653408789</v>
+        <v>0.002520417027178591</v>
       </c>
       <c r="CN2">
-        <v>0.01235946575224892</v>
+        <v>0.01235972323481843</v>
       </c>
       <c r="CO2">
-        <v>0.02717349165389267</v>
+        <v>0.02717427627783521</v>
       </c>
       <c r="CP2">
-        <v>0.03437960709248708</v>
+        <v>0.03438064813839161</v>
       </c>
       <c r="CQ2">
-        <v>0.02447684648976354</v>
+        <v>0.02447753515645288</v>
       </c>
       <c r="CR2">
-        <v>0.00652774699730606</v>
+        <v>0.006527796964359388</v>
       </c>
       <c r="CS2">
-        <v>9.321462567343307E-06</v>
+        <v>9.139478373303023E-06</v>
       </c>
       <c r="CT2">
-        <v>0.01492866990862146</v>
+        <v>0.01492901881359131</v>
       </c>
       <c r="CU2">
-        <v>0.02392375145609985</v>
+        <v>0.02392442044149004</v>
       </c>
       <c r="CV2">
-        <v>0.02602122558376092</v>
+        <v>0.02602196920553955</v>
       </c>
       <c r="CW2">
-        <v>0.02299002739926949</v>
+        <v>0.02299066315908111</v>
       </c>
       <c r="CX2">
-        <v>0.01600514297414013</v>
+        <v>0.01600553018426034</v>
       </c>
       <c r="CY2">
-        <v>0.007045772428835259</v>
+        <v>0.007045840829273209</v>
       </c>
       <c r="CZ2">
-        <v>0.004382814266756458</v>
+        <v>0.004382787908657382</v>
       </c>
       <c r="DA2">
-        <v>0.0005149960313448183</v>
+        <v>0.0005148320410430707</v>
       </c>
       <c r="DB2">
-        <v>0.00347557941153834</v>
+        <v>0.003475520770450803</v>
       </c>
       <c r="DC2">
-        <v>0.01415755786168835</v>
+        <v>0.01415787932745525</v>
       </c>
       <c r="DD2">
-        <v>0.02210513634541131</v>
+        <v>0.02210574061731491</v>
       </c>
       <c r="DE2">
-        <v>0.0298238518152047</v>
+        <v>0.0298247307493978</v>
       </c>
       <c r="DF2">
-        <v>0.0233746444226789</v>
+        <v>0.02337529386867868</v>
       </c>
       <c r="DG2">
-        <v>0.009589051583629896</v>
+        <v>0.009589210483954546</v>
       </c>
       <c r="DH2">
-        <v>0.0001739265405858987</v>
+        <v>0.0001737504136886805</v>
       </c>
       <c r="DI2">
-        <v>0.0005258337320044463</v>
+        <v>0.0005256701273507625</v>
       </c>
       <c r="DJ2">
-        <v>0.001024662462365255</v>
+        <v>0.001024516608001977</v>
       </c>
       <c r="DK2">
-        <v>0.007059071129644675</v>
+        <v>0.007059140003302765</v>
       </c>
       <c r="DL2">
-        <v>0.001893800015264612</v>
+        <v>0.001893685088237767</v>
       </c>
       <c r="DM2">
-        <v>0.006229057779126581</v>
+        <v>0.006229097117641412</v>
       </c>
       <c r="DN2">
-        <v>0.005294243622229871</v>
+        <v>0.005294249696376092</v>
       </c>
       <c r="DO2">
-        <v>0.008718832530664715</v>
+        <v>0.008718960465168901</v>
       </c>
       <c r="DP2">
-        <v>0.02164952431768085</v>
+        <v>0.02165011237711449</v>
       </c>
       <c r="DQ2">
-        <v>0.004753788789335523</v>
+        <v>0.004753775631970704</v>
       </c>
       <c r="DR2">
-        <v>1.332821281121093E-05</v>
+        <v>1.314637119312124E-05</v>
       </c>
       <c r="DS2">
-        <v>0.00148524319039813</v>
+        <v>0.00148511372531073</v>
       </c>
       <c r="DT2">
-        <v>0.01106877467369205</v>
+        <v>0.01106898622839078</v>
       </c>
       <c r="DU2">
-        <v>0.01422673186589857</v>
+        <v>0.01422705579314891</v>
       </c>
       <c r="DV2">
-        <v>0.004016380244453746</v>
+        <v>0.004016340847189292</v>
       </c>
       <c r="DW2">
-        <v>0.003724162426668144</v>
+        <v>0.003724112631143102</v>
       </c>
       <c r="DX2">
-        <v>0.00156773109541869</v>
+        <v>0.001567604565575754</v>
       </c>
       <c r="DY2">
-        <v>0.0007136735834371675</v>
+        <v>0.0007135166628650327</v>
       </c>
       <c r="DZ2">
-        <v>0.00183421701163814</v>
+        <v>0.001834099964413414</v>
       </c>
       <c r="EA2">
-        <v>1.997172621556302E-05</v>
+        <v>1.979012099983964E-05</v>
       </c>
       <c r="EB2">
-        <v>0.001573264195755457</v>
+        <v>0.001573137862802018</v>
       </c>
       <c r="EC2">
-        <v>0.002066404025770015</v>
+        <v>0.002066295240673508</v>
       </c>
       <c r="ED2">
-        <v>0.003474474911471115</v>
+        <v>0.003474416231081117</v>
       </c>
       <c r="EE2">
-        <v>0.0009089997553255374</v>
+        <v>0.0009088497852277115</v>
       </c>
       <c r="EF2">
-        <v>0.0003817932232375369</v>
+        <v>0.0003816244930553798</v>
       </c>
       <c r="EG2">
-        <v>0.001208844673575357</v>
+        <v>0.001208705373140386</v>
       </c>
       <c r="EH2">
-        <v>0.001694871003156958</v>
+        <v>0.001694748997452563</v>
       </c>
       <c r="EI2">
-        <v>0.001152619670153267</v>
+        <v>0.001152478369011285</v>
       </c>
       <c r="EJ2">
-        <v>0.0004930731300104987</v>
+        <v>0.0004929083596055984</v>
       </c>
       <c r="EK2">
-        <v>0.0002264677937837797</v>
+        <v>0.0002262935365112359</v>
       </c>
       <c r="EL2">
-        <v>0.001538606793646062</v>
+        <v>0.00153847922744579</v>
       </c>
       <c r="EM2">
-        <v>4.978028302983681E-05</v>
+        <v>4.959973851993855E-05</v>
       </c>
       <c r="EN2">
-        <v>0.0007416453851396487</v>
+        <v>0.0007414894599143598</v>
       </c>
       <c r="EO2">
-        <v>0.0006579004400425801</v>
+        <v>0.0006577415348423919</v>
       </c>
       <c r="EP2">
-        <v>0.0003139414691077945</v>
+        <v>0.0003137703244930536</v>
       </c>
       <c r="EQ2">
-        <v>0.003347632003750924</v>
+        <v>0.003347568809790814</v>
       </c>
       <c r="ER2">
-        <v>0.009708308590888379</v>
+        <v>0.009708471734846931</v>
       </c>
       <c r="ES2">
-        <v>0.007447253453271079</v>
+        <v>0.007447336139984743</v>
       </c>
       <c r="ET2">
-        <v>0.004706067286430993</v>
+        <v>0.004706052430947192</v>
       </c>
       <c r="EU2">
-        <v>0.00309012618807804</v>
+        <v>0.003090053831047058</v>
       </c>
       <c r="EV2">
-        <v>2.667276862341656E-05</v>
+        <v>2.649140185716796E-05</v>
       </c>
       <c r="EW2">
-        <v>8.476084515890053E-05</v>
+        <v>8.45815453951417E-05</v>
       </c>
       <c r="EX2">
-        <v>0.0001164275820862709</v>
+        <v>0.0001162494091497024</v>
       </c>
       <c r="EY2">
-        <v>0.00356686971709465</v>
+        <v>0.003566814324475648</v>
       </c>
       <c r="EZ2">
-        <v>0.009644154586983696</v>
+        <v>0.009644315448090178</v>
       </c>
       <c r="FA2">
-        <v>0.005501721334857835</v>
+        <v>0.005501734791878032</v>
       </c>
       <c r="FB2">
-        <v>0.004566417777931338</v>
+        <v>0.004566397953168144</v>
       </c>
       <c r="FC2">
-        <v>0.005077579309042772</v>
+        <v>0.005077577673419596</v>
       </c>
       <c r="FD2">
-        <v>0.0008372649809594582</v>
+        <v>0.0008371124582558987</v>
       </c>
       <c r="FE2">
-        <v>6.523979997076784E-08</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.000337133700519371</v>
+        <v>0.000336963381175545</v>
       </c>
       <c r="FG2">
-        <v>0.005558070338287472</v>
+        <v>0.005558085800427089</v>
       </c>
       <c r="FH2">
-        <v>0.009524547579703911</v>
+        <v>0.009524704184722113</v>
       </c>
       <c r="FI2">
-        <v>0.007239181440606944</v>
+        <v>0.007239256723299097</v>
       </c>
       <c r="FJ2">
-        <v>0.003231079196657031</v>
+        <v>0.003231011855289108</v>
       </c>
       <c r="FK2">
-        <v>0.001944336918340499</v>
+        <v>0.00194422378961566</v>
       </c>
       <c r="FL2">
-        <v>0.0004191299055100039</v>
+        <v>0.0004189625039140184</v>
       </c>
       <c r="FM2">
-        <v>0.0001810607310201155</v>
+        <v>0.0001808848579854844</v>
       </c>
       <c r="FN2">
-        <v>0.0008372649809594582</v>
+        <v>0.0008371124582558987</v>
       </c>
       <c r="FO2">
-        <v>0.000400584504381253</v>
+        <v>0.0004004164428668712</v>
       </c>
       <c r="FP2">
-        <v>0.002791498469902304</v>
+        <v>0.002791415486521238</v>
       </c>
       <c r="FQ2">
-        <v>0.007452470453588608</v>
+        <v>0.007452553325943686</v>
       </c>
       <c r="FR2">
-        <v>0.004323607263152871</v>
+        <v>0.004323578798235474</v>
       </c>
       <c r="FS2">
-        <v>0.002872964274860655</v>
+        <v>0.002872884190353708</v>
       </c>
       <c r="FT2">
-        <v>0.0014784258899832</v>
+        <v>0.001478296182309408</v>
       </c>
       <c r="FU2">
-        <v>0.0005359956326229423</v>
+        <v>0.0005358323895696958</v>
       </c>
       <c r="FV2">
-        <v>0.0003770172429468506</v>
+        <v>0.000376848342816509</v>
       </c>
       <c r="FW2">
-        <v>0.0001183463372030544</v>
+        <v>0.0001181682325433482</v>
       </c>
       <c r="FX2">
-        <v>0.000428912456105411</v>
+        <v>0.0004287454026110952</v>
       </c>
       <c r="FY2">
-        <v>0.000777805847340526</v>
+        <v>0.0007776512088468671</v>
       </c>
       <c r="FZ2">
-        <v>0.000591758136016882</v>
+        <v>0.0005915968772130758</v>
       </c>
       <c r="GA2">
-        <v>0.002452077149243699</v>
+        <v>0.002451982087915545</v>
       </c>
       <c r="GB2">
-        <v>0.002593915157876556</v>
+        <v>0.002593825143703247</v>
       </c>
       <c r="GC2">
-        <v>0.002677926162989818</v>
+        <v>0.002677839138258871</v>
       </c>
       <c r="GD2">
-        <v>0.001551055194403724</v>
+        <v>0.001550928071166567</v>
       </c>
       <c r="GE2">
-        <v>1.529504793092077E-05</v>
+        <v>1.511327630056921E-05</v>
       </c>
       <c r="GF2">
-        <v>0.0001390773484648307</v>
+        <v>0.0001388999814961353</v>
       </c>
       <c r="GG2">
-        <v>0.0003848937534262481</v>
+        <v>0.0003847251335731637</v>
       </c>
       <c r="GH2">
-        <v>0.001408241185711465</v>
+        <v>0.001408108980589537</v>
       </c>
       <c r="GI2">
-        <v>0.002560805655861372</v>
+        <v>0.002560714463521611</v>
       </c>
       <c r="GJ2">
-        <v>0.003032139484548726</v>
+        <v>0.003032065064122505</v>
       </c>
       <c r="GK2">
-        <v>0.001628172599097413</v>
+        <v>0.001628048220001171</v>
       </c>
       <c r="GL2">
-        <v>0.004850724495235437</v>
+        <v>0.004850714787224725</v>
       </c>
       <c r="GM2">
-        <v>0.001921466216948493</v>
+        <v>0.001921352274394042</v>
       </c>
       <c r="GN2">
-        <v>0.0007280515443122705</v>
+        <v>0.0007278951353645981</v>
       </c>
       <c r="GO2">
-        <v>1.145332929709766E-07</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.000921543856089024</v>
+        <v>0.0009213943323596967</v>
       </c>
       <c r="GQ2">
-        <v>0.005631112842733145</v>
+        <v>0.005631130904012682</v>
       </c>
       <c r="GR2">
-        <v>0.005587624740086276</v>
+        <v>0.005587641253887883</v>
       </c>
       <c r="GS2">
-        <v>0.004850191795203015</v>
+        <v>0.004850182068236739</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>2.199325834908273E-05</v>
+        <v>1.684549551014077E-05</v>
       </c>
       <c r="C3">
-        <v>5.426227139404197E-05</v>
+        <v>4.914579455048731E-05</v>
       </c>
       <c r="D3">
-        <v>5.164079347162781E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8.86801173754039E-06</v>
+        <v>3.707523489105008E-06</v>
       </c>
       <c r="F3">
-        <v>7.222319786246648E-06</v>
+        <v>2.060235978916256E-06</v>
       </c>
       <c r="G3">
-        <v>5.18791824645724E-08</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.587269923426595E-06</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.813204246336012E-07</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.021302969773295E-05</v>
+        <v>5.053845493695816E-06</v>
       </c>
       <c r="K3">
-        <v>4.88504915542102E-06</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.210337864178577E-06</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.018145910674295E-07</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.140465736650309E-05</v>
+        <v>1.625632385725274E-05</v>
       </c>
       <c r="O3">
-        <v>1.053905668808378E-06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.011367210874919E-05</v>
+        <v>2.497378230971316E-05</v>
       </c>
       <c r="Q3">
-        <v>7.051045291315726E-06</v>
+        <v>1.888795427060974E-06</v>
       </c>
       <c r="R3">
-        <v>1.055823568751615E-06</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>6.101888819407167E-05</v>
+        <v>5.59089621390938E-05</v>
       </c>
       <c r="T3">
-        <v>3.520869895795567E-05</v>
+        <v>3.007374897490595E-05</v>
       </c>
       <c r="U3">
-        <v>2.257209133195146E-05</v>
+        <v>1.742488969288279E-05</v>
       </c>
       <c r="V3">
-        <v>3.219530204714082E-06</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1.27978716212314E-06</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>2.199325834908273E-05</v>
+        <v>1.684549551014077E-05</v>
       </c>
       <c r="Y3">
-        <v>3.150597906754217E-05</v>
+        <v>2.636743916132839E-05</v>
       </c>
       <c r="Z3">
-        <v>1.813204246336012E-07</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1.061475668584334E-05</v>
+        <v>5.455961970901511E-06</v>
       </c>
       <c r="AB3">
-        <v>1.645810151290244E-05</v>
+        <v>1.130497213575854E-05</v>
       </c>
       <c r="AC3">
-        <v>3.866996885551517E-08</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.356055530269667E-06</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.907205743553923E-05</v>
+        <v>1.392146238483488E-05</v>
       </c>
       <c r="AF3">
-        <v>4.574688364606525E-05</v>
+        <v>4.062215082079112E-05</v>
       </c>
       <c r="AG3">
-        <v>0.000139127435882354</v>
+        <v>0.0001340932389381264</v>
       </c>
       <c r="AH3">
-        <v>0.0001681570050231886</v>
+        <v>0.0001631509533142977</v>
       </c>
       <c r="AI3">
-        <v>4.149984877176142E-05</v>
+        <v>3.637099828991993E-05</v>
       </c>
       <c r="AJ3">
-        <v>1.773707447504968E-05</v>
+        <v>1.25851851092485E-05</v>
       </c>
       <c r="AK3">
-        <v>4.501040566786222E-10</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.813204246336012E-07</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.170231135769366E-05</v>
+        <v>1.655426643493904E-05</v>
       </c>
       <c r="AN3">
-        <v>4.367837270728535E-05</v>
+        <v>3.855163438455151E-05</v>
       </c>
       <c r="AO3">
-        <v>7.924034165478557E-05</v>
+        <v>7.414808196934082E-05</v>
       </c>
       <c r="AP3">
-        <v>5.334909542106854E-05</v>
+        <v>4.823173321981054E-05</v>
       </c>
       <c r="AQ3">
-        <v>9.510941718512095E-05</v>
+        <v>9.003254315225723E-05</v>
       </c>
       <c r="AR3">
-        <v>0.0001067785818397578</v>
+        <v>0.0001017130214913582</v>
       </c>
       <c r="AS3">
-        <v>3.448483697937925E-05</v>
+        <v>2.934918518550901E-05</v>
       </c>
       <c r="AT3">
-        <v>5.597154834345384E-06</v>
+        <v>4.334953698011222E-07</v>
       </c>
       <c r="AU3">
-        <v>6.510848207303516E-06</v>
+        <v>1.348074602100906E-06</v>
       </c>
       <c r="AV3">
-        <v>0.02663738721163408</v>
+        <v>0.02665804405246533</v>
       </c>
       <c r="AW3">
-        <v>0.01011412370066019</v>
+        <v>0.01011876062959432</v>
       </c>
       <c r="AX3">
-        <v>0.09432533120832692</v>
+        <v>0.094411614001235</v>
       </c>
       <c r="AY3">
-        <v>0.01066841618425523</v>
+        <v>0.0106735905201457</v>
       </c>
       <c r="AZ3">
-        <v>0.0002589256523367799</v>
+        <v>0.0002540076041710159</v>
       </c>
       <c r="BA3">
-        <v>0.007021521792189509</v>
+        <v>0.007023160329790491</v>
       </c>
       <c r="BB3">
-        <v>0.0004448568068339209</v>
+        <v>0.0004401190257632132</v>
       </c>
       <c r="BC3">
-        <v>0.01262349362639233</v>
+        <v>0.01263056348179409</v>
       </c>
       <c r="BD3">
-        <v>0.03015663710747759</v>
+        <v>0.03018070599056295</v>
       </c>
       <c r="BE3">
-        <v>5.946046124019522E-06</v>
+        <v>7.827249224169929E-07</v>
       </c>
       <c r="BF3">
-        <v>0.03795904887655571</v>
+        <v>0.03799068248491721</v>
       </c>
       <c r="BG3">
-        <v>0.00222812993405578</v>
+        <v>0.002225121101892026</v>
       </c>
       <c r="BH3">
-        <v>0.007715959771636772</v>
+        <v>0.007718271592408561</v>
       </c>
       <c r="BI3">
-        <v>2.417688928445551E-05</v>
+        <v>1.903124355604546E-05</v>
       </c>
       <c r="BJ3">
-        <v>0.0005723500830606021</v>
+        <v>0.0005677359114119237</v>
       </c>
       <c r="BK3">
-        <v>3.412026899016907E-05</v>
+        <v>2.898426373422012E-05</v>
       </c>
       <c r="BL3">
-        <v>0.01347689660113483</v>
+        <v>0.01348479386211897</v>
       </c>
       <c r="BM3">
-        <v>0.0178661374712299</v>
+        <v>0.01787829026272636</v>
       </c>
       <c r="BN3">
-        <v>0.006431174309661562</v>
+        <v>0.006432240483658193</v>
       </c>
       <c r="BO3">
-        <v>0.0005619291133690233</v>
+        <v>0.000557304838206821</v>
       </c>
       <c r="BP3">
-        <v>0.003569551394354778</v>
+        <v>0.003567843119650307</v>
       </c>
       <c r="BQ3">
-        <v>0.003623055392771263</v>
+        <v>0.003621398992161773</v>
       </c>
       <c r="BR3">
-        <v>0.0002509746925720982</v>
+        <v>0.000246048935658311</v>
       </c>
       <c r="BS3">
-        <v>0.01103149467350948</v>
+        <v>0.01103702102735366</v>
       </c>
       <c r="BT3">
-        <v>0.005774931329083873</v>
+        <v>0.005775361251366368</v>
       </c>
       <c r="BU3">
-        <v>0.0003183907105768391</v>
+        <v>0.0003135303159728748</v>
       </c>
       <c r="BV3">
-        <v>0.01275203662258794</v>
+        <v>0.01275923110515386</v>
       </c>
       <c r="BW3">
-        <v>0.01389905358864058</v>
+        <v>0.01390736014635608</v>
       </c>
       <c r="BX3">
-        <v>0.01240299863291815</v>
+        <v>0.01240985471031129</v>
       </c>
       <c r="BY3">
-        <v>0.002424228128252015</v>
+        <v>0.002421409420502371</v>
       </c>
       <c r="BZ3">
-        <v>0.000171401224927172</v>
+        <v>0.0001663983186088392</v>
       </c>
       <c r="CA3">
-        <v>0.0002399230928991838</v>
+        <v>0.0002349866210529036</v>
       </c>
       <c r="CB3">
-        <v>5.164079347162781E-06</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0006127040818662763</v>
+        <v>0.0006081290349041426</v>
       </c>
       <c r="CD3">
-        <v>0.0003644040192150192</v>
+        <v>0.0003595882362066994</v>
       </c>
       <c r="CE3">
-        <v>3.447387497970368E-05</v>
+        <v>2.933821255777144E-05</v>
       </c>
       <c r="CF3">
-        <v>0.009816056709481843</v>
+        <v>0.009820404651501554</v>
       </c>
       <c r="CG3">
-        <v>0.02910692513854509</v>
+        <v>0.02912997628725562</v>
       </c>
       <c r="CH3">
-        <v>0.01060208368621842</v>
+        <v>0.01060719371031155</v>
       </c>
       <c r="CI3">
-        <v>0.001027010069604386</v>
+        <v>0.001022836707540493</v>
       </c>
       <c r="CJ3">
-        <v>0.001448879657118642</v>
+        <v>0.001445115313141252</v>
       </c>
       <c r="CK3">
-        <v>0.0007986467763630758</v>
+        <v>0.0007942520076844526</v>
       </c>
       <c r="CL3">
-        <v>0.001748808148241893</v>
+        <v>0.001745334595971604</v>
       </c>
       <c r="CM3">
-        <v>0.001532108454655384</v>
+        <v>0.001528424804059357</v>
       </c>
       <c r="CN3">
-        <v>0.005740153430113167</v>
+        <v>0.005740549633943064</v>
       </c>
       <c r="CO3">
-        <v>0.02452067027428089</v>
+        <v>0.02453927488016321</v>
       </c>
       <c r="CP3">
-        <v>0.03395149399516417</v>
+        <v>0.03397924213162237</v>
       </c>
       <c r="CQ3">
-        <v>0.03283302902826651</v>
+        <v>0.03285969277178877</v>
       </c>
       <c r="CR3">
-        <v>0.01310829161204414</v>
+        <v>0.01311583149692966</v>
       </c>
       <c r="CS3">
-        <v>0.0008329644753474017</v>
+        <v>0.0008286029789405593</v>
       </c>
       <c r="CT3">
-        <v>0.01264702562569587</v>
+        <v>0.01265411829623674</v>
       </c>
       <c r="CU3">
-        <v>0.02780497717707783</v>
+        <v>0.02782676603933849</v>
       </c>
       <c r="CV3">
-        <v>0.03223829604586836</v>
+        <v>0.0322643831738828</v>
       </c>
       <c r="CW3">
-        <v>0.02670207320971962</v>
+        <v>0.02672279276600593</v>
       </c>
       <c r="CX3">
-        <v>0.01621971451995779</v>
+        <v>0.01623027104382787</v>
       </c>
       <c r="CY3">
-        <v>0.006632397203706126</v>
+        <v>0.006633658470701917</v>
       </c>
       <c r="CZ3">
-        <v>0.003054210609606917</v>
+        <v>0.003052002693051235</v>
       </c>
       <c r="DA3">
-        <v>0.002809348916853897</v>
+        <v>0.00280690359787815</v>
       </c>
       <c r="DB3">
-        <v>0.0005204259545973599</v>
+        <v>0.0005157614405957459</v>
       </c>
       <c r="DC3">
-        <v>0.009885889707415052</v>
+        <v>0.009890305355095552</v>
       </c>
       <c r="DD3">
-        <v>0.01866503744758548</v>
+        <v>0.01867796480200212</v>
       </c>
       <c r="DE3">
-        <v>0.03080141108839472</v>
+        <v>0.03082610510357708</v>
       </c>
       <c r="DF3">
-        <v>0.02626618622262022</v>
+        <v>0.02628648317043541</v>
       </c>
       <c r="DG3">
-        <v>0.0140732745834843</v>
+        <v>0.01408175005486424</v>
       </c>
       <c r="DH3">
-        <v>0.00109726586752508</v>
+        <v>0.00109316062104212</v>
       </c>
       <c r="DI3">
-        <v>0.000868725214289019</v>
+        <v>0.0008643983892342881</v>
       </c>
       <c r="DJ3">
-        <v>0.0001033756529404716</v>
+        <v>9.830679332730372E-05</v>
       </c>
       <c r="DK3">
-        <v>0.006872794796591266</v>
+        <v>0.006874289137898058</v>
       </c>
       <c r="DL3">
-        <v>0.001270702662392007</v>
+        <v>0.00126676556926275</v>
       </c>
       <c r="DM3">
-        <v>0.00638135281113609</v>
+        <v>0.00638237068135687</v>
       </c>
       <c r="DN3">
-        <v>0.006034803421392641</v>
+        <v>0.006035485299229834</v>
       </c>
       <c r="DO3">
-        <v>0.006575069805402799</v>
+        <v>0.006576275491376749</v>
       </c>
       <c r="DP3">
-        <v>0.02091484038099982</v>
+        <v>0.02092994900213506</v>
       </c>
       <c r="DQ3">
-        <v>0.00821590375684032</v>
+        <v>0.008218700291699682</v>
       </c>
       <c r="DR3">
-        <v>0.001043700669110407</v>
+        <v>0.001039543489196815</v>
       </c>
       <c r="DS3">
-        <v>0.0004746202459530357</v>
+        <v>0.0004699113216316093</v>
       </c>
       <c r="DT3">
-        <v>0.006018550821873657</v>
+        <v>0.006019216942217651</v>
       </c>
       <c r="DU3">
-        <v>0.01344538560206743</v>
+        <v>0.01345325231197863</v>
       </c>
       <c r="DV3">
-        <v>0.005482165837748624</v>
+        <v>0.005482311913115854</v>
       </c>
       <c r="DW3">
-        <v>0.002580943423613835</v>
+        <v>0.002578276657108907</v>
       </c>
       <c r="DX3">
-        <v>0.002334158330917741</v>
+        <v>0.002331252297185736</v>
       </c>
       <c r="DY3">
-        <v>0.0007857465267448744</v>
+        <v>0.000781339250799621</v>
       </c>
       <c r="DZ3">
-        <v>0.002512881425628213</v>
+        <v>0.002510148670512103</v>
       </c>
       <c r="EA3">
-        <v>0.0001852524945172267</v>
+        <v>0.0001802630175143769</v>
       </c>
       <c r="EB3">
-        <v>0.0004092753078869987</v>
+        <v>0.000404503029243949</v>
       </c>
       <c r="EC3">
-        <v>0.002252770533326512</v>
+        <v>0.002249785591130326</v>
       </c>
       <c r="ED3">
-        <v>0.002829179316266992</v>
+        <v>0.002826753223593075</v>
       </c>
       <c r="EE3">
-        <v>0.0007951324764670858</v>
+        <v>0.0007907343005454156</v>
       </c>
       <c r="EF3">
-        <v>0.0001852779445164735</v>
+        <v>0.0001802884921883343</v>
       </c>
       <c r="EG3">
-        <v>0.0001483527956093183</v>
+        <v>0.000143327542990765</v>
       </c>
       <c r="EH3">
-        <v>0.0009725617712158497</v>
+        <v>0.0009683356195234096</v>
       </c>
       <c r="EI3">
-        <v>0.001127081566642648</v>
+        <v>0.00112300522757696</v>
       </c>
       <c r="EJ3">
-        <v>0.0004370144070660263</v>
+        <v>0.0004322690225002064</v>
       </c>
       <c r="EK3">
-        <v>2.346800930543568E-05</v>
+        <v>1.832167629180488E-05</v>
       </c>
       <c r="EL3">
-        <v>0.001638667151501649</v>
+        <v>0.001635086813482718</v>
       </c>
       <c r="EM3">
-        <v>3.362636900478665E-05</v>
+        <v>2.848988489463032E-05</v>
       </c>
       <c r="EN3">
-        <v>0.0008444352750079094</v>
+        <v>0.000840084899963371</v>
       </c>
       <c r="EO3">
-        <v>0.0008607932745237745</v>
+        <v>0.0008564587591616096</v>
       </c>
       <c r="EP3">
-        <v>0.0007701731772057867</v>
+        <v>0.0007657508023251812</v>
       </c>
       <c r="EQ3">
-        <v>0.001152938965877367</v>
+        <v>0.001148887696511581</v>
       </c>
       <c r="ER3">
-        <v>0.007148857788420846</v>
+        <v>0.007150619782955114</v>
       </c>
       <c r="ES3">
-        <v>0.008713925742100753</v>
+        <v>0.00871720512759803</v>
       </c>
       <c r="ET3">
-        <v>0.004692485461120176</v>
+        <v>0.004691865912308378</v>
       </c>
       <c r="EU3">
-        <v>0.002691734020334853</v>
+        <v>0.002689174669389648</v>
       </c>
       <c r="EV3">
-        <v>0.0004029655880737426</v>
+        <v>0.0003981871919251869</v>
       </c>
       <c r="EW3">
-        <v>0.0001288239561872981</v>
+        <v>0.0001237797696404209</v>
       </c>
       <c r="EX3">
-        <v>0.0001168689765411203</v>
+        <v>0.000111813199201629</v>
       </c>
       <c r="EY3">
-        <v>0.001365604759583264</v>
+        <v>0.001361759677528867</v>
       </c>
       <c r="EZ3">
-        <v>0.008881468737142113</v>
+        <v>0.008884910561737317</v>
       </c>
       <c r="FA3">
-        <v>0.007350410782455639</v>
+        <v>0.007352368190033155</v>
       </c>
       <c r="FB3">
-        <v>0.005162937447196577</v>
+        <v>0.005162774018894129</v>
       </c>
       <c r="FC3">
-        <v>0.006497904507686601</v>
+        <v>0.006499035379065351</v>
       </c>
       <c r="FD3">
-        <v>0.00225572603323904</v>
+        <v>0.002252743956508759</v>
       </c>
       <c r="FE3">
-        <v>3.081107108810882E-05</v>
+        <v>2.567185744304194E-05</v>
       </c>
       <c r="FF3">
-        <v>0.0003333721701334445</v>
+        <v>0.0003285263006057176</v>
       </c>
       <c r="FG3">
-        <v>0.003989046881939298</v>
+        <v>0.0039877453235441</v>
       </c>
       <c r="FH3">
-        <v>0.009941669705764175</v>
+        <v>0.009946139434205329</v>
       </c>
       <c r="FI3">
-        <v>0.009627659715057683</v>
+        <v>0.009631824999259806</v>
       </c>
       <c r="FJ3">
-        <v>0.003337902601210706</v>
+        <v>0.003335969734478469</v>
       </c>
       <c r="FK3">
-        <v>0.002682054320621335</v>
+        <v>0.002679485584851123</v>
       </c>
       <c r="FL3">
-        <v>0.0006608655504408789</v>
+        <v>0.0006563371977944831</v>
       </c>
       <c r="FM3">
-        <v>2.382062629499955E-07</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.0002103626237740619</v>
+        <v>0.0002053974919653774</v>
       </c>
       <c r="FO3">
-        <v>0.0004092753078869987</v>
+        <v>0.000404503029243949</v>
       </c>
       <c r="FP3">
-        <v>0.001485437456036669</v>
+        <v>0.001481708556190364</v>
       </c>
       <c r="FQ3">
-        <v>0.007237002085812108</v>
+        <v>0.007238849539485699</v>
       </c>
       <c r="FR3">
-        <v>0.005828665827493534</v>
+        <v>0.005829147847349236</v>
       </c>
       <c r="FS3">
-        <v>0.003917413184059386</v>
+        <v>0.003916042174158549</v>
       </c>
       <c r="FT3">
-        <v>0.002219411434313815</v>
+        <v>0.00221639414924379</v>
       </c>
       <c r="FU3">
-        <v>0.0001766013247732687</v>
+        <v>0.0001716034601430586</v>
       </c>
       <c r="FV3">
-        <v>0.0004942564853718772</v>
+        <v>0.0004895665991070231</v>
       </c>
       <c r="FW3">
-        <v>7.521285177398404E-05</v>
+        <v>7.01166872889206E-05</v>
       </c>
       <c r="FX3">
-        <v>0.0002055483539165461</v>
+        <v>0.0002005785544961083</v>
       </c>
       <c r="FY3">
-        <v>0.0003811927887181351</v>
+        <v>0.0003763932830395402</v>
       </c>
       <c r="FZ3">
-        <v>0.0004638335262722818</v>
+        <v>0.0004591141438292603</v>
       </c>
       <c r="GA3">
-        <v>0.001932119342816575</v>
+        <v>0.001928823517493804</v>
       </c>
       <c r="GB3">
-        <v>0.002405874328795218</v>
+        <v>0.002403037826361728</v>
       </c>
       <c r="GC3">
-        <v>0.002876734514859538</v>
+        <v>0.002874354528700305</v>
       </c>
       <c r="GD3">
-        <v>0.001751412248164821</v>
+        <v>0.001747941220665218</v>
       </c>
       <c r="GE3">
-        <v>0.0002905209914016774</v>
+        <v>0.0002856335760795912</v>
       </c>
       <c r="GF3">
-        <v>4.748439859464138E-06</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.0001428450257723274</v>
+        <v>0.0001378144331682756</v>
       </c>
       <c r="GH3">
-        <v>0.0005678913231925646</v>
+        <v>0.0005632728286121475</v>
       </c>
       <c r="GI3">
-        <v>0.002792876917341406</v>
+        <v>0.002790415628156094</v>
       </c>
       <c r="GJ3">
-        <v>0.003585796493873985</v>
+        <v>0.003584103969391186</v>
       </c>
       <c r="GK3">
-        <v>0.00159535685278347</v>
+        <v>0.001591734523836461</v>
       </c>
       <c r="GL3">
-        <v>0.00405760087991036</v>
+        <v>0.004056365787138431</v>
       </c>
       <c r="GM3">
-        <v>0.00309332190844937</v>
+        <v>0.003091151911736898</v>
       </c>
       <c r="GN3">
-        <v>0.0006911221795453973</v>
+        <v>0.0006866231618141189</v>
       </c>
       <c r="GO3">
-        <v>0.0001080688868015697</v>
+        <v>0.0001030045774513034</v>
       </c>
       <c r="GP3">
-        <v>0.000617335121729215</v>
+        <v>0.0006127645647306135</v>
       </c>
       <c r="GQ3">
-        <v>0.003411426999034662</v>
+        <v>0.003409565416911222</v>
       </c>
       <c r="GR3">
-        <v>0.005212118845740994</v>
+        <v>0.005212003100613915</v>
       </c>
       <c r="GS3">
-        <v>0.004815515457478953</v>
+        <v>0.004815015190775139</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.357085233374475E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.253277130821547E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>4.847034819201975E-06</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3.671009090280254E-05</v>
+        <v>2.423213753050784E-05</v>
       </c>
       <c r="F4">
-        <v>2.450044860253371E-05</v>
+        <v>1.199481195515084E-05</v>
       </c>
       <c r="G4">
-        <v>1.923975847315881E-07</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4.523313111240764E-06</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3.868411095134915E-05</v>
+        <v>2.621063333179885E-05</v>
       </c>
       <c r="J4">
-        <v>0.0001521371037414716</v>
+        <v>0.0001399208613735156</v>
       </c>
       <c r="K4">
-        <v>4.906796820671688E-05</v>
+        <v>3.661803420702106E-05</v>
       </c>
       <c r="L4">
-        <v>5.256580429273833E-05</v>
+        <v>4.012380103795717E-05</v>
       </c>
       <c r="M4">
-        <v>7.505770184587623E-05</v>
+        <v>6.266669512087914E-05</v>
       </c>
       <c r="N4">
-        <v>3.764855192588189E-06</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.487462861173583E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.763756543375645E-06</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>4.124259501426934E-05</v>
+        <v>2.877491831962582E-05</v>
       </c>
       <c r="R4">
-        <v>0.0002658766865386421</v>
+        <v>0.0002539183292160915</v>
       </c>
       <c r="S4">
-        <v>0.0003720840391505743</v>
+        <v>0.0003603664888300993</v>
       </c>
       <c r="T4">
-        <v>0.0002031877749969487</v>
+        <v>0.0001910872812923069</v>
       </c>
       <c r="U4">
-        <v>9.126016224433948E-05</v>
+        <v>7.890589182637623E-05</v>
       </c>
       <c r="V4">
-        <v>1.10257602711539E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>4.847034819201975E-06</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1.083108226636623E-05</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>2.078846851124586E-08</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>5.306010130489446E-06</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>1.477964036347218E-05</v>
+        <v>2.251963446444769E-06</v>
       </c>
       <c r="AB4">
-        <v>5.515880635650741E-05</v>
+        <v>4.272268229029461E-05</v>
       </c>
       <c r="AC4">
-        <v>7.353492180842685E-05</v>
+        <v>6.114046244021232E-05</v>
       </c>
       <c r="AD4">
-        <v>4.45041630944803E-05</v>
+        <v>3.204388144746904E-05</v>
       </c>
       <c r="AE4">
-        <v>2.672323265719811E-05</v>
+        <v>1.422263579238492E-05</v>
       </c>
       <c r="AF4">
-        <v>8.084364198816847E-06</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>5.4425281338468E-06</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>1.674336341176556E-07</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>2.424654059628941E-05</v>
+        <v>1.174032825594101E-05</v>
       </c>
       <c r="AJ4">
-        <v>9.310526228971557E-07</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>8.349840205345636E-09</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>1.009339874822456E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>1.111589327337052E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>2.860222470340771E-06</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>1.313896032312333E-05</v>
+        <v>6.075634447922459E-07</v>
       </c>
       <c r="AP4">
-        <v>1.570697838627798E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>8.349840205345636E-09</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>8.491791208836602E-08</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>4.372190307524236E-05</v>
+        <v>3.125984778746666E-05</v>
       </c>
       <c r="AT4">
-        <v>4.948135121688311E-05</v>
+        <v>3.70323544924412E-05</v>
       </c>
       <c r="AU4">
-        <v>3.651456689799406E-06</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0735551818089251</v>
+        <v>0.07370939441262075</v>
       </c>
       <c r="AW4">
-        <v>0.04894555520370641</v>
+        <v>0.04904396968929384</v>
       </c>
       <c r="AX4">
-        <v>0.01984197848796906</v>
+        <v>0.01987440559239842</v>
       </c>
       <c r="AY4">
-        <v>3.226048079337433E-05</v>
+        <v>1.977243869139656E-05</v>
       </c>
       <c r="AZ4">
-        <v>0.007693647189208036</v>
+        <v>0.007698530030756046</v>
       </c>
       <c r="BA4">
-        <v>0.00103809852552971</v>
+        <v>0.001027891049115228</v>
       </c>
       <c r="BB4">
-        <v>0.002689388366139489</v>
+        <v>0.002682924906935642</v>
       </c>
       <c r="BC4">
-        <v>0.03379627383114373</v>
+        <v>0.03386033991296052</v>
       </c>
       <c r="BD4">
-        <v>0.03294998081033104</v>
+        <v>0.03301212806750709</v>
       </c>
       <c r="BE4">
-        <v>0.0004774744817424164</v>
+        <v>0.0004659958862203035</v>
       </c>
       <c r="BF4">
-        <v>0.01696449741720385</v>
+        <v>0.0169904003255852</v>
       </c>
       <c r="BG4">
-        <v>1.433031135242194E-05</v>
+        <v>1.801615658733257E-06</v>
       </c>
       <c r="BH4">
-        <v>0.002106958551815931</v>
+        <v>0.002099174532650297</v>
       </c>
       <c r="BI4">
-        <v>0.0006589087162043853</v>
+        <v>0.0006478414917691153</v>
       </c>
       <c r="BJ4">
-        <v>3.272477480479261E-06</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.01086841226728428</v>
+        <v>0.01088049334550748</v>
       </c>
       <c r="BL4">
-        <v>0.02562537863019885</v>
+        <v>0.02567091860502563</v>
       </c>
       <c r="BM4">
-        <v>0.00766268618844662</v>
+        <v>0.007667498831222216</v>
       </c>
       <c r="BN4">
-        <v>0.0009303668828802916</v>
+        <v>0.0009199151433968498</v>
       </c>
       <c r="BO4">
-        <v>0.002113830351984927</v>
+        <v>0.002106061913450548</v>
       </c>
       <c r="BP4">
-        <v>0.005792488442453291</v>
+        <v>0.005793060731793597</v>
       </c>
       <c r="BQ4">
-        <v>4.155373102192103E-06</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.005006008423111575</v>
+        <v>0.005004797503559159</v>
       </c>
       <c r="BS4">
-        <v>0.009226789226912235</v>
+        <v>0.009235148205740538</v>
       </c>
       <c r="BT4">
-        <v>0.001767725943473264</v>
+        <v>0.001759172772404186</v>
       </c>
       <c r="BU4">
-        <v>0.008757040215359809</v>
+        <v>0.008764334118669156</v>
       </c>
       <c r="BV4">
-        <v>0.008724006214547411</v>
+        <v>0.008731225218911379</v>
       </c>
       <c r="BW4">
-        <v>0.01337106432883141</v>
+        <v>0.01338881974245002</v>
       </c>
       <c r="BX4">
-        <v>0.005768609341866038</v>
+        <v>0.005769127489431003</v>
       </c>
       <c r="BY4">
-        <v>0.0001439267835395572</v>
+        <v>0.0001316919256751663</v>
       </c>
       <c r="BZ4">
-        <v>0.0001224237330107378</v>
+        <v>0.0001101401206580183</v>
       </c>
       <c r="CA4">
-        <v>7.923146894852068E-07</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0009409468231404815</v>
+        <v>0.0009305190718615616</v>
       </c>
       <c r="CC4">
-        <v>0.001351308233232402</v>
+        <v>0.001341810906246166</v>
       </c>
       <c r="CD4">
-        <v>0.000195807364815444</v>
+        <v>0.0001836901372933575</v>
       </c>
       <c r="CE4">
-        <v>0.000772449788996674</v>
+        <v>0.0007616399995193344</v>
       </c>
       <c r="CF4">
-        <v>0.0221186375439584</v>
+        <v>0.022156226583306</v>
       </c>
       <c r="CG4">
-        <v>0.01331750632751427</v>
+        <v>0.01333514030752761</v>
       </c>
       <c r="CH4">
-        <v>0.004687628815281741</v>
+        <v>0.004685696024437008</v>
       </c>
       <c r="CI4">
-        <v>0.002936064572205938</v>
+        <v>0.00293016040909794</v>
       </c>
       <c r="CJ4">
-        <v>0.003302073081207098</v>
+        <v>0.003296998779776462</v>
       </c>
       <c r="CK4">
-        <v>0.0001225062630127674</v>
+        <v>0.0001102228377827083</v>
       </c>
       <c r="CL4">
-        <v>0.0005638478438665759</v>
+        <v>0.0005525650851663101</v>
       </c>
       <c r="CM4">
-        <v>0.006061474149068393</v>
+        <v>0.006062656317480328</v>
       </c>
       <c r="CN4">
-        <v>0.01188278929223061</v>
+        <v>0.01189717029681808</v>
       </c>
       <c r="CO4">
-        <v>0.02504615961595425</v>
+        <v>0.02509038631075913</v>
       </c>
       <c r="CP4">
-        <v>0.03821940093992064</v>
+        <v>0.03829349570574724</v>
       </c>
       <c r="CQ4">
-        <v>0.01721598442338861</v>
+        <v>0.01724245753553205</v>
       </c>
       <c r="CR4">
-        <v>0.005272832129673507</v>
+        <v>0.005272226187227475</v>
       </c>
       <c r="CS4">
-        <v>7.30307917960289E-05</v>
+        <v>6.063518939925791E-05</v>
       </c>
       <c r="CT4">
-        <v>0.02088109251352374</v>
+        <v>0.02091587563123425</v>
       </c>
       <c r="CU4">
-        <v>0.02280409456081568</v>
+        <v>0.0228432377566809</v>
       </c>
       <c r="CV4">
-        <v>0.03539308087041362</v>
+        <v>0.03546076743900994</v>
       </c>
       <c r="CW4">
-        <v>0.03192255678506385</v>
+        <v>0.03198237453403448</v>
       </c>
       <c r="CX4">
-        <v>0.01280824131499003</v>
+        <v>0.01282472062371262</v>
       </c>
       <c r="CY4">
-        <v>0.006741902165801997</v>
+        <v>0.006744627088334135</v>
       </c>
       <c r="CZ4">
-        <v>0.004221377503815333</v>
+        <v>0.004218387567888205</v>
       </c>
       <c r="DA4">
-        <v>5.42875413350806E-05</v>
+        <v>4.184944182448788E-05</v>
       </c>
       <c r="DB4">
-        <v>0.003505469386209175</v>
+        <v>0.003500856251103056</v>
       </c>
       <c r="DC4">
-        <v>0.01184216829123163</v>
+        <v>0.01185645719464878</v>
       </c>
       <c r="DD4">
-        <v>0.02481061061016145</v>
+        <v>0.02485430323789346</v>
       </c>
       <c r="DE4">
-        <v>0.0240923605924977</v>
+        <v>0.02413442471119298</v>
       </c>
       <c r="DF4">
-        <v>0.02148280552832153</v>
+        <v>0.02151895292735192</v>
       </c>
       <c r="DG4">
-        <v>0.008078201198665282</v>
+        <v>0.008083955950640171</v>
       </c>
       <c r="DH4">
-        <v>1.400668134446299E-05</v>
+        <v>1.477251875097931E-06</v>
       </c>
       <c r="DI4">
-        <v>0.0001586507339016598</v>
+        <v>0.000146449260075739</v>
       </c>
       <c r="DJ4">
-        <v>0.00192284784728814</v>
+        <v>0.00191464638859768</v>
       </c>
       <c r="DK4">
-        <v>0.002348694357760882</v>
+        <v>0.002341458433179025</v>
       </c>
       <c r="DL4">
-        <v>0.003037981574712359</v>
+        <v>0.003032308490971566</v>
       </c>
       <c r="DM4">
-        <v>0.006619962162803156</v>
+        <v>0.00662241060724001</v>
       </c>
       <c r="DN4">
-        <v>0.002835886369742279</v>
+        <v>0.002829755069698698</v>
       </c>
       <c r="DO4">
-        <v>0.01392226734238701</v>
+        <v>0.01394127251453896</v>
       </c>
       <c r="DP4">
-        <v>0.01639003340307619</v>
+        <v>0.01641463381258491</v>
       </c>
       <c r="DQ4">
-        <v>0.00337922308310443</v>
+        <v>0.003374323706104261</v>
       </c>
       <c r="DR4">
-        <v>0.0004618959113592963</v>
+        <v>0.0004503819940940241</v>
       </c>
       <c r="DS4">
-        <v>0.003674828090374174</v>
+        <v>0.003670598947155833</v>
       </c>
       <c r="DT4">
-        <v>0.01149863778278327</v>
+        <v>0.01151214778954377</v>
       </c>
       <c r="DU4">
-        <v>0.008537993209972838</v>
+        <v>0.00854479046167207</v>
       </c>
       <c r="DV4">
-        <v>0.007819192192295536</v>
+        <v>0.007824359685659787</v>
       </c>
       <c r="DW4">
-        <v>0.00242988605975761</v>
+        <v>0.002422834223469741</v>
       </c>
       <c r="DX4">
-        <v>0.001701198841837179</v>
+        <v>0.001692494831946609</v>
       </c>
       <c r="DY4">
-        <v>0.005377400132245123</v>
+        <v>0.005377031279855411</v>
       </c>
       <c r="DZ4">
-        <v>0.0003626779089192516</v>
+        <v>0.0003509390318076794</v>
       </c>
       <c r="EA4">
-        <v>6.022702148114882E-05</v>
+        <v>4.780238872566004E-05</v>
       </c>
       <c r="EB4">
-        <v>0.001057797726014168</v>
+        <v>0.001047634914166642</v>
       </c>
       <c r="EC4">
-        <v>0.005482094534819848</v>
+        <v>0.005481963059076837</v>
       </c>
       <c r="ED4">
-        <v>0.00192284784728814</v>
+        <v>0.00191464638859768</v>
       </c>
       <c r="EE4">
-        <v>0.0007278307178993678</v>
+        <v>0.0007169197623117533</v>
       </c>
       <c r="EF4">
-        <v>0.002276012755973441</v>
+        <v>0.002268612038293912</v>
       </c>
       <c r="EG4">
-        <v>0.001648484340540783</v>
+        <v>0.00163966080953693</v>
       </c>
       <c r="EH4">
-        <v>0.001539561737862076</v>
+        <v>0.001530491243491146</v>
       </c>
       <c r="EI4">
-        <v>0.001949624647946656</v>
+        <v>0.00194148390107071</v>
       </c>
       <c r="EJ4">
-        <v>1.523590337469295E-05</v>
+        <v>2.709260955985927E-06</v>
       </c>
       <c r="EK4">
-        <v>0.0009560606835121731</v>
+        <v>0.0009456672003259642</v>
       </c>
       <c r="EL4">
-        <v>0.0006700408164781545</v>
+        <v>0.0006589988321757735</v>
       </c>
       <c r="EM4">
-        <v>7.236131177956453E-05</v>
+        <v>5.996419145139096E-05</v>
       </c>
       <c r="EN4">
-        <v>0.0005528917635971356</v>
+        <v>0.0005415841638592269</v>
       </c>
       <c r="EO4">
-        <v>0.0008813340916744399</v>
+        <v>0.000870771178725477</v>
       </c>
       <c r="EP4">
-        <v>4.887839620205478E-05</v>
+        <v>3.64280323802704E-05</v>
       </c>
       <c r="EQ4">
-        <v>0.004164965102427996</v>
+        <v>0.004161847261031765</v>
       </c>
       <c r="ER4">
-        <v>0.008876849218306242</v>
+        <v>0.008884414768032827</v>
       </c>
       <c r="ES4">
-        <v>0.007862648193364238</v>
+        <v>0.007867914215776451</v>
       </c>
       <c r="ET4">
-        <v>0.00487304311984159</v>
+        <v>0.004871530724211736</v>
       </c>
       <c r="EU4">
-        <v>0.0006046468748699368</v>
+        <v>0.000593456620992566</v>
       </c>
       <c r="EV4">
-        <v>3.865308095058603E-06</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.0004936427121400379</v>
+        <v>0.0004822007753142879</v>
       </c>
       <c r="EX4">
-        <v>0.0004763512817147939</v>
+        <v>0.0004648701395287756</v>
       </c>
       <c r="EY4">
-        <v>0.005247745829056565</v>
+        <v>0.005247083007715653</v>
       </c>
       <c r="EZ4">
-        <v>0.007604374187012567</v>
+        <v>0.007609054617300939</v>
       </c>
       <c r="FA4">
-        <v>0.005825972843276766</v>
+        <v>0.005826621052767422</v>
       </c>
       <c r="FB4">
-        <v>0.00527337342968682</v>
+        <v>0.005272768714545962</v>
       </c>
       <c r="FC4">
-        <v>0.003425021784230747</v>
+        <v>0.003420226247950132</v>
       </c>
       <c r="FD4">
-        <v>0.0006958845171137225</v>
+        <v>0.0006849011289811881</v>
       </c>
       <c r="FE4">
-        <v>5.820594843144505E-05</v>
+        <v>4.577673323858159E-05</v>
       </c>
       <c r="FF4">
-        <v>0.001874623446102169</v>
+        <v>0.001866312646832259</v>
       </c>
       <c r="FG4">
-        <v>0.00557348613706742</v>
+        <v>0.005573561876147215</v>
       </c>
       <c r="FH4">
-        <v>0.01009011224814373</v>
+        <v>0.01010042866422523</v>
       </c>
       <c r="FI4">
-        <v>0.007824399692423602</v>
+        <v>0.007829578992903492</v>
       </c>
       <c r="FJ4">
-        <v>0.002553337562793623</v>
+        <v>0.002546565631668785</v>
       </c>
       <c r="FK4">
-        <v>0.001613303039675578</v>
+        <v>0.001604399741090836</v>
       </c>
       <c r="FL4">
-        <v>0.0005722692740736822</v>
+        <v>0.0005610056095256712</v>
       </c>
       <c r="FM4">
-        <v>0.0003733649091820744</v>
+        <v>0.0003616502630152643</v>
       </c>
       <c r="FN4">
-        <v>0.0004377507807655009</v>
+        <v>0.0004261821185473603</v>
       </c>
       <c r="FO4">
-        <v>0.0004389837707958235</v>
+        <v>0.0004274179041716365</v>
       </c>
       <c r="FP4">
-        <v>0.004142672401879757</v>
+        <v>0.004139504015598872</v>
       </c>
       <c r="FQ4">
-        <v>0.006756416166158937</v>
+        <v>0.006759173996703826</v>
       </c>
       <c r="FR4">
-        <v>0.005239217128846821</v>
+        <v>0.005238534970137275</v>
       </c>
       <c r="FS4">
-        <v>0.004038469499317121</v>
+        <v>0.004035064850781725</v>
       </c>
       <c r="FT4">
-        <v>0.0004094733100700797</v>
+        <v>0.0003978405335248518</v>
       </c>
       <c r="FU4">
-        <v>0.0001608837939565769</v>
+        <v>0.0001486873832122984</v>
       </c>
       <c r="FV4">
-        <v>2.719410866877825E-05</v>
+        <v>1.469457943476377E-05</v>
       </c>
       <c r="FW4">
-        <v>0.0004014179698719767</v>
+        <v>0.0003897669292209586</v>
       </c>
       <c r="FX4">
-        <v>0.0003500789086094074</v>
+        <v>0.0003383114654200717</v>
       </c>
       <c r="FY4">
-        <v>0.0004014179698719767</v>
+        <v>0.0003897669292209586</v>
       </c>
       <c r="FZ4">
-        <v>0.001292079031775793</v>
+        <v>0.001282447412708195</v>
       </c>
       <c r="GA4">
-        <v>0.002036926650093653</v>
+        <v>0.002028983845571933</v>
       </c>
       <c r="GB4">
-        <v>0.002825046069475686</v>
+        <v>0.002818890190905812</v>
       </c>
       <c r="GC4">
-        <v>0.004755908116960917</v>
+        <v>0.004754130137751508</v>
       </c>
       <c r="GD4">
-        <v>0.0009897351243403206</v>
+        <v>0.0009794179921876606</v>
       </c>
       <c r="GE4">
-        <v>0.0001062707986134925</v>
+        <v>9.395056224547406E-05</v>
       </c>
       <c r="GF4">
-        <v>9.716602238958088E-05</v>
+        <v>8.48251424991214E-05</v>
       </c>
       <c r="GG4">
-        <v>0.000446833010988858</v>
+        <v>0.0004352849411739594</v>
       </c>
       <c r="GH4">
-        <v>0.0009924418244068858</v>
+        <v>0.0009821308292335639</v>
       </c>
       <c r="GI4">
-        <v>0.003672900690326773</v>
+        <v>0.003668667177058565</v>
       </c>
       <c r="GJ4">
-        <v>0.004232864104097821</v>
+        <v>0.004229900212071703</v>
       </c>
       <c r="GK4">
-        <v>0.003223584379276844</v>
+        <v>0.003218332118142442</v>
       </c>
       <c r="GL4">
-        <v>0.005848468843830004</v>
+        <v>0.005849168059153295</v>
       </c>
       <c r="GM4">
-        <v>0.001394496434294519</v>
+        <v>0.001385097029165547</v>
       </c>
       <c r="GN4">
-        <v>0.000678389716683477</v>
+        <v>0.0006673666620839804</v>
       </c>
       <c r="GO4">
-        <v>1.202515529573179E-05</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.001259824830982573</v>
+        <v>0.001250120081032731</v>
       </c>
       <c r="GQ4">
-        <v>0.003576723987961522</v>
+        <v>0.003572272410474628</v>
       </c>
       <c r="GR4">
-        <v>0.005404785432918603</v>
+        <v>0.005404478672013087</v>
       </c>
       <c r="GS4">
-        <v>0.004806129118195991</v>
+        <v>0.004804465006515064</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.039695572785836E-05</v>
+        <v>5.45831488693472E-05</v>
       </c>
       <c r="C5">
-        <v>5.019891826725895E-05</v>
+        <v>4.437392569587593E-05</v>
       </c>
       <c r="D5">
-        <v>4.917273222091075E-07</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3.049365337726093E-06</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3.89861137608271E-05</v>
+        <v>3.314882242978743E-05</v>
       </c>
       <c r="G5">
-        <v>7.291129329307459E-05</v>
+        <v>6.711121278017915E-05</v>
       </c>
       <c r="H5">
-        <v>3.822225472632703E-05</v>
+        <v>3.238412555684369E-05</v>
       </c>
       <c r="I5">
-        <v>7.229654626530924E-06</v>
+        <v>1.357531237354996E-06</v>
       </c>
       <c r="J5">
-        <v>4.291877193844754E-05</v>
+        <v>3.708579414178819E-05</v>
       </c>
       <c r="K5">
-        <v>2.507304013243625E-06</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.681123175928759E-06</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>6.313359285145992E-07</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.312063459259995E-05</v>
+        <v>7.254972722190638E-06</v>
       </c>
       <c r="O5">
-        <v>2.598502117362632E-05</v>
+        <v>2.013346959994067E-05</v>
       </c>
       <c r="P5">
-        <v>5.873610765284534E-06</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.999339735466662E-05</v>
+        <v>2.41462423666198E-05</v>
       </c>
       <c r="R5">
-        <v>1.019525846047389E-06</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>3.428917154868738E-05</v>
+        <v>2.844672837866264E-05</v>
       </c>
       <c r="T5">
-        <v>7.513927739370259E-06</v>
+        <v>1.642116155032242E-06</v>
       </c>
       <c r="U5">
-        <v>9.928564448428521E-06</v>
+        <v>4.059401357295372E-06</v>
       </c>
       <c r="V5">
-        <v>1.552236270107518E-05</v>
+        <v>9.659335165077912E-06</v>
       </c>
       <c r="W5">
-        <v>9.100474011027406E-08</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>4.989306225344482E-05</v>
+        <v>4.40677342040285E-05</v>
       </c>
       <c r="Y5">
-        <v>1.29644965855479E-05</v>
+        <v>7.098663455234708E-06</v>
       </c>
       <c r="Z5">
-        <v>2.503736713082506E-06</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>1.954142488259811E-06</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>2.177272598337593E-05</v>
+        <v>1.591655415557652E-05</v>
       </c>
       <c r="AC5">
-        <v>8.229323371681457E-05</v>
+        <v>7.650344378111756E-05</v>
       </c>
       <c r="AD5">
-        <v>1.252560656572521E-05</v>
+        <v>6.65929203908817E-06</v>
       </c>
       <c r="AE5">
-        <v>4.91740572209706E-06</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>2.577602116418674E-07</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>1.504176667936883E-05</v>
+        <v>9.178212001838006E-06</v>
       </c>
       <c r="AH5">
-        <v>1.973010089111976E-05</v>
+        <v>1.38716886108926E-05</v>
       </c>
       <c r="AI5">
-        <v>3.968573979242606E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>2.942966532920538E-06</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>1.633103873759944E-05</v>
+        <v>1.046889819755466E-05</v>
       </c>
       <c r="AL5">
-        <v>5.615705253636104E-05</v>
+        <v>5.033859514191216E-05</v>
       </c>
       <c r="AM5">
-        <v>1.29644965855479E-05</v>
+        <v>7.098663455234708E-06</v>
       </c>
       <c r="AN5">
-        <v>7.771183350989338E-05</v>
+        <v>7.191701846740855E-05</v>
       </c>
       <c r="AO5">
-        <v>1.6580400748862E-05</v>
+        <v>1.071853372142883E-05</v>
       </c>
       <c r="AP5">
-        <v>1.450517965513361E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>4.107380885511888E-07</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>6.962573314468065E-07</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>8.432930380877469E-06</v>
+        <v>2.562126804179755E-06</v>
       </c>
       <c r="AT5">
-        <v>1.535249269340292E-05</v>
+        <v>9.48927883556297E-06</v>
       </c>
       <c r="AU5">
-        <v>0.000150756856809008</v>
+        <v>0.0001450421611679765</v>
       </c>
       <c r="AV5">
-        <v>0.0755107534104805</v>
+        <v>0.07558769729368181</v>
       </c>
       <c r="AW5">
-        <v>0.01483012766981005</v>
+        <v>0.01484051403554365</v>
       </c>
       <c r="AX5">
-        <v>0.03162004542813498</v>
+        <v>0.03164884780772541</v>
       </c>
       <c r="AY5">
-        <v>0.0005823537663022957</v>
+        <v>0.0005771124675402842</v>
       </c>
       <c r="AZ5">
-        <v>0.008062872364163616</v>
+        <v>0.008065836068912488</v>
       </c>
       <c r="BA5">
-        <v>0.002931161032387337</v>
+        <v>0.002928496021834825</v>
       </c>
       <c r="BB5">
-        <v>0.003526665859283607</v>
+        <v>0.003524654027936722</v>
       </c>
       <c r="BC5">
-        <v>0.004705590212530308</v>
+        <v>0.004704871483838127</v>
       </c>
       <c r="BD5">
-        <v>0.07563467341607741</v>
+        <v>0.07571175322088197</v>
       </c>
       <c r="BE5">
-        <v>0.004218504190530826</v>
+        <v>0.00421725120175115</v>
       </c>
       <c r="BF5">
-        <v>0.00866641439142289</v>
+        <v>0.008670040090977047</v>
       </c>
       <c r="BG5">
-        <v>0.001249737556445015</v>
+        <v>0.001245228277297632</v>
       </c>
       <c r="BH5">
-        <v>0.0009106317411291326</v>
+        <v>0.000905750513918413</v>
       </c>
       <c r="BI5">
-        <v>1.188144053663113E-05</v>
+        <v>6.014419456770386E-06</v>
       </c>
       <c r="BJ5">
-        <v>0.0005087447629777087</v>
+        <v>0.0005034227262130026</v>
       </c>
       <c r="BK5">
-        <v>0.002856210029002138</v>
+        <v>0.002853462808474759</v>
       </c>
       <c r="BL5">
-        <v>0.02973607834304468</v>
+        <v>0.02976281429417224</v>
       </c>
       <c r="BM5">
-        <v>0.01818779582146079</v>
+        <v>0.01820186504401939</v>
       </c>
       <c r="BN5">
-        <v>0.001248209556376002</v>
+        <v>0.00124369860124242</v>
       </c>
       <c r="BO5">
-        <v>0.0003989440180185037</v>
+        <v>0.0003935015463553208</v>
       </c>
       <c r="BP5">
-        <v>0.008318982375730951</v>
+        <v>0.008322226994632576</v>
       </c>
       <c r="BQ5">
-        <v>0.0007854740054763216</v>
+        <v>0.0007804554990586846</v>
       </c>
       <c r="BR5">
-        <v>0.00453965940503596</v>
+        <v>0.004538758675211071</v>
       </c>
       <c r="BS5">
-        <v>0.008307568375215431</v>
+        <v>0.008310800474675648</v>
       </c>
       <c r="BT5">
-        <v>0.005669567956068839</v>
+        <v>0.005669906565937705</v>
       </c>
       <c r="BU5">
-        <v>0.00211472589551264</v>
+        <v>0.002111165378441853</v>
       </c>
       <c r="BV5">
-        <v>0.01296190258543074</v>
+        <v>0.01297023978930799</v>
       </c>
       <c r="BW5">
-        <v>0.01126044050858336</v>
+        <v>0.01126691146453521</v>
       </c>
       <c r="BX5">
-        <v>0.009432282426013698</v>
+        <v>0.009436748167582387</v>
       </c>
       <c r="BY5">
-        <v>0.0001689116276289772</v>
+        <v>0.0001632168450402787</v>
       </c>
       <c r="BZ5">
-        <v>2.444187610392941E-05</v>
+        <v>1.858863193225754E-05</v>
       </c>
       <c r="CA5">
-        <v>5.387739943339937E-05</v>
+        <v>4.80564416024542E-05</v>
       </c>
       <c r="CB5">
-        <v>0.0003928285877422973</v>
+        <v>0.0003873794083721246</v>
       </c>
       <c r="CC5">
-        <v>0.001881271084968538</v>
+        <v>0.001877454503092205</v>
       </c>
       <c r="CD5">
-        <v>3.033099836991453E-05</v>
+        <v>2.448421367939176E-05</v>
       </c>
       <c r="CE5">
-        <v>0.0002900918131021401</v>
+        <v>0.0002845299469462062</v>
       </c>
       <c r="CF5">
-        <v>0.01706977777096495</v>
+        <v>0.01708262069592004</v>
       </c>
       <c r="CG5">
-        <v>0.01511595668271965</v>
+        <v>0.01512665655987947</v>
       </c>
       <c r="CH5">
-        <v>0.007661379746030003</v>
+        <v>0.007663903073778499</v>
       </c>
       <c r="CI5">
-        <v>0.002038062892050118</v>
+        <v>0.002034418287197938</v>
       </c>
       <c r="CJ5">
-        <v>0.004960394224038656</v>
+        <v>0.004959954977013644</v>
       </c>
       <c r="CK5">
-        <v>0.0005627427254165533</v>
+        <v>0.0005574799162930322</v>
       </c>
       <c r="CL5">
-        <v>1.051814747505733E-05</v>
+        <v>4.649631067805807E-06</v>
       </c>
       <c r="CM5">
-        <v>0.006206451280317439</v>
+        <v>0.006207378770422717</v>
       </c>
       <c r="CN5">
-        <v>0.01193785753917924</v>
+        <v>0.01194507151970106</v>
       </c>
       <c r="CO5">
-        <v>0.02209171099778305</v>
+        <v>0.02211006222797372</v>
       </c>
       <c r="CP5">
-        <v>0.0362960336393283</v>
+        <v>0.03632996487451714</v>
       </c>
       <c r="CQ5">
-        <v>0.02448939310607554</v>
+        <v>0.02451037423282474</v>
       </c>
       <c r="CR5">
-        <v>0.006472363892327514</v>
+        <v>0.0064735830485635</v>
       </c>
       <c r="CS5">
-        <v>0.001053812647595969</v>
+        <v>0.001049088468299092</v>
       </c>
       <c r="CT5">
-        <v>0.00923214541697441</v>
+        <v>0.009236391638353377</v>
       </c>
       <c r="CU5">
-        <v>0.02202746699488143</v>
+        <v>0.02204574775906597</v>
       </c>
       <c r="CV5">
-        <v>0.03236402346173711</v>
+        <v>0.03239364187330419</v>
       </c>
       <c r="CW5">
-        <v>0.036155211632968</v>
+        <v>0.03618898840760154</v>
       </c>
       <c r="CX5">
-        <v>0.01668380475353229</v>
+        <v>0.01669622432415416</v>
       </c>
       <c r="CY5">
-        <v>0.006916392012382263</v>
+        <v>0.006918098200665068</v>
       </c>
       <c r="CZ5">
-        <v>0.005174803733722568</v>
+        <v>0.005174599661673288</v>
       </c>
       <c r="DA5">
-        <v>0.0003636983364266151</v>
+        <v>0.0003582172055531888</v>
       </c>
       <c r="DB5">
-        <v>0.001580624071389667</v>
+        <v>0.001576477724969649</v>
       </c>
       <c r="DC5">
-        <v>0.008854358399911473</v>
+        <v>0.0088581902457681</v>
       </c>
       <c r="DD5">
-        <v>0.02145077196883472</v>
+        <v>0.02146842018533536</v>
       </c>
       <c r="DE5">
-        <v>0.02395048108173532</v>
+        <v>0.0239708711030693</v>
       </c>
       <c r="DF5">
-        <v>0.0226926710249257</v>
+        <v>0.02271168141785598</v>
       </c>
       <c r="DG5">
-        <v>0.01164416552591449</v>
+        <v>0.01165105737048164</v>
       </c>
       <c r="DH5">
-        <v>0.0004400602198755373</v>
+        <v>0.0004346628465001506</v>
       </c>
       <c r="DI5">
-        <v>1.20942725462438E-05</v>
+        <v>6.227484911078529E-06</v>
       </c>
       <c r="DJ5">
-        <v>0.0009106317411291326</v>
+        <v>0.000905750513918413</v>
       </c>
       <c r="DK5">
-        <v>0.003890931975735866</v>
+        <v>0.003889319689517475</v>
       </c>
       <c r="DL5">
-        <v>0.002883652630241596</v>
+        <v>0.002880935510119233</v>
       </c>
       <c r="DM5">
-        <v>0.00581864926280217</v>
+        <v>0.005819151392436297</v>
       </c>
       <c r="DN5">
-        <v>0.003252345946893812</v>
+        <v>0.003250033227872521</v>
       </c>
       <c r="DO5">
-        <v>0.009348669422237275</v>
+        <v>0.009353043452919806</v>
       </c>
       <c r="DP5">
-        <v>0.01882892585041774</v>
+        <v>0.01884369829616464</v>
       </c>
       <c r="DQ5">
-        <v>0.006337714686246016</v>
+        <v>0.006338786152559949</v>
       </c>
       <c r="DR5">
-        <v>0.001176163853122022</v>
+        <v>0.001171573874690735</v>
       </c>
       <c r="DS5">
-        <v>0.001188218053666456</v>
+        <v>0.001183641296879698</v>
       </c>
       <c r="DT5">
-        <v>0.0108831444915426</v>
+        <v>0.01088920161052527</v>
       </c>
       <c r="DU5">
-        <v>0.009964964450072545</v>
+        <v>0.009970014463683395</v>
       </c>
       <c r="DV5">
-        <v>0.007529429340070397</v>
+        <v>0.007531807938074558</v>
       </c>
       <c r="DW5">
-        <v>0.004865761619764528</v>
+        <v>0.004865218575009431</v>
       </c>
       <c r="DX5">
-        <v>0.001412638163802501</v>
+        <v>0.001408307562114148</v>
       </c>
       <c r="DY5">
-        <v>0.003929512177478359</v>
+        <v>0.003927942207937163</v>
       </c>
       <c r="DZ5">
-        <v>0.001228100955467787</v>
+        <v>0.001223567944224205</v>
       </c>
       <c r="EA5">
-        <v>4.053650783085141E-05</v>
+        <v>3.470091704886076E-05</v>
       </c>
       <c r="EB5">
-        <v>0.0005598300252849998</v>
+        <v>0.0005545640213676294</v>
       </c>
       <c r="EC5">
-        <v>0.002697501421833985</v>
+        <v>0.002694580121841127</v>
       </c>
       <c r="ED5">
-        <v>0.003292197948693747</v>
+        <v>0.00328992894132298</v>
       </c>
       <c r="EE5">
-        <v>0.0004949241223534927</v>
+        <v>0.0004895869264252392</v>
       </c>
       <c r="EF5">
-        <v>0.001359160261387145</v>
+        <v>0.001354771002485213</v>
       </c>
       <c r="EG5">
-        <v>0.00227099740257072</v>
+        <v>0.002267608291833236</v>
       </c>
       <c r="EH5">
-        <v>0.001524025868833382</v>
+        <v>0.001519817442699957</v>
       </c>
       <c r="EI5">
-        <v>0.001417949464042388</v>
+        <v>0.001413624688051351</v>
       </c>
       <c r="EJ5">
-        <v>0.0002150751297139745</v>
+        <v>0.0002094309815420918</v>
       </c>
       <c r="EK5">
-        <v>0.0006636867299757392</v>
+        <v>0.0006585346412389099</v>
       </c>
       <c r="EL5">
-        <v>0.0008121125066794627</v>
+        <v>0.000807123218690072</v>
       </c>
       <c r="EM5">
-        <v>2.220437500287157E-06</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0004042368182575557</v>
+        <v>0.0003988001519999708</v>
       </c>
       <c r="EO5">
-        <v>0.0009895633446941176</v>
+        <v>0.0009847686935778089</v>
       </c>
       <c r="EP5">
-        <v>2.607806817782884E-05</v>
+        <v>2.022661866270854E-05</v>
       </c>
       <c r="EQ5">
-        <v>0.003247802246688594</v>
+        <v>0.003245484543911745</v>
       </c>
       <c r="ER5">
-        <v>0.007350921932008022</v>
+        <v>0.007353104734240712</v>
       </c>
       <c r="ES5">
-        <v>0.007003762316328386</v>
+        <v>0.007005564336690378</v>
       </c>
       <c r="ET5">
-        <v>0.006851975609472865</v>
+        <v>0.006853611142652669</v>
       </c>
       <c r="EU5">
-        <v>0.001595321572053487</v>
+        <v>0.001591191346580562</v>
       </c>
       <c r="EV5">
-        <v>0.0003136226141649204</v>
+        <v>0.0003080865577577102</v>
       </c>
       <c r="EW5">
-        <v>7.771183350989338E-05</v>
+        <v>7.191701846740855E-05</v>
       </c>
       <c r="EX5">
-        <v>0.0005902921766608379</v>
+        <v>0.0005850595851407122</v>
       </c>
       <c r="EY5">
-        <v>0.004620086608668495</v>
+        <v>0.004619274095386288</v>
       </c>
       <c r="EZ5">
-        <v>0.008974092405319318</v>
+        <v>0.008978055581366745</v>
       </c>
       <c r="FA5">
-        <v>0.007373585733031644</v>
+        <v>0.007375793394044448</v>
       </c>
       <c r="FB5">
-        <v>0.006498583893511753</v>
+        <v>0.006499831809144425</v>
       </c>
       <c r="FC5">
-        <v>0.004085014184501684</v>
+        <v>0.004083614777268018</v>
       </c>
       <c r="FD5">
-        <v>0.001677281275755238</v>
+        <v>0.001673240947747018</v>
       </c>
       <c r="FE5">
-        <v>2.264172602262475E-05</v>
+        <v>1.678650735713349E-05</v>
       </c>
       <c r="FF5">
-        <v>0.001069837148319724</v>
+        <v>0.001065130545489368</v>
       </c>
       <c r="FG5">
-        <v>0.005030066927185459</v>
+        <v>0.005029704100634034</v>
       </c>
       <c r="FH5">
-        <v>0.008175699369259503</v>
+        <v>0.008178786828258943</v>
       </c>
       <c r="FI5">
-        <v>0.01023679246234979</v>
+        <v>0.01024214063039551</v>
       </c>
       <c r="FJ5">
-        <v>0.004602151707858456</v>
+        <v>0.00460131952268824</v>
       </c>
       <c r="FK5">
-        <v>0.001188218053666456</v>
+        <v>0.001183641296879698</v>
       </c>
       <c r="FL5">
-        <v>0.0008891858001605161</v>
+        <v>0.0008842810499789436</v>
       </c>
       <c r="FM5">
-        <v>6.962487814464203E-05</v>
+        <v>6.38211929287466E-05</v>
       </c>
       <c r="FN5">
-        <v>0.0007733979349308999</v>
+        <v>0.0007683661828806337</v>
       </c>
       <c r="FO5">
-        <v>0.000335356145146526</v>
+        <v>0.0003298439271531471</v>
       </c>
       <c r="FP5">
-        <v>0.003259361147210657</v>
+        <v>0.003257056122808727</v>
       </c>
       <c r="FQ5">
-        <v>0.007778401351315341</v>
+        <v>0.007781053034159764</v>
       </c>
       <c r="FR5">
-        <v>0.00595858926912263</v>
+        <v>0.005959244891890709</v>
       </c>
       <c r="FS5">
-        <v>0.004005517480911176</v>
+        <v>0.004004030877753387</v>
       </c>
       <c r="FT5">
-        <v>0.001219420555075732</v>
+        <v>0.001214878022738825</v>
       </c>
       <c r="FU5">
-        <v>0.0004272594692973851</v>
+        <v>0.0004218480554243963</v>
       </c>
       <c r="FV5">
-        <v>2.577602116418674E-07</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.000264544341948276</v>
+        <v>0.0002589544540599222</v>
       </c>
       <c r="FX5">
-        <v>0.0005804317262154858</v>
+        <v>0.0005751883192646564</v>
       </c>
       <c r="FY5">
-        <v>0.0004958863223969508</v>
+        <v>0.0004905501818573888</v>
       </c>
       <c r="FZ5">
-        <v>0.0009519682929961184</v>
+        <v>0.0009471324057640059</v>
       </c>
       <c r="GA5">
-        <v>0.002240934701212924</v>
+        <v>0.00223751261621477</v>
       </c>
       <c r="GB5">
-        <v>0.001707720777130053</v>
+        <v>0.001703713836675434</v>
       </c>
       <c r="GC5">
-        <v>0.00398881918015699</v>
+        <v>0.003987314261475415</v>
       </c>
       <c r="GD5">
-        <v>0.002053921092766361</v>
+        <v>0.002050293881974613</v>
       </c>
       <c r="GE5">
-        <v>0.0001178387013222432</v>
+        <v>0.0001120878994169458</v>
       </c>
       <c r="GF5">
-        <v>0.0001576545671205465</v>
+        <v>0.0001519474372300152</v>
       </c>
       <c r="GG5">
-        <v>6.558193296204042E-05</v>
+        <v>5.97738132435121E-05</v>
       </c>
       <c r="GH5">
-        <v>0.001058400647803188</v>
+        <v>0.001053681500852306</v>
       </c>
       <c r="GI5">
-        <v>0.002628770818729733</v>
+        <v>0.002625774131605302</v>
       </c>
       <c r="GJ5">
-        <v>0.003750352369386518</v>
+        <v>0.003748585888489168</v>
       </c>
       <c r="GK5">
-        <v>0.002448134910571223</v>
+        <v>0.002444940093030934</v>
       </c>
       <c r="GL5">
-        <v>0.004057558483261634</v>
+        <v>0.004056128961254223</v>
       </c>
       <c r="GM5">
-        <v>0.002012244290884008</v>
+        <v>0.002008571366910574</v>
       </c>
       <c r="GN5">
-        <v>0.001300137558721355</v>
+        <v>0.001295683560794147</v>
       </c>
       <c r="GO5">
-        <v>1.472564666509111E-06</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0004192500689356366</v>
+        <v>0.0004138298699554084</v>
       </c>
       <c r="GQ5">
-        <v>0.004173376788492625</v>
+        <v>0.004172074301742009</v>
       </c>
       <c r="GR5">
-        <v>0.00540294894402686</v>
+        <v>0.005402995112950455</v>
       </c>
       <c r="GS5">
-        <v>0.006411514289579211</v>
+        <v>0.006412666702955374</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>6.37420269413542E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.725505097492401E-05</v>
+        <v>1.906474883736207E-05</v>
       </c>
       <c r="D6">
-        <v>6.158610994333775E-05</v>
+        <v>5.345004558579961E-05</v>
       </c>
       <c r="E6">
-        <v>7.713051992903613E-05</v>
+        <v>6.901901334264567E-05</v>
       </c>
       <c r="F6">
-        <v>9.615109991153626E-05</v>
+        <v>8.806964290893421E-05</v>
       </c>
       <c r="G6">
-        <v>6.112369994376319E-05</v>
+        <v>5.298690504971987E-05</v>
       </c>
       <c r="H6">
-        <v>6.050985794432796E-05</v>
+        <v>5.23720932745674E-05</v>
       </c>
       <c r="I6">
-        <v>2.725505097492401E-05</v>
+        <v>1.906474883736207E-05</v>
       </c>
       <c r="J6">
-        <v>5.829906994636199E-06</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.423038898690734E-05</v>
+        <v>6.019509891540508E-06</v>
       </c>
       <c r="L6">
-        <v>2.018584198142803E-06</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>8.220373992436852E-06</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>4.817075795568053E-05</v>
+        <v>4.001349941037446E-05</v>
       </c>
       <c r="O6">
-        <v>2.27154209791007E-05</v>
+        <v>1.451794692606334E-05</v>
       </c>
       <c r="P6">
-        <v>5.138985995271881E-06</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>3.08380259716275E-05</v>
+        <v>2.265338438213898E-05</v>
       </c>
       <c r="R6">
-        <v>3.945466196369978E-05</v>
+        <v>3.12836333305699E-05</v>
       </c>
       <c r="S6">
-        <v>8.051985992591777E-06</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>3.703823496592301E-06</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1.058079399026515E-05</v>
+        <v>2.364149097496438E-06</v>
       </c>
       <c r="V6">
-        <v>2.180559997993778E-05</v>
+        <v>1.360668854999751E-05</v>
       </c>
       <c r="W6">
-        <v>8.80328999190054E-05</v>
+        <v>7.993861741207536E-05</v>
       </c>
       <c r="X6">
-        <v>7.388184993202506E-05</v>
+        <v>6.576521094791771E-05</v>
       </c>
       <c r="Y6">
-        <v>5.868691994600514E-05</v>
+        <v>5.054627531526694E-05</v>
       </c>
       <c r="Z6">
-        <v>0.0001040243299042925</v>
+        <v>9.595531139118816E-05</v>
       </c>
       <c r="AA6">
-        <v>5.468724294968505E-05</v>
+        <v>4.654027944596095E-05</v>
       </c>
       <c r="AB6">
-        <v>2.208213997968334E-05</v>
+        <v>1.388366544030587E-05</v>
       </c>
       <c r="AC6">
-        <v>8.689527992005207E-06</v>
+        <v>4.698951905537332E-07</v>
       </c>
       <c r="AD6">
-        <v>2.018584198142803E-06</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>9.876028990913567E-06</v>
+        <v>1.65827067810621E-06</v>
       </c>
       <c r="AF6">
-        <v>1.567575398557754E-05</v>
+        <v>7.467158344062916E-06</v>
       </c>
       <c r="AG6">
-        <v>8.254529492405427E-05</v>
+        <v>7.44423428473085E-05</v>
       </c>
       <c r="AH6">
-        <v>3.08380259716275E-05</v>
+        <v>2.265338438213898E-05</v>
       </c>
       <c r="AI6">
-        <v>5.880758494589413E-05</v>
+        <v>5.066713094725169E-05</v>
       </c>
       <c r="AJ6">
-        <v>7.571989393033398E-05</v>
+        <v>6.760615877235521E-05</v>
       </c>
       <c r="AK6">
-        <v>1.423038898690734E-05</v>
+        <v>6.019509891540508E-06</v>
       </c>
       <c r="AL6">
-        <v>3.945466196369978E-05</v>
+        <v>3.12836333305699E-05</v>
       </c>
       <c r="AM6">
-        <v>3.399786696872029E-06</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1.828487598317701E-05</v>
+        <v>1.008040235214541E-05</v>
       </c>
       <c r="AO6">
-        <v>1.913601398239392E-05</v>
+        <v>1.093288501817304E-05</v>
       </c>
       <c r="AP6">
-        <v>1.680161598454168E-05</v>
+        <v>8.59479903140056E-06</v>
       </c>
       <c r="AQ6">
-        <v>5.980777494497391E-07</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1.753540298386657E-05</v>
+        <v>9.329745301049446E-06</v>
       </c>
       <c r="AS6">
-        <v>2.881782697348618E-05</v>
+        <v>2.062999378105391E-05</v>
       </c>
       <c r="AT6">
-        <v>3.053503897190626E-06</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>1.039039499044033E-06</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.03157673797094785</v>
+        <v>0.03161839098753962</v>
       </c>
       <c r="AW6">
-        <v>0.0002601850997606169</v>
+        <v>0.0002523627911870925</v>
       </c>
       <c r="AX6">
-        <v>0.04066224996258873</v>
+        <v>0.04071825668732738</v>
       </c>
       <c r="AY6">
-        <v>0.001079049399007221</v>
+        <v>0.0010725207697744</v>
       </c>
       <c r="AZ6">
-        <v>0.001370530298739045</v>
+        <v>0.001364462164387413</v>
       </c>
       <c r="BA6">
-        <v>0.007402738593189117</v>
+        <v>0.007406200417899718</v>
       </c>
       <c r="BB6">
-        <v>0.004774285995607423</v>
+        <v>0.004773595270467413</v>
       </c>
       <c r="BC6">
-        <v>0.0005239396695179497</v>
+        <v>0.0005165340524990882</v>
       </c>
       <c r="BD6">
-        <v>0.1039432999043671</v>
+        <v>0.1040992809313716</v>
       </c>
       <c r="BE6">
-        <v>0.0003618728396670592</v>
+        <v>0.0003542111820444197</v>
       </c>
       <c r="BF6">
-        <v>0.001855004598293305</v>
+        <v>0.001849701858638952</v>
       </c>
       <c r="BG6">
-        <v>0.007165603993407292</v>
+        <v>0.007168691182011537</v>
       </c>
       <c r="BH6">
-        <v>0.004297342996046233</v>
+        <v>0.004295898774501762</v>
       </c>
       <c r="BI6">
-        <v>0.0003732660996565769</v>
+        <v>0.0003656224416281134</v>
       </c>
       <c r="BJ6">
-        <v>0.003011453197229315</v>
+        <v>0.003007977468060587</v>
       </c>
       <c r="BK6">
-        <v>0.001550171998573766</v>
+        <v>0.001544387670410801</v>
       </c>
       <c r="BL6">
-        <v>0.03682116796612272</v>
+        <v>0.03687110637352314</v>
       </c>
       <c r="BM6">
-        <v>0.01206914898889579</v>
+        <v>0.01207998302256668</v>
       </c>
       <c r="BN6">
-        <v>0.001404246298708024</v>
+        <v>0.001398231430438027</v>
       </c>
       <c r="BO6">
-        <v>5.006029995394207E-06</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.01328926348777323</v>
+        <v>0.01330202511423567</v>
       </c>
       <c r="BQ6">
-        <v>0.001042391399040949</v>
+        <v>0.001035804855820093</v>
       </c>
       <c r="BR6">
-        <v>0.00319916569705661</v>
+        <v>0.003195986524696187</v>
       </c>
       <c r="BS6">
-        <v>0.009858992990929242</v>
+        <v>0.00986633531888414</v>
       </c>
       <c r="BT6">
-        <v>0.0077434989928756</v>
+        <v>0.007747499166479431</v>
       </c>
       <c r="BU6">
-        <v>0.0001155249898937113</v>
+        <v>0.000107474140650224</v>
       </c>
       <c r="BV6">
-        <v>0.01708426998428163</v>
+        <v>0.01710302713589627</v>
       </c>
       <c r="BW6">
-        <v>0.008963536491753106</v>
+        <v>0.008969464136500363</v>
       </c>
       <c r="BX6">
-        <v>0.01257546798842995</v>
+        <v>0.01258710192805608</v>
       </c>
       <c r="BY6">
-        <v>0.001326308498779731</v>
+        <v>0.00132017050080226</v>
       </c>
       <c r="BZ6">
-        <v>0.0007970667992666594</v>
+        <v>0.0007900926810021902</v>
       </c>
       <c r="CA6">
-        <v>8.762717991937869E-05</v>
+        <v>7.953225643740295E-05</v>
       </c>
       <c r="CB6">
-        <v>1.250456698849518E-05</v>
+        <v>4.290961360457271E-06</v>
       </c>
       <c r="CC6">
-        <v>0.00218552469798921</v>
+        <v>0.002180744129132946</v>
       </c>
       <c r="CD6">
-        <v>4.299149396044571E-05</v>
+        <v>3.482605297656361E-05</v>
       </c>
       <c r="CE6">
-        <v>8.474087392203423E-05</v>
+        <v>7.664139052159195E-05</v>
       </c>
       <c r="CF6">
-        <v>0.01092380998994956</v>
+        <v>0.01093283456458993</v>
       </c>
       <c r="CG6">
-        <v>0.02121520198048097</v>
+        <v>0.02124048536774447</v>
       </c>
       <c r="CH6">
-        <v>0.01055471699028914</v>
+        <v>0.01056315845489663</v>
       </c>
       <c r="CI6">
-        <v>0.00575408429470596</v>
+        <v>0.005754941499813692</v>
       </c>
       <c r="CJ6">
-        <v>0.009111695991616793</v>
+        <v>0.009117857705530674</v>
       </c>
       <c r="CK6">
-        <v>0.001642145998489145</v>
+        <v>0.001636506975065539</v>
       </c>
       <c r="CL6">
-        <v>6.928723993625233E-07</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.005940364994534573</v>
+        <v>0.005941516494427364</v>
       </c>
       <c r="CN6">
-        <v>0.0123864049886039</v>
+        <v>0.01239774023783995</v>
       </c>
       <c r="CO6">
-        <v>0.02224139297953683</v>
+        <v>0.0222682975903612</v>
       </c>
       <c r="CP6">
-        <v>0.03443248196832042</v>
+        <v>0.03447864662013079</v>
       </c>
       <c r="CQ6">
-        <v>0.03050203597193663</v>
+        <v>0.030541991125067</v>
       </c>
       <c r="CR6">
-        <v>0.007905029992726985</v>
+        <v>0.007909285360405808</v>
       </c>
       <c r="CS6">
-        <v>0.003418505396854807</v>
+        <v>0.003415672747402375</v>
       </c>
       <c r="CT6">
-        <v>0.004498297295861345</v>
+        <v>0.004497170551127543</v>
       </c>
       <c r="CU6">
-        <v>0.02397365897794306</v>
+        <v>0.02400330030196497</v>
       </c>
       <c r="CV6">
-        <v>0.02631964997578463</v>
+        <v>0.02635299760387935</v>
       </c>
       <c r="CW6">
-        <v>0.03968019396349227</v>
+        <v>0.03973464919116528</v>
       </c>
       <c r="CX6">
-        <v>0.01941498998213725</v>
+        <v>0.0194374293119992</v>
       </c>
       <c r="CY6">
-        <v>0.008736211991962256</v>
+        <v>0.008741780499048626</v>
       </c>
       <c r="CZ6">
-        <v>0.005450695294985092</v>
+        <v>0.005451073192249636</v>
       </c>
       <c r="DA6">
-        <v>0.0006914813993638032</v>
+        <v>0.0006843404724465941</v>
       </c>
       <c r="DB6">
-        <v>0.001390857398720343</v>
+        <v>0.001384821378052659</v>
       </c>
       <c r="DC6">
-        <v>0.00804032199260251</v>
+        <v>0.00804479110078188</v>
       </c>
       <c r="DD6">
-        <v>0.01875118698274799</v>
+        <v>0.01877257760621573</v>
       </c>
       <c r="DE6">
-        <v>0.02733097997485416</v>
+        <v>0.02736592534842104</v>
       </c>
       <c r="DF6">
-        <v>0.0231784319786747</v>
+        <v>0.02320681696664549</v>
       </c>
       <c r="DG6">
-        <v>0.01492464298626859</v>
+        <v>0.01493998826019663</v>
       </c>
       <c r="DH6">
-        <v>0.001831349498315069</v>
+        <v>0.001826009387249883</v>
       </c>
       <c r="DI6">
-        <v>0.000115355829893867</v>
+        <v>0.0001073047134036609</v>
       </c>
       <c r="DJ6">
-        <v>1.507393798613124E-05</v>
+        <v>6.864391568125194E-06</v>
       </c>
       <c r="DK6">
-        <v>0.006519871794001398</v>
+        <v>0.006521938825289265</v>
       </c>
       <c r="DL6">
-        <v>0.00224778239793193</v>
+        <v>0.002243100186642713</v>
       </c>
       <c r="DM6">
-        <v>0.006554874593969193</v>
+        <v>0.006556996924284294</v>
       </c>
       <c r="DN6">
-        <v>0.004254878496085302</v>
+        <v>0.004253367187178048</v>
       </c>
       <c r="DO6">
-        <v>0.005567540394877589</v>
+        <v>0.005568102889384842</v>
       </c>
       <c r="DP6">
-        <v>0.02122380198047306</v>
+        <v>0.0212490989544106</v>
       </c>
       <c r="DQ6">
-        <v>0.007453618593142304</v>
+        <v>0.007457160800408177</v>
       </c>
       <c r="DR6">
-        <v>0.001370530298739045</v>
+        <v>0.001364462164387413</v>
       </c>
       <c r="DS6">
-        <v>7.050465993513226E-05</v>
+        <v>6.238268551152336E-05</v>
       </c>
       <c r="DT6">
-        <v>0.008680754992013279</v>
+        <v>0.008686235885590064</v>
       </c>
       <c r="DU6">
-        <v>0.01185350598909419</v>
+        <v>0.01186399934007313</v>
       </c>
       <c r="DV6">
-        <v>0.008240947492417923</v>
+        <v>0.008245733557954656</v>
       </c>
       <c r="DW6">
-        <v>0.006204097494291926</v>
+        <v>0.006205665650872183</v>
       </c>
       <c r="DX6">
-        <v>0.0007887550992743065</v>
+        <v>0.0007817678498053433</v>
       </c>
       <c r="DY6">
-        <v>0.001949405098206451</v>
+        <v>0.001944251496787338</v>
       </c>
       <c r="DZ6">
-        <v>0.001373299898736497</v>
+        <v>0.001367236139925845</v>
       </c>
       <c r="EA6">
-        <v>0.0001252828698847336</v>
+        <v>0.0001172474365871668</v>
       </c>
       <c r="EB6">
-        <v>0.000351541039676565</v>
+        <v>0.0003438630594028925</v>
       </c>
       <c r="EC6">
-        <v>0.001716328998420893</v>
+        <v>0.00171080717269968</v>
       </c>
       <c r="ED6">
-        <v>0.003375153496894693</v>
+        <v>0.003372252358124298</v>
       </c>
       <c r="EE6">
-        <v>0.000139311009871827</v>
+        <v>0.0001312977388725879</v>
       </c>
       <c r="EF6">
-        <v>0.0007680029992933995</v>
+        <v>0.0007609829647060154</v>
       </c>
       <c r="EG6">
-        <v>0.001276054898825967</v>
+        <v>0.001269837507908645</v>
       </c>
       <c r="EH6">
-        <v>0.001264832598836292</v>
+        <v>0.001258597478415235</v>
       </c>
       <c r="EI6">
-        <v>0.00101287009906811</v>
+        <v>0.001006236916744877</v>
       </c>
       <c r="EJ6">
-        <v>0.0001909931698242769</v>
+        <v>0.0001830615486694319</v>
       </c>
       <c r="EK6">
-        <v>0.0007920745392712526</v>
+        <v>0.000785092534005695</v>
       </c>
       <c r="EL6">
-        <v>0.001709650298427038</v>
+        <v>0.001704117921389553</v>
       </c>
       <c r="EM6">
-        <v>1.58476299854194E-05</v>
+        <v>7.639305881484771E-06</v>
       </c>
       <c r="EN6">
-        <v>0.0006992650993566416</v>
+        <v>0.0006921364694853341</v>
       </c>
       <c r="EO6">
-        <v>0.001666155998467055</v>
+        <v>0.001660554907141564</v>
       </c>
       <c r="EP6">
-        <v>0.001193095598902293</v>
+        <v>0.001186747145081717</v>
       </c>
       <c r="EQ6">
-        <v>0.001066031399019199</v>
+        <v>0.001059482203353505</v>
       </c>
       <c r="ER6">
-        <v>0.005944915994530385</v>
+        <v>0.005946074684301498</v>
       </c>
       <c r="ES6">
-        <v>0.007675768992937915</v>
+        <v>0.007679662163584423</v>
       </c>
       <c r="ET6">
-        <v>0.006324019694181591</v>
+        <v>0.006325777309348126</v>
       </c>
       <c r="EU6">
-        <v>0.003017935997223351</v>
+        <v>0.003014470509879099</v>
       </c>
       <c r="EV6">
-        <v>0.0003131014997119312</v>
+        <v>0.0003053627908917046</v>
       </c>
       <c r="EW6">
-        <v>1.329607198776696E-05</v>
+        <v>5.083716815594033E-06</v>
       </c>
       <c r="EX6">
-        <v>0.0002045513498118027</v>
+        <v>0.0001966411484909442</v>
       </c>
       <c r="EY6">
-        <v>0.00177967649836261</v>
+        <v>0.001774254751924418</v>
       </c>
       <c r="EZ6">
-        <v>0.006692605593842474</v>
+        <v>0.006694945517902075</v>
       </c>
       <c r="FA6">
-        <v>0.00711936969344983</v>
+        <v>0.007122383838988526</v>
       </c>
       <c r="FB6">
-        <v>0.005205093395211058</v>
+        <v>0.005205083279340743</v>
       </c>
       <c r="FC6">
-        <v>0.005523578294918037</v>
+        <v>0.005524071336085409</v>
       </c>
       <c r="FD6">
-        <v>0.002564208797640802</v>
+        <v>0.002560026491276653</v>
       </c>
       <c r="FE6">
-        <v>0.0001545723198577859</v>
+        <v>0.0001465831593753431</v>
       </c>
       <c r="FF6">
-        <v>0.0003529444796752737</v>
+        <v>0.0003452687166204175</v>
       </c>
       <c r="FG6">
-        <v>0.003652487196639532</v>
+        <v>0.003650024202355557</v>
       </c>
       <c r="FH6">
-        <v>0.006347514694159975</v>
+        <v>0.006349309427804027</v>
       </c>
       <c r="FI6">
-        <v>0.01098312498989499</v>
+        <v>0.01099224327309012</v>
       </c>
       <c r="FJ6">
-        <v>0.00573737799472133</v>
+        <v>0.005738208806450855</v>
       </c>
       <c r="FK6">
-        <v>0.002030157298132156</v>
+        <v>0.002025131272738589</v>
       </c>
       <c r="FL6">
-        <v>0.001205908298890505</v>
+        <v>0.001199580087160454</v>
       </c>
       <c r="FM6">
-        <v>2.622842697586856E-06</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.001449588498666307</v>
+        <v>0.001443645264081405</v>
       </c>
       <c r="FO6">
-        <v>0.0001494772998624735</v>
+        <v>0.0001414800900339859</v>
       </c>
       <c r="FP6">
-        <v>0.001898652298253146</v>
+        <v>0.001893418515235149</v>
       </c>
       <c r="FQ6">
-        <v>0.007323376393262133</v>
+        <v>0.007326712837932877</v>
       </c>
       <c r="FR6">
-        <v>0.004530028395832152</v>
+        <v>0.004528951781344018</v>
       </c>
       <c r="FS6">
-        <v>0.003192491097062751</v>
+        <v>0.003189301379863424</v>
       </c>
       <c r="FT6">
-        <v>0.002273043197908688</v>
+        <v>0.002268400894788736</v>
       </c>
       <c r="FU6">
-        <v>0.0002570206397635284</v>
+        <v>0.0002491933318311035</v>
       </c>
       <c r="FV6">
-        <v>0.0001381058698729358</v>
+        <v>0.0001300906949383064</v>
       </c>
       <c r="FW6">
-        <v>0.0003303956996960197</v>
+        <v>0.0003226843130453565</v>
       </c>
       <c r="FX6">
-        <v>0.0006887930993662764</v>
+        <v>0.000681647925349552</v>
       </c>
       <c r="FY6">
-        <v>0.0006086389994400222</v>
+        <v>0.0006013671943035352</v>
       </c>
       <c r="FZ6">
-        <v>0.0004700014295675756</v>
+        <v>0.0004625105984457645</v>
       </c>
       <c r="GA6">
-        <v>0.002270979297910587</v>
+        <v>0.002266333734146849</v>
       </c>
       <c r="GB6">
-        <v>0.0008996143991723105</v>
+        <v>0.0008928022903049522</v>
       </c>
       <c r="GC6">
-        <v>0.003867244796441945</v>
+        <v>0.003865121086054433</v>
       </c>
       <c r="GD6">
-        <v>0.001747283298392414</v>
+        <v>0.001741810375692636</v>
       </c>
       <c r="GE6">
-        <v>7.571989393033398E-05</v>
+        <v>6.760615877235521E-05</v>
       </c>
       <c r="GF6">
-        <v>6.124683994364989E-05</v>
+        <v>5.311023959182072E-05</v>
       </c>
       <c r="GG6">
-        <v>6.158610994333775E-05</v>
+        <v>5.345004558579961E-05</v>
       </c>
       <c r="GH6">
-        <v>0.001075174399010787</v>
+        <v>0.001068639647875416</v>
       </c>
       <c r="GI6">
-        <v>0.002008227998152332</v>
+        <v>0.002003167327845846</v>
       </c>
       <c r="GJ6">
-        <v>0.003910439996402203</v>
+        <v>0.003908384527770813</v>
       </c>
       <c r="GK6">
-        <v>0.001825627798320333</v>
+        <v>0.001820278647851324</v>
       </c>
       <c r="GL6">
-        <v>0.003302383196961645</v>
+        <v>0.003299367092337047</v>
       </c>
       <c r="GM6">
-        <v>0.003368297596901001</v>
+        <v>0.003365385626865655</v>
       </c>
       <c r="GN6">
-        <v>0.001239763598859357</v>
+        <v>0.001233488873283463</v>
       </c>
       <c r="GO6">
-        <v>7.036429493526139E-06</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0001788986598354044</v>
+        <v>0.0001709479312195028</v>
       </c>
       <c r="GQ6">
-        <v>0.004064265996260676</v>
+        <v>0.004062453548992243</v>
       </c>
       <c r="GR6">
-        <v>0.004663172995709651</v>
+        <v>0.004662306729161152</v>
       </c>
       <c r="GS6">
-        <v>0.006727746693810143</v>
+        <v>0.006730142135389655</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.529163214799675E-06</v>
+        <v>3.346972907940767E-06</v>
       </c>
       <c r="C2">
-        <v>1.145658419729577E-05</v>
+        <v>1.109236009090783E-05</v>
       </c>
       <c r="D2">
-        <v>1.428119276921329E-05</v>
+        <v>1.373475328513801E-05</v>
       </c>
       <c r="E2">
-        <v>1.541380503814882E-05</v>
+        <v>1.468508996849536E-05</v>
       </c>
       <c r="F2">
-        <v>3.433808118995963E-05</v>
+        <v>3.34277236321851E-05</v>
       </c>
       <c r="G2">
-        <v>5.21316112729485E-05</v>
+        <v>5.103957099065536E-05</v>
       </c>
       <c r="H2">
-        <v>8.625384334977065E-05</v>
+        <v>8.498070138247147E-05</v>
       </c>
       <c r="I2">
-        <v>9.736982302633579E-05</v>
+        <v>9.591476072098114E-05</v>
       </c>
       <c r="J2">
-        <v>0.0001169892652204573</v>
+        <v>0.0001153525851637267</v>
       </c>
       <c r="K2">
-        <v>0.00013100050307324</v>
+        <v>0.0001291820057031401</v>
       </c>
       <c r="L2">
-        <v>0.000141854059733833</v>
+        <v>0.0001398536326876334</v>
       </c>
       <c r="M2">
-        <v>0.0001506426622687442</v>
+        <v>0.0001484602320672462</v>
       </c>
       <c r="N2">
-        <v>0.0001713283635277627</v>
+        <v>0.0001689643535165847</v>
       </c>
       <c r="O2">
-        <v>0.0001765191638436966</v>
+        <v>0.0001739730226532506</v>
       </c>
       <c r="P2">
-        <v>0.0001767014732447927</v>
+        <v>0.0001739730226532506</v>
       </c>
       <c r="Q2">
-        <v>0.0001793945750087062</v>
+        <v>0.0001764839043599466</v>
       </c>
       <c r="R2">
-        <v>0.0001794269995166797</v>
+        <v>0.0001764839043599466</v>
       </c>
       <c r="S2">
-        <v>0.0001798059098997418</v>
+        <v>0.0001766805123377497</v>
       </c>
       <c r="T2">
-        <v>0.0001798063811573005</v>
+        <v>0.0001766805123377497</v>
       </c>
       <c r="U2">
-        <v>0.0001850399632758382</v>
+        <v>0.0001817319647993644</v>
       </c>
       <c r="V2">
-        <v>0.0001859338822002459</v>
+        <v>0.0001824435996445448</v>
       </c>
       <c r="W2">
-        <v>0.0001861515669234951</v>
+        <v>0.0001824789762254911</v>
       </c>
       <c r="X2">
-        <v>0.0001933738388630729</v>
+        <v>0.0001895191892735603</v>
       </c>
       <c r="Y2">
-        <v>0.0001967214480668224</v>
+        <v>0.0001926846017100444</v>
       </c>
       <c r="Z2">
-        <v>0.0002145941151546279</v>
+        <v>0.0002103755888893375</v>
       </c>
       <c r="AA2">
-        <v>0.0002265809628841977</v>
+        <v>0.0002221805472697663</v>
       </c>
       <c r="AB2">
-        <v>0.0002340687813399377</v>
+        <v>0.0002294863162831884</v>
       </c>
       <c r="AC2">
-        <v>0.0002369958833180934</v>
+        <v>0.0002322312065307757</v>
       </c>
       <c r="AD2">
-        <v>0.000249192900060455</v>
+        <v>0.0002442463414026373</v>
       </c>
       <c r="AE2">
-        <v>0.0002491933713180137</v>
+        <v>0.0002442463414026373</v>
       </c>
       <c r="AF2">
-        <v>0.0002493677673186282</v>
+        <v>0.0002442463414026373</v>
       </c>
       <c r="AG2">
-        <v>0.0002726511227357509</v>
+        <v>0.0002673482094448434</v>
       </c>
       <c r="AH2">
-        <v>0.0002884970827002025</v>
+        <v>0.0002830124173825628</v>
       </c>
       <c r="AI2">
-        <v>0.0002944803010643662</v>
+        <v>0.000288813532764813</v>
       </c>
       <c r="AJ2">
-        <v>0.0003026322255605265</v>
+        <v>0.0002967834314501633</v>
       </c>
       <c r="AK2">
-        <v>0.0003033760730058002</v>
+        <v>0.0002973449894760755</v>
       </c>
       <c r="AL2">
-        <v>0.0003038587321351769</v>
+        <v>0.0002976453498919821</v>
       </c>
       <c r="AM2">
-        <v>0.0003086950059295328</v>
+        <v>0.0003022994798916203</v>
       </c>
       <c r="AN2">
-        <v>0.0003087044268131062</v>
+        <v>0.0003022994798916203</v>
       </c>
       <c r="AO2">
-        <v>0.0003108638895445402</v>
+        <v>0.0003042767035768589</v>
       </c>
       <c r="AP2">
-        <v>0.0003148534017873586</v>
+        <v>0.0003080840418938495</v>
       </c>
       <c r="AQ2">
-        <v>0.0003244181763695109</v>
+        <v>0.000317466840939961</v>
       </c>
       <c r="AR2">
-        <v>0.000329834465699169</v>
+        <v>0.0003227010071141381</v>
       </c>
       <c r="AS2">
-        <v>0.0003420970179455194</v>
+        <v>0.0003347816798219997</v>
       </c>
       <c r="AT2">
-        <v>0.0003589795669730621</v>
+        <v>0.0003514825137087308</v>
       </c>
       <c r="AU2">
-        <v>0.0003605964356714715</v>
+        <v>0.0003529171240533127</v>
       </c>
       <c r="AV2">
-        <v>0.0572149258960644</v>
+        <v>0.05720908736946871</v>
       </c>
       <c r="AW2">
-        <v>0.05807525874842787</v>
+        <v>0.05806926851997431</v>
       </c>
       <c r="AX2">
-        <v>0.1321334132559178</v>
+        <v>0.1321298759923233</v>
       </c>
       <c r="AY2">
-        <v>0.1330745215131976</v>
+        <v>0.1330708354220523</v>
       </c>
       <c r="AZ2">
-        <v>0.1361915407029124</v>
+        <v>0.136187783211695</v>
       </c>
       <c r="BA2">
-        <v>0.1496430205216259</v>
+        <v>0.1496395593711384</v>
       </c>
       <c r="BB2">
-        <v>0.1497990837511246</v>
+        <v>0.1497954458380929</v>
       </c>
       <c r="BC2">
-        <v>0.1756533023247207</v>
+        <v>0.1756504020907007</v>
       </c>
       <c r="BD2">
-        <v>0.1974924066539402</v>
+        <v>0.1974901012253571</v>
       </c>
       <c r="BE2">
-        <v>0.1977937157522792</v>
+        <v>0.1977912387295718</v>
       </c>
       <c r="BF2">
-        <v>0.2331094279017415</v>
+        <v>0.2331080252352426</v>
       </c>
       <c r="BG2">
-        <v>0.2331739419656681</v>
+        <v>0.2331723592789453</v>
       </c>
       <c r="BH2">
-        <v>0.2385510849929436</v>
+        <v>0.2385495113302542</v>
       </c>
       <c r="BI2">
-        <v>0.2401063007876006</v>
+        <v>0.2401046001497245</v>
       </c>
       <c r="BJ2">
-        <v>0.2407150586646521</v>
+        <v>0.24071319737289</v>
       </c>
       <c r="BK2">
-        <v>0.2423538984643988</v>
+        <v>0.2423519131731214</v>
       </c>
       <c r="BL2">
-        <v>0.2578423874070932</v>
+        <v>0.2578407709413513</v>
       </c>
       <c r="BM2">
-        <v>0.2757472814968601</v>
+        <v>0.2757461198418635</v>
       </c>
       <c r="BN2">
-        <v>0.2774215704987644</v>
+        <v>0.2774202861056748</v>
       </c>
       <c r="BO2">
-        <v>0.2789695089929784</v>
+        <v>0.2789680973657472</v>
       </c>
       <c r="BP2">
-        <v>0.2819838131764416</v>
+        <v>0.2819823264941339</v>
       </c>
       <c r="BQ2">
-        <v>0.2831236637458177</v>
+        <v>0.2831220353079931</v>
       </c>
       <c r="BR2">
-        <v>0.2877294034261423</v>
+        <v>0.2877277565627827</v>
       </c>
       <c r="BS2">
-        <v>0.3000135421738065</v>
+        <v>0.300012150112585</v>
       </c>
       <c r="BT2">
-        <v>0.3035270191876515</v>
+        <v>0.3035255698338883</v>
       </c>
       <c r="BU2">
-        <v>0.3050061656776786</v>
+        <v>0.3050045866418833</v>
       </c>
       <c r="BV2">
-        <v>0.3215422436841336</v>
+        <v>0.3215410707512177</v>
       </c>
       <c r="BW2">
-        <v>0.3323735023433695</v>
+        <v>0.3323725325133972</v>
       </c>
       <c r="BX2">
-        <v>0.3412699578848451</v>
+        <v>0.3412691223099031</v>
       </c>
       <c r="BY2">
-        <v>0.3435374449228539</v>
+        <v>0.3435365077181408</v>
       </c>
       <c r="BZ2">
-        <v>0.3440129257517937</v>
+        <v>0.3440118231506722</v>
       </c>
       <c r="CA2">
-        <v>0.3440325113069857</v>
+        <v>0.3440312270869071</v>
       </c>
       <c r="CB2">
-        <v>0.3444419715319071</v>
+        <v>0.3444405195661472</v>
       </c>
       <c r="CC2">
-        <v>0.345636826004631</v>
+        <v>0.3456352342406097</v>
       </c>
       <c r="CD2">
-        <v>0.3456925464050223</v>
+        <v>0.3456907743078639</v>
       </c>
       <c r="CE2">
-        <v>0.3457132321062814</v>
+        <v>0.3457112784293133</v>
       </c>
       <c r="CF2">
-        <v>0.3630158321593902</v>
+        <v>0.363014311861174</v>
       </c>
       <c r="CG2">
-        <v>0.387213881632185</v>
+        <v>0.3872130400799625</v>
       </c>
       <c r="CH2">
-        <v>0.3966748862080214</v>
+        <v>0.3966741989997069</v>
       </c>
       <c r="CI2">
-        <v>0.4007978274589609</v>
+        <v>0.4007971046452421</v>
       </c>
       <c r="CJ2">
-        <v>0.4079458780940212</v>
+        <v>0.4079452273202017</v>
       </c>
       <c r="CK2">
-        <v>0.4082113450901786</v>
+        <v>0.4082105214468318</v>
       </c>
       <c r="CL2">
-        <v>0.4096622059784841</v>
+        <v>0.4096612516465922</v>
       </c>
       <c r="CM2">
-        <v>0.4121827156318929</v>
+        <v>0.4121816686737708</v>
       </c>
       <c r="CN2">
-        <v>0.4245421813841418</v>
+        <v>0.4245413919085892</v>
       </c>
       <c r="CO2">
-        <v>0.4517156730380345</v>
+        <v>0.4517156681864244</v>
       </c>
       <c r="CP2">
-        <v>0.4860952801305216</v>
+        <v>0.486096316324816</v>
       </c>
       <c r="CQ2">
-        <v>0.5105721266202852</v>
+        <v>0.5105738514812689</v>
       </c>
       <c r="CR2">
-        <v>0.5170998736175912</v>
+        <v>0.5171016484456282</v>
       </c>
       <c r="CS2">
-        <v>0.5171091950801586</v>
+        <v>0.5171107879240016</v>
       </c>
       <c r="CT2">
-        <v>0.53203786498878</v>
+        <v>0.5320398067375929</v>
       </c>
       <c r="CU2">
-        <v>0.5559616164448798</v>
+        <v>0.5559642271790829</v>
       </c>
       <c r="CV2">
-        <v>0.5819828420286408</v>
+        <v>0.5819861963846225</v>
       </c>
       <c r="CW2">
-        <v>0.6049728694279103</v>
+        <v>0.6049768595437036</v>
       </c>
       <c r="CX2">
-        <v>0.6209780124020504</v>
+        <v>0.6209823897279639</v>
       </c>
       <c r="CY2">
-        <v>0.6280237848308857</v>
+        <v>0.6280282305572371</v>
       </c>
       <c r="CZ2">
-        <v>0.6324065990976422</v>
+        <v>0.6324110184658945</v>
       </c>
       <c r="DA2">
-        <v>0.632921595128987</v>
+        <v>0.6329258505069376</v>
       </c>
       <c r="DB2">
-        <v>0.6363971745405254</v>
+        <v>0.6364013712773884</v>
       </c>
       <c r="DC2">
-        <v>0.6505547324022137</v>
+        <v>0.6505592506048437</v>
       </c>
       <c r="DD2">
-        <v>0.6726598687476251</v>
+        <v>0.6726649912221585</v>
       </c>
       <c r="DE2">
-        <v>0.7024837205628298</v>
+        <v>0.7024897219715563</v>
       </c>
       <c r="DF2">
-        <v>0.7258583649855087</v>
+        <v>0.725865015840235</v>
       </c>
       <c r="DG2">
-        <v>0.7354474165691386</v>
+        <v>0.7354542263241896</v>
       </c>
       <c r="DH2">
-        <v>0.7356213431097245</v>
+        <v>0.7356279767378783</v>
       </c>
       <c r="DI2">
-        <v>0.7361471768417289</v>
+        <v>0.736153646865229</v>
       </c>
       <c r="DJ2">
-        <v>0.7371718393040941</v>
+        <v>0.737178163473231</v>
       </c>
       <c r="DK2">
-        <v>0.7442309104337388</v>
+        <v>0.7442373034765337</v>
       </c>
       <c r="DL2">
-        <v>0.7461247104490034</v>
+        <v>0.7461309885647714</v>
       </c>
       <c r="DM2">
-        <v>0.75235376822813</v>
+        <v>0.7523600856824129</v>
       </c>
       <c r="DN2">
-        <v>0.7576480118503599</v>
+        <v>0.7576543353787889</v>
       </c>
       <c r="DO2">
-        <v>0.7663668443810246</v>
+        <v>0.7663732958439577</v>
       </c>
       <c r="DP2">
-        <v>0.7880163686987055</v>
+        <v>0.7880234082210722</v>
       </c>
       <c r="DQ2">
-        <v>0.792770157488041</v>
+        <v>0.7927771838530429</v>
       </c>
       <c r="DR2">
-        <v>0.7927834857008522</v>
+        <v>0.792790330224236</v>
       </c>
       <c r="DS2">
-        <v>0.7942687288912503</v>
+        <v>0.7942754439495466</v>
       </c>
       <c r="DT2">
-        <v>0.8053375035649424</v>
+        <v>0.8053444301779374</v>
       </c>
       <c r="DU2">
-        <v>0.819564235430841</v>
+        <v>0.8195714859710863</v>
       </c>
       <c r="DV2">
-        <v>0.8235806156752947</v>
+        <v>0.8235878268182756</v>
       </c>
       <c r="DW2">
-        <v>0.8273047781019629</v>
+        <v>0.8273119394494187</v>
       </c>
       <c r="DX2">
-        <v>0.8288725091973816</v>
+        <v>0.8288795440149945</v>
       </c>
       <c r="DY2">
-        <v>0.8295861827808189</v>
+        <v>0.8295930606778595</v>
       </c>
       <c r="DZ2">
-        <v>0.831420399792457</v>
+        <v>0.831427160642273</v>
       </c>
       <c r="EA2">
-        <v>0.8314403715186726</v>
+        <v>0.8314469507632728</v>
       </c>
       <c r="EB2">
-        <v>0.833013635714428</v>
+        <v>0.8330200886260748</v>
       </c>
       <c r="EC2">
-        <v>0.835080039740198</v>
+        <v>0.8350863838667483</v>
       </c>
       <c r="ED2">
-        <v>0.8385545146516691</v>
+        <v>0.8385608000978294</v>
       </c>
       <c r="EE2">
-        <v>0.8394635144069946</v>
+        <v>0.8394696498830572</v>
       </c>
       <c r="EF2">
-        <v>0.8398453076302321</v>
+        <v>0.8398512743761125</v>
       </c>
       <c r="EG2">
-        <v>0.8410541523038075</v>
+        <v>0.841059979749253</v>
       </c>
       <c r="EH2">
-        <v>0.8427490233069644</v>
+        <v>0.8427547287467055</v>
       </c>
       <c r="EI2">
-        <v>0.8439016429771177</v>
+        <v>0.8439072071157169</v>
       </c>
       <c r="EJ2">
-        <v>0.8443947161071281</v>
+        <v>0.8444001154753225</v>
       </c>
       <c r="EK2">
-        <v>0.8446211839009119</v>
+        <v>0.8446264090118337</v>
       </c>
       <c r="EL2">
-        <v>0.8461597906945579</v>
+        <v>0.8461648882392795</v>
       </c>
       <c r="EM2">
-        <v>0.8462095709775878</v>
+        <v>0.8462144879777994</v>
       </c>
       <c r="EN2">
-        <v>0.8469512163627274</v>
+        <v>0.8469559774377138</v>
       </c>
       <c r="EO2">
-        <v>0.84760911680277</v>
+        <v>0.8476137189725562</v>
       </c>
       <c r="EP2">
-        <v>0.8479230582718777</v>
+        <v>0.8479274892970493</v>
       </c>
       <c r="EQ2">
-        <v>0.8512706902756286</v>
+        <v>0.8512750581068401</v>
       </c>
       <c r="ER2">
-        <v>0.860978998866517</v>
+        <v>0.860983529841687</v>
       </c>
       <c r="ES2">
-        <v>0.8684262523197881</v>
+        <v>0.8684308659816717</v>
       </c>
       <c r="ET2">
-        <v>0.8731323196062191</v>
+        <v>0.873136918412619</v>
       </c>
       <c r="EU2">
-        <v>0.8762224457942971</v>
+        <v>0.8762269722436661</v>
       </c>
       <c r="EV2">
-        <v>0.8762491185629205</v>
+        <v>0.8762534636455233</v>
       </c>
       <c r="EW2">
-        <v>0.8763338794080794</v>
+        <v>0.8763380451909184</v>
       </c>
       <c r="EX2">
-        <v>0.8764503069901657</v>
+        <v>0.8764542946000681</v>
       </c>
       <c r="EY2">
-        <v>0.8800171767072603</v>
+        <v>0.8800211089245438</v>
       </c>
       <c r="EZ2">
-        <v>0.889661331294244</v>
+        <v>0.889665424372634</v>
       </c>
       <c r="FA2">
-        <v>0.8951630526291018</v>
+        <v>0.8951671591645119</v>
       </c>
       <c r="FB2">
-        <v>0.8997294704070331</v>
+        <v>0.8997335571176801</v>
       </c>
       <c r="FC2">
-        <v>0.9048070497160758</v>
+        <v>0.9048111347910996</v>
       </c>
       <c r="FD2">
-        <v>0.9056443146970353</v>
+        <v>0.9056482472493556</v>
       </c>
       <c r="FE2">
-        <v>0.9056443799368353</v>
+        <v>0.9056482472493556</v>
       </c>
       <c r="FF2">
-        <v>0.9059815136373547</v>
+        <v>0.9059852106305311</v>
       </c>
       <c r="FG2">
-        <v>0.9115395839756422</v>
+        <v>0.9115432964309581</v>
       </c>
       <c r="FH2">
-        <v>0.9210641315553461</v>
+        <v>0.9210680006156802</v>
       </c>
       <c r="FI2">
-        <v>0.928303312995953</v>
+        <v>0.9283072573389792</v>
       </c>
       <c r="FJ2">
-        <v>0.93153439219261</v>
+        <v>0.9315382691942683</v>
       </c>
       <c r="FK2">
-        <v>0.9334787291109505</v>
+        <v>0.933482492983884</v>
       </c>
       <c r="FL2">
-        <v>0.9338978590164605</v>
+        <v>0.933901455487798</v>
       </c>
       <c r="FM2">
-        <v>0.9340789197474806</v>
+        <v>0.9340823403457835</v>
       </c>
       <c r="FN2">
-        <v>0.9349161847284401</v>
+        <v>0.9349194528040394</v>
       </c>
       <c r="FO2">
-        <v>0.9353167692328214</v>
+        <v>0.9353198692469064</v>
       </c>
       <c r="FP2">
-        <v>0.9381082677027237</v>
+        <v>0.9381112847334276</v>
       </c>
       <c r="FQ2">
-        <v>0.9455607381563124</v>
+        <v>0.9455638380593713</v>
       </c>
       <c r="FR2">
-        <v>0.9498843454194652</v>
+        <v>0.9498874168576068</v>
       </c>
       <c r="FS2">
-        <v>0.9527573096943258</v>
+        <v>0.9527603010479605</v>
       </c>
       <c r="FT2">
-        <v>0.954235735584309</v>
+        <v>0.9542385972302699</v>
       </c>
       <c r="FU2">
-        <v>0.9547717312169319</v>
+        <v>0.9547744296198396</v>
       </c>
       <c r="FV2">
-        <v>0.9551487484598787</v>
+        <v>0.9551512779626561</v>
       </c>
       <c r="FW2">
-        <v>0.9552670947970818</v>
+        <v>0.9552694461951995</v>
       </c>
       <c r="FX2">
-        <v>0.9556960072531873</v>
+        <v>0.9556981915978106</v>
       </c>
       <c r="FY2">
-        <v>0.9564738131005278</v>
+        <v>0.9564758428066574</v>
       </c>
       <c r="FZ2">
-        <v>0.9570655712365447</v>
+        <v>0.9570674396838705</v>
       </c>
       <c r="GA2">
-        <v>0.9595176483857883</v>
+        <v>0.9595194217717861</v>
       </c>
       <c r="GB2">
-        <v>0.9621115635436649</v>
+        <v>0.9621132469154893</v>
       </c>
       <c r="GC2">
-        <v>0.9647894897066547</v>
+        <v>0.9647910860537482</v>
       </c>
       <c r="GD2">
-        <v>0.9663405449010584</v>
+        <v>0.9663420141249147</v>
       </c>
       <c r="GE2">
-        <v>0.9663558399489893</v>
+        <v>0.9663571274012153</v>
       </c>
       <c r="GF2">
-        <v>0.9664949172974542</v>
+        <v>0.9664960273827115</v>
       </c>
       <c r="GG2">
-        <v>0.9668798110508804</v>
+        <v>0.9668807525162846</v>
       </c>
       <c r="GH2">
-        <v>0.9682880522365919</v>
+        <v>0.9682888614968741</v>
       </c>
       <c r="GI2">
-        <v>0.9708488578924532</v>
+        <v>0.9708495759603957</v>
       </c>
       <c r="GJ2">
-        <v>0.973880997377002</v>
+        <v>0.9738816410245181</v>
       </c>
       <c r="GK2">
-        <v>0.9755091699760994</v>
+        <v>0.9755096892445193</v>
       </c>
       <c r="GL2">
-        <v>0.9803598944713348</v>
+        <v>0.9803604040317441</v>
       </c>
       <c r="GM2">
-        <v>0.9822813606882832</v>
+        <v>0.9822817563061381</v>
       </c>
       <c r="GN2">
-        <v>0.9830094122325955</v>
+        <v>0.9830096514415028</v>
       </c>
       <c r="GO2">
-        <v>0.9830095267658885</v>
+        <v>0.9830096514415028</v>
       </c>
       <c r="GP2">
-        <v>0.9839310706219775</v>
+        <v>0.9839310457738625</v>
       </c>
       <c r="GQ2">
-        <v>0.9895621834647106</v>
+        <v>0.9895621766778752</v>
       </c>
       <c r="GR2">
-        <v>0.9951498082047968</v>
+        <v>0.995149817931763</v>
       </c>
       <c r="GS2">
         <v>0.9999999999999998</v>
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>2.199325834908273E-05</v>
+        <v>1.684549551014077E-05</v>
       </c>
       <c r="C3">
-        <v>7.62555297431247E-05</v>
+        <v>6.599129006062808E-05</v>
       </c>
       <c r="D3">
-        <v>8.141960909028748E-05</v>
+        <v>6.599129006062808E-05</v>
       </c>
       <c r="E3">
-        <v>9.028762082782788E-05</v>
+        <v>6.969881354973308E-05</v>
       </c>
       <c r="F3">
-        <v>9.750994061407452E-05</v>
+        <v>7.175904952864935E-05</v>
       </c>
       <c r="G3">
-        <v>9.756181979653909E-05</v>
+        <v>7.175904952864935E-05</v>
       </c>
       <c r="H3">
-        <v>0.0001001490897199657</v>
+        <v>7.175904952864935E-05</v>
       </c>
       <c r="I3">
-        <v>0.0001003304101445993</v>
+        <v>7.175904952864935E-05</v>
       </c>
       <c r="J3">
-        <v>0.0001105434398423322</v>
+        <v>7.681289502234516E-05</v>
       </c>
       <c r="K3">
-        <v>0.0001154284889977533</v>
+        <v>7.681289502234516E-05</v>
       </c>
       <c r="L3">
-        <v>0.0001166388268619318</v>
+        <v>7.681289502234516E-05</v>
       </c>
       <c r="M3">
-        <v>0.0001169406414529993</v>
+        <v>7.681289502234516E-05</v>
       </c>
       <c r="N3">
-        <v>0.0001383452988195023</v>
+        <v>9.306921887959789E-05</v>
       </c>
       <c r="O3">
-        <v>0.0001393992044883107</v>
+        <v>9.306921887959789E-05</v>
       </c>
       <c r="P3">
-        <v>0.0001695128765970599</v>
+        <v>0.000118043001189311</v>
       </c>
       <c r="Q3">
-        <v>0.0001765639218883757</v>
+        <v>0.000119931796616372</v>
       </c>
       <c r="R3">
-        <v>0.0001776197454571273</v>
+        <v>0.000119931796616372</v>
       </c>
       <c r="S3">
-        <v>0.0002386386336511989</v>
+        <v>0.0001758407587554658</v>
       </c>
       <c r="T3">
-        <v>0.0002738473326091546</v>
+        <v>0.0002059145077303718</v>
       </c>
       <c r="U3">
-        <v>0.000296419423941106</v>
+        <v>0.0002233393974232545</v>
       </c>
       <c r="V3">
-        <v>0.0002996389541458201</v>
+        <v>0.0002233393974232545</v>
       </c>
       <c r="W3">
-        <v>0.0003009187413079433</v>
+        <v>0.0002233393974232545</v>
       </c>
       <c r="X3">
-        <v>0.000322911999657026</v>
+        <v>0.0002401848929333953</v>
       </c>
       <c r="Y3">
-        <v>0.0003544179787245682</v>
+        <v>0.0002665523320947237</v>
       </c>
       <c r="Z3">
-        <v>0.0003545992991492018</v>
+        <v>0.0002665523320947237</v>
       </c>
       <c r="AA3">
-        <v>0.0003652140558350451</v>
+        <v>0.0002720082940656252</v>
       </c>
       <c r="AB3">
-        <v>0.0003816721573479476</v>
+        <v>0.0002833132662013837</v>
       </c>
       <c r="AC3">
-        <v>0.0003817108273168031</v>
+        <v>0.0002833132662013837</v>
       </c>
       <c r="AD3">
-        <v>0.0003840668828470728</v>
+        <v>0.0002833132662013837</v>
       </c>
       <c r="AE3">
-        <v>0.000403138940282612</v>
+        <v>0.0002972347285862186</v>
       </c>
       <c r="AF3">
-        <v>0.0004488858239286772</v>
+        <v>0.0003378568794070097</v>
       </c>
       <c r="AG3">
-        <v>0.0005880132598110313</v>
+        <v>0.0004719501183451362</v>
       </c>
       <c r="AH3">
-        <v>0.0007561702648342199</v>
+        <v>0.0006351010716594339</v>
       </c>
       <c r="AI3">
-        <v>0.0007976701136059813</v>
+        <v>0.0006714720699493538</v>
       </c>
       <c r="AJ3">
-        <v>0.000815407188081031</v>
+        <v>0.0006840572550586023</v>
       </c>
       <c r="AK3">
-        <v>0.0008154076381850877</v>
+        <v>0.0006840572550586023</v>
       </c>
       <c r="AL3">
-        <v>0.0008155889586097212</v>
+        <v>0.0006840572550586023</v>
       </c>
       <c r="AM3">
-        <v>0.0008372912699674149</v>
+        <v>0.0007006115214935413</v>
       </c>
       <c r="AN3">
-        <v>0.0008809696426747004</v>
+        <v>0.0007391631558780928</v>
       </c>
       <c r="AO3">
-        <v>0.0009602099843294859</v>
+        <v>0.0008133112378474336</v>
       </c>
       <c r="AP3">
-        <v>0.001013559079750554</v>
+        <v>0.0008615429710672442</v>
       </c>
       <c r="AQ3">
-        <v>0.001108668496935675</v>
+        <v>0.0009515755142195014</v>
       </c>
       <c r="AR3">
-        <v>0.001215447078775433</v>
+        <v>0.001053288535710859</v>
       </c>
       <c r="AS3">
-        <v>0.001249931915754813</v>
+        <v>0.001082637720896368</v>
       </c>
       <c r="AT3">
-        <v>0.001255529070589158</v>
+        <v>0.00108307121626617</v>
       </c>
       <c r="AU3">
-        <v>0.001262039918796462</v>
+        <v>0.001084419290868271</v>
       </c>
       <c r="AV3">
-        <v>0.02789942713043054</v>
+        <v>0.0277424633433336</v>
       </c>
       <c r="AW3">
-        <v>0.03801355083109073</v>
+        <v>0.03786122397292791</v>
       </c>
       <c r="AX3">
-        <v>0.1323388820394177</v>
+        <v>0.1322728379741629</v>
       </c>
       <c r="AY3">
-        <v>0.1430072982236729</v>
+        <v>0.1429464284943086</v>
       </c>
       <c r="AZ3">
-        <v>0.1432662238760097</v>
+        <v>0.1432004360984797</v>
       </c>
       <c r="BA3">
-        <v>0.1502877456681992</v>
+        <v>0.1502235964282702</v>
       </c>
       <c r="BB3">
-        <v>0.1507326024750331</v>
+        <v>0.1506637154540334</v>
       </c>
       <c r="BC3">
-        <v>0.1633560961014255</v>
+        <v>0.1632942789358275</v>
       </c>
       <c r="BD3">
-        <v>0.1935127332089031</v>
+        <v>0.1934749849263904</v>
       </c>
       <c r="BE3">
-        <v>0.1935186792550271</v>
+        <v>0.1934757676513128</v>
       </c>
       <c r="BF3">
-        <v>0.2314777281315828</v>
+        <v>0.23146645013623</v>
       </c>
       <c r="BG3">
-        <v>0.2337058580656386</v>
+        <v>0.2336915712381221</v>
       </c>
       <c r="BH3">
-        <v>0.2414218178372753</v>
+        <v>0.2414098428305306</v>
       </c>
       <c r="BI3">
-        <v>0.2414459947265598</v>
+        <v>0.2414288740740867</v>
       </c>
       <c r="BJ3">
-        <v>0.2420183448096204</v>
+        <v>0.2419966099854986</v>
       </c>
       <c r="BK3">
-        <v>0.2420524650786106</v>
+        <v>0.2420255942492328</v>
       </c>
       <c r="BL3">
-        <v>0.2555293616797454</v>
+        <v>0.2555103881113518</v>
       </c>
       <c r="BM3">
-        <v>0.2733954991509753</v>
+        <v>0.2733886783740782</v>
       </c>
       <c r="BN3">
-        <v>0.2798266734606369</v>
+        <v>0.2798209188577364</v>
       </c>
       <c r="BO3">
-        <v>0.2803886025740059</v>
+        <v>0.2803782236959432</v>
       </c>
       <c r="BP3">
-        <v>0.2839581539683607</v>
+        <v>0.2839460668155935</v>
       </c>
       <c r="BQ3">
-        <v>0.2875812093611319</v>
+        <v>0.2875674658077553</v>
       </c>
       <c r="BR3">
-        <v>0.287832184053704</v>
+        <v>0.2878135147434136</v>
       </c>
       <c r="BS3">
-        <v>0.2988636787272135</v>
+        <v>0.2988505357707673</v>
       </c>
       <c r="BT3">
-        <v>0.3046386100562974</v>
+        <v>0.3046258970221336</v>
       </c>
       <c r="BU3">
-        <v>0.3049570007668742</v>
+        <v>0.3049394273381065</v>
       </c>
       <c r="BV3">
-        <v>0.3177090373894622</v>
+        <v>0.3176986584432603</v>
       </c>
       <c r="BW3">
-        <v>0.3316080909781027</v>
+        <v>0.3316060185896164</v>
       </c>
       <c r="BX3">
-        <v>0.3440110896110209</v>
+        <v>0.3440158732999277</v>
       </c>
       <c r="BY3">
-        <v>0.3464353177392729</v>
+        <v>0.3464372827204301</v>
       </c>
       <c r="BZ3">
-        <v>0.3466067189642</v>
+        <v>0.3466036810390389</v>
       </c>
       <c r="CA3">
-        <v>0.3468466420570992</v>
+        <v>0.3468386676600919</v>
       </c>
       <c r="CB3">
-        <v>0.3468518061364463</v>
+        <v>0.3468386676600919</v>
       </c>
       <c r="CC3">
-        <v>0.3474645102183126</v>
+        <v>0.347446796694996</v>
       </c>
       <c r="CD3">
-        <v>0.3478289142375276</v>
+        <v>0.3478063849312027</v>
       </c>
       <c r="CE3">
-        <v>0.3478633881125073</v>
+        <v>0.3478357231437605</v>
       </c>
       <c r="CF3">
-        <v>0.3576794448219891</v>
+        <v>0.3576561277952621</v>
       </c>
       <c r="CG3">
-        <v>0.3867863699605342</v>
+        <v>0.3867861040825177</v>
       </c>
       <c r="CH3">
-        <v>0.3973884536467526</v>
+        <v>0.3973932977928292</v>
       </c>
       <c r="CI3">
-        <v>0.3984154637163569</v>
+        <v>0.3984161345003697</v>
       </c>
       <c r="CJ3">
-        <v>0.3998643433734756</v>
+        <v>0.399861249813511</v>
       </c>
       <c r="CK3">
-        <v>0.4006629901498387</v>
+        <v>0.4006555018211954</v>
       </c>
       <c r="CL3">
-        <v>0.4024117982980806</v>
+        <v>0.402400836417167</v>
       </c>
       <c r="CM3">
-        <v>0.403943906752736</v>
+        <v>0.4039292612212264</v>
       </c>
       <c r="CN3">
-        <v>0.4096840601828492</v>
+        <v>0.4096698108551694</v>
       </c>
       <c r="CO3">
-        <v>0.4342047304571301</v>
+        <v>0.4342090857353326</v>
       </c>
       <c r="CP3">
-        <v>0.4681562244522943</v>
+        <v>0.468188327866955</v>
       </c>
       <c r="CQ3">
-        <v>0.5009892534805608</v>
+        <v>0.5010480206387438</v>
       </c>
       <c r="CR3">
-        <v>0.514097545092605</v>
+        <v>0.5141638521356734</v>
       </c>
       <c r="CS3">
-        <v>0.5149305095679524</v>
+        <v>0.514992455114614</v>
       </c>
       <c r="CT3">
-        <v>0.5275775351936483</v>
+        <v>0.5276465734108507</v>
       </c>
       <c r="CU3">
-        <v>0.5553825123707261</v>
+        <v>0.5554733394501893</v>
       </c>
       <c r="CV3">
-        <v>0.5876208084165945</v>
+        <v>0.5877377226240721</v>
       </c>
       <c r="CW3">
-        <v>0.6143228816263141</v>
+        <v>0.6144605153900781</v>
       </c>
       <c r="CX3">
-        <v>0.6305425961462718</v>
+        <v>0.630690786433906</v>
       </c>
       <c r="CY3">
-        <v>0.637174993349978</v>
+        <v>0.6373244449046079</v>
       </c>
       <c r="CZ3">
-        <v>0.6402292039595848</v>
+        <v>0.6403764475976592</v>
       </c>
       <c r="DA3">
-        <v>0.6430385528764387</v>
+        <v>0.6431833511955374</v>
       </c>
       <c r="DB3">
-        <v>0.6435589788310361</v>
+        <v>0.6436991126361331</v>
       </c>
       <c r="DC3">
-        <v>0.6534448685384511</v>
+        <v>0.6535894179912287</v>
       </c>
       <c r="DD3">
-        <v>0.6721099059860366</v>
+        <v>0.6722673827932308</v>
       </c>
       <c r="DE3">
-        <v>0.7029113170744313</v>
+        <v>0.7030934878968079</v>
       </c>
       <c r="DF3">
-        <v>0.7291775032970516</v>
+        <v>0.7293799710672433</v>
       </c>
       <c r="DG3">
-        <v>0.7432507778805358</v>
+        <v>0.7434617211221075</v>
       </c>
       <c r="DH3">
-        <v>0.744348043748061</v>
+        <v>0.7445548817431497</v>
       </c>
       <c r="DI3">
-        <v>0.74521676896235</v>
+        <v>0.7454192801323839</v>
       </c>
       <c r="DJ3">
-        <v>0.7453201446152905</v>
+        <v>0.7455175869257112</v>
       </c>
       <c r="DK3">
-        <v>0.7521929394118818</v>
+        <v>0.7523918760636092</v>
       </c>
       <c r="DL3">
-        <v>0.7534636420742739</v>
+        <v>0.753658641632872</v>
       </c>
       <c r="DM3">
-        <v>0.7598449948854099</v>
+        <v>0.7600410123142288</v>
       </c>
       <c r="DN3">
-        <v>0.7658797983068025</v>
+        <v>0.7660764976134586</v>
       </c>
       <c r="DO3">
-        <v>0.7724548681122053</v>
+        <v>0.7726527731048354</v>
       </c>
       <c r="DP3">
-        <v>0.7933697084932051</v>
+        <v>0.7935827221069705</v>
       </c>
       <c r="DQ3">
-        <v>0.8015856122500454</v>
+        <v>0.8018014223986701</v>
       </c>
       <c r="DR3">
-        <v>0.8026293129191558</v>
+        <v>0.8028409658878669</v>
       </c>
       <c r="DS3">
-        <v>0.8031039331651089</v>
+        <v>0.8033108772094986</v>
       </c>
       <c r="DT3">
-        <v>0.8091224839869825</v>
+        <v>0.8093300941517162</v>
       </c>
       <c r="DU3">
-        <v>0.8225678695890499</v>
+        <v>0.8227833464636948</v>
       </c>
       <c r="DV3">
-        <v>0.8280500354267986</v>
+        <v>0.8282656583768107</v>
       </c>
       <c r="DW3">
-        <v>0.8306309788504124</v>
+        <v>0.8308439350339195</v>
       </c>
       <c r="DX3">
-        <v>0.8329651371813301</v>
+        <v>0.8331751873311053</v>
       </c>
       <c r="DY3">
-        <v>0.833750883708075</v>
+        <v>0.8339565265819049</v>
       </c>
       <c r="DZ3">
-        <v>0.8362637651337033</v>
+        <v>0.836466675252417</v>
       </c>
       <c r="EA3">
-        <v>0.8364490176282204</v>
+        <v>0.8366469382699314</v>
       </c>
       <c r="EB3">
-        <v>0.8368582929361075</v>
+        <v>0.8370514412991754</v>
       </c>
       <c r="EC3">
-        <v>0.839111063469434</v>
+        <v>0.8393012268903057</v>
       </c>
       <c r="ED3">
-        <v>0.841940242785701</v>
+        <v>0.8421279801138988</v>
       </c>
       <c r="EE3">
-        <v>0.8427353752621681</v>
+        <v>0.8429187144144442</v>
       </c>
       <c r="EF3">
-        <v>0.8429206532066846</v>
+        <v>0.8430990029066325</v>
       </c>
       <c r="EG3">
-        <v>0.843069006002294</v>
+        <v>0.8432423304496233</v>
       </c>
       <c r="EH3">
-        <v>0.8440415677735098</v>
+        <v>0.8442106660691466</v>
       </c>
       <c r="EI3">
-        <v>0.8451686493401525</v>
+        <v>0.8453336712967235</v>
       </c>
       <c r="EJ3">
-        <v>0.8456056637472185</v>
+        <v>0.8457659403192237</v>
       </c>
       <c r="EK3">
-        <v>0.8456291317565239</v>
+        <v>0.8457842619955155</v>
       </c>
       <c r="EL3">
-        <v>0.8472677989080255</v>
+        <v>0.8474193488089982</v>
       </c>
       <c r="EM3">
-        <v>0.8473014252770303</v>
+        <v>0.8474478386938928</v>
       </c>
       <c r="EN3">
-        <v>0.8481458605520382</v>
+        <v>0.8482879235938562</v>
       </c>
       <c r="EO3">
-        <v>0.849006653826562</v>
+        <v>0.8491443823530178</v>
       </c>
       <c r="EP3">
-        <v>0.8497768270037678</v>
+        <v>0.849910133155343</v>
       </c>
       <c r="EQ3">
-        <v>0.8509297659696451</v>
+        <v>0.8510590208518546</v>
       </c>
       <c r="ER3">
-        <v>0.858078623758066</v>
+        <v>0.8582096406348096</v>
       </c>
       <c r="ES3">
-        <v>0.8667925495001667</v>
+        <v>0.8669268457624076</v>
       </c>
       <c r="ET3">
-        <v>0.8714850349612869</v>
+        <v>0.8716187116747161</v>
       </c>
       <c r="EU3">
-        <v>0.8741767689816218</v>
+        <v>0.8743078863441057</v>
       </c>
       <c r="EV3">
-        <v>0.8745797345696955</v>
+        <v>0.8747060735360309</v>
       </c>
       <c r="EW3">
-        <v>0.8747085585258828</v>
+        <v>0.8748298533056713</v>
       </c>
       <c r="EX3">
-        <v>0.874825427502424</v>
+        <v>0.8749416665048729</v>
       </c>
       <c r="EY3">
-        <v>0.8761910322620072</v>
+        <v>0.8763034261824018</v>
       </c>
       <c r="EZ3">
-        <v>0.8850725009991494</v>
+        <v>0.8851883367441391</v>
       </c>
       <c r="FA3">
-        <v>0.892422911781605</v>
+        <v>0.8925407049341723</v>
       </c>
       <c r="FB3">
-        <v>0.8975858492288016</v>
+        <v>0.8977034789530663</v>
       </c>
       <c r="FC3">
-        <v>0.9040837537364882</v>
+        <v>0.9042025143321317</v>
       </c>
       <c r="FD3">
-        <v>0.9063394797697273</v>
+        <v>0.9064552582886405</v>
       </c>
       <c r="FE3">
-        <v>0.9063702908408154</v>
+        <v>0.9064809301460836</v>
       </c>
       <c r="FF3">
-        <v>0.9067036630109488</v>
+        <v>0.9068094564466893</v>
       </c>
       <c r="FG3">
-        <v>0.9106927098928882</v>
+        <v>0.9107972017702334</v>
       </c>
       <c r="FH3">
-        <v>0.9206343795986524</v>
+        <v>0.9207433412044387</v>
       </c>
       <c r="FI3">
-        <v>0.93026203931371</v>
+        <v>0.9303751662036985</v>
       </c>
       <c r="FJ3">
-        <v>0.9335999419149207</v>
+        <v>0.933711135938177</v>
       </c>
       <c r="FK3">
-        <v>0.936281996235542</v>
+        <v>0.9363906215230281</v>
       </c>
       <c r="FL3">
-        <v>0.9369428617859829</v>
+        <v>0.9370469587208226</v>
       </c>
       <c r="FM3">
-        <v>0.9369430999922458</v>
+        <v>0.9370469587208226</v>
       </c>
       <c r="FN3">
-        <v>0.9371534626160198</v>
+        <v>0.9372523562127879</v>
       </c>
       <c r="FO3">
-        <v>0.9375627379239069</v>
+        <v>0.9376568592420319</v>
       </c>
       <c r="FP3">
-        <v>0.9390481753799436</v>
+        <v>0.9391385677982222</v>
       </c>
       <c r="FQ3">
-        <v>0.9462851774657557</v>
+        <v>0.946377417337708</v>
       </c>
       <c r="FR3">
-        <v>0.9521138432932492</v>
+        <v>0.9522065651850572</v>
       </c>
       <c r="FS3">
-        <v>0.9560312564773086</v>
+        <v>0.9561226073592157</v>
       </c>
       <c r="FT3">
-        <v>0.9582506679116224</v>
+        <v>0.9583390015084595</v>
       </c>
       <c r="FU3">
-        <v>0.9584272692363957</v>
+        <v>0.9585106049686026</v>
       </c>
       <c r="FV3">
-        <v>0.9589215257217675</v>
+        <v>0.9590001715677097</v>
       </c>
       <c r="FW3">
-        <v>0.9589967385735415</v>
+        <v>0.9590702882549986</v>
       </c>
       <c r="FX3">
-        <v>0.959202286927458</v>
+        <v>0.9592708668094947</v>
       </c>
       <c r="FY3">
-        <v>0.9595834797161762</v>
+        <v>0.9596472600925342</v>
       </c>
       <c r="FZ3">
-        <v>0.9600473132424485</v>
+        <v>0.9601063742363635</v>
       </c>
       <c r="GA3">
-        <v>0.9619794325852651</v>
+        <v>0.9620351977538573</v>
       </c>
       <c r="GB3">
-        <v>0.9643853069140603</v>
+        <v>0.964438235580219</v>
       </c>
       <c r="GC3">
-        <v>0.9672620414289199</v>
+        <v>0.9673125901089193</v>
       </c>
       <c r="GD3">
-        <v>0.9690134536770847</v>
+        <v>0.9690605313295846</v>
       </c>
       <c r="GE3">
-        <v>0.9693039746684864</v>
+        <v>0.9693461649056642</v>
       </c>
       <c r="GF3">
-        <v>0.9693087231083458</v>
+        <v>0.9693461649056642</v>
       </c>
       <c r="GG3">
-        <v>0.9694515681341181</v>
+        <v>0.9694839793388325</v>
       </c>
       <c r="GH3">
-        <v>0.9700194594573107</v>
+        <v>0.9700472521674446</v>
       </c>
       <c r="GI3">
-        <v>0.9728123363746521</v>
+        <v>0.9728376677956007</v>
       </c>
       <c r="GJ3">
-        <v>0.9763981328685262</v>
+        <v>0.9764217717649919</v>
       </c>
       <c r="GK3">
-        <v>0.9779934897213096</v>
+        <v>0.9780135062888283</v>
       </c>
       <c r="GL3">
-        <v>0.98205109060122</v>
+        <v>0.9820698720759667</v>
       </c>
       <c r="GM3">
-        <v>0.9851444125096693</v>
+        <v>0.9851610239877037</v>
       </c>
       <c r="GN3">
-        <v>0.9858355346892147</v>
+        <v>0.9858476471495178</v>
       </c>
       <c r="GO3">
-        <v>0.9859436035760163</v>
+        <v>0.9859506517269691</v>
       </c>
       <c r="GP3">
-        <v>0.9865609386977455</v>
+        <v>0.9865634162916996</v>
       </c>
       <c r="GQ3">
-        <v>0.9899723656967802</v>
+        <v>0.9899729817086108</v>
       </c>
       <c r="GR3">
-        <v>0.9951844845425212</v>
+        <v>0.9951849848092247</v>
       </c>
       <c r="GS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.357085233374475E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.388985654158994E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.873689136079192E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5.544698226359445E-05</v>
+        <v>2.423213753050784E-05</v>
       </c>
       <c r="F4">
-        <v>7.994743086612816E-05</v>
+        <v>3.622694948565868E-05</v>
       </c>
       <c r="G4">
-        <v>8.013982845085975E-05</v>
+        <v>3.622694948565868E-05</v>
       </c>
       <c r="H4">
-        <v>8.466314156210051E-05</v>
+        <v>3.622694948565868E-05</v>
       </c>
       <c r="I4">
-        <v>0.0001233472525134497</v>
+        <v>6.243758281745753E-05</v>
       </c>
       <c r="J4">
-        <v>0.0002754843562549213</v>
+        <v>0.0002023584441909731</v>
       </c>
       <c r="K4">
-        <v>0.0003245523244616381</v>
+        <v>0.0002389764783979942</v>
       </c>
       <c r="L4">
-        <v>0.0003771181287543765</v>
+        <v>0.0002791002794359514</v>
       </c>
       <c r="M4">
-        <v>0.0004521758306002527</v>
+        <v>0.0003417669745568305</v>
       </c>
       <c r="N4">
-        <v>0.0004559406857928409</v>
+        <v>0.0003417669745568305</v>
       </c>
       <c r="O4">
-        <v>0.0004584281486540145</v>
+        <v>0.0003417669745568305</v>
       </c>
       <c r="P4">
-        <v>0.0004601919051973901</v>
+        <v>0.0003417669745568305</v>
       </c>
       <c r="Q4">
-        <v>0.0005014345002116595</v>
+        <v>0.0003705418928764563</v>
       </c>
       <c r="R4">
-        <v>0.0007673111867503015</v>
+        <v>0.0006244602220925478</v>
       </c>
       <c r="S4">
-        <v>0.001139395225900876</v>
+        <v>0.000984826710922647</v>
       </c>
       <c r="T4">
-        <v>0.001342583000897824</v>
+        <v>0.001175913992214954</v>
       </c>
       <c r="U4">
-        <v>0.001433843163142164</v>
+        <v>0.00125481988404133</v>
       </c>
       <c r="V4">
-        <v>0.001444868923413318</v>
+        <v>0.00125481988404133</v>
       </c>
       <c r="W4">
-        <v>0.00144971595823252</v>
+        <v>0.00125481988404133</v>
       </c>
       <c r="X4">
-        <v>0.001460547040498886</v>
+        <v>0.00125481988404133</v>
       </c>
       <c r="Y4">
-        <v>0.001460567828967397</v>
+        <v>0.00125481988404133</v>
       </c>
       <c r="Z4">
-        <v>0.001465873839097887</v>
+        <v>0.00125481988404133</v>
       </c>
       <c r="AA4">
-        <v>0.001480653479461359</v>
+        <v>0.001257071847487775</v>
       </c>
       <c r="AB4">
-        <v>0.001535812285817866</v>
+        <v>0.001299794529778069</v>
       </c>
       <c r="AC4">
-        <v>0.001609347207626293</v>
+        <v>0.001360934992218282</v>
       </c>
       <c r="AD4">
-        <v>0.001653851370720773</v>
+        <v>0.001392978873665751</v>
       </c>
       <c r="AE4">
-        <v>0.001680574603377972</v>
+        <v>0.001407201509458136</v>
       </c>
       <c r="AF4">
-        <v>0.001688658967576788</v>
+        <v>0.001407201509458136</v>
       </c>
       <c r="AG4">
-        <v>0.001694101495710635</v>
+        <v>0.001407201509458136</v>
       </c>
       <c r="AH4">
-        <v>0.001694268929344753</v>
+        <v>0.001407201509458136</v>
       </c>
       <c r="AI4">
-        <v>0.001718515469941042</v>
+        <v>0.001418941837714077</v>
       </c>
       <c r="AJ4">
-        <v>0.00171944652256394</v>
+        <v>0.001418941837714077</v>
       </c>
       <c r="AK4">
-        <v>0.001719454872404145</v>
+        <v>0.001418941837714077</v>
       </c>
       <c r="AL4">
-        <v>0.001729548271152369</v>
+        <v>0.001418941837714077</v>
       </c>
       <c r="AM4">
-        <v>0.00174066416442574</v>
+        <v>0.001418941837714077</v>
       </c>
       <c r="AN4">
-        <v>0.001743524386896081</v>
+        <v>0.001418941837714077</v>
       </c>
       <c r="AO4">
-        <v>0.001756663347219204</v>
+        <v>0.001419549401158869</v>
       </c>
       <c r="AP4">
-        <v>0.001758234045057832</v>
+        <v>0.001419549401158869</v>
       </c>
       <c r="AQ4">
-        <v>0.001758242394898037</v>
+        <v>0.001419549401158869</v>
       </c>
       <c r="AR4">
-        <v>0.001758327312810126</v>
+        <v>0.001419549401158869</v>
       </c>
       <c r="AS4">
-        <v>0.001802049215885368</v>
+        <v>0.001450809248946336</v>
       </c>
       <c r="AT4">
-        <v>0.001851530567102251</v>
+        <v>0.001487841603438777</v>
       </c>
       <c r="AU4">
-        <v>0.001855182023792051</v>
+        <v>0.001487841603438777</v>
       </c>
       <c r="AV4">
-        <v>0.07541036383271715</v>
+        <v>0.07519723601605953</v>
       </c>
       <c r="AW4">
-        <v>0.1243559190364236</v>
+        <v>0.1242412057053534</v>
       </c>
       <c r="AX4">
-        <v>0.1441978975243926</v>
+        <v>0.1441156112977518</v>
       </c>
       <c r="AY4">
-        <v>0.144230158005186</v>
+        <v>0.1441353837364432</v>
       </c>
       <c r="AZ4">
-        <v>0.1519238051943941</v>
+        <v>0.1518339137671992</v>
       </c>
       <c r="BA4">
-        <v>0.1529619037199238</v>
+        <v>0.1528618048163145</v>
       </c>
       <c r="BB4">
-        <v>0.1556512920860633</v>
+        <v>0.1555447297232501</v>
       </c>
       <c r="BC4">
-        <v>0.189447565917207</v>
+        <v>0.1894050696362106</v>
       </c>
       <c r="BD4">
-        <v>0.222397546727538</v>
+        <v>0.2224171977037177</v>
       </c>
       <c r="BE4">
-        <v>0.2228750212092805</v>
+        <v>0.222883193589938</v>
       </c>
       <c r="BF4">
-        <v>0.2398395186264843</v>
+        <v>0.2398735939155232</v>
       </c>
       <c r="BG4">
-        <v>0.2398538489378367</v>
+        <v>0.239875395531182</v>
       </c>
       <c r="BH4">
-        <v>0.2419608074896527</v>
+        <v>0.2419745700638323</v>
       </c>
       <c r="BI4">
-        <v>0.242619716205857</v>
+        <v>0.2426224115556014</v>
       </c>
       <c r="BJ4">
-        <v>0.2426229886833375</v>
+        <v>0.2426224115556014</v>
       </c>
       <c r="BK4">
-        <v>0.2534914009506218</v>
+        <v>0.2535029049011089</v>
       </c>
       <c r="BL4">
-        <v>0.2791167795808207</v>
+        <v>0.2791738235061345</v>
       </c>
       <c r="BM4">
-        <v>0.2867794657692673</v>
+        <v>0.2868413223373567</v>
       </c>
       <c r="BN4">
-        <v>0.2877098326521476</v>
+        <v>0.2877612374807536</v>
       </c>
       <c r="BO4">
-        <v>0.2898236630041325</v>
+        <v>0.2898672993942041</v>
       </c>
       <c r="BP4">
-        <v>0.2956161514465858</v>
+        <v>0.2956603601259977</v>
       </c>
       <c r="BQ4">
-        <v>0.2956203068196879</v>
+        <v>0.2956603601259977</v>
       </c>
       <c r="BR4">
-        <v>0.3006263152427995</v>
+        <v>0.3006651576295568</v>
       </c>
       <c r="BS4">
-        <v>0.3098531044697117</v>
+        <v>0.3099003058352974</v>
       </c>
       <c r="BT4">
-        <v>0.3116208304131849</v>
+        <v>0.3116594786077015</v>
       </c>
       <c r="BU4">
-        <v>0.3203778706285448</v>
+        <v>0.3204238127263707</v>
       </c>
       <c r="BV4">
-        <v>0.3291018768430922</v>
+        <v>0.3291550379452821</v>
       </c>
       <c r="BW4">
-        <v>0.3424729411719236</v>
+        <v>0.3425438576877322</v>
       </c>
       <c r="BX4">
-        <v>0.3482415505137896</v>
+        <v>0.3483129851771631</v>
       </c>
       <c r="BY4">
-        <v>0.3483854772973292</v>
+        <v>0.3484446771028383</v>
       </c>
       <c r="BZ4">
-        <v>0.3485079010303399</v>
+        <v>0.3485548172234963</v>
       </c>
       <c r="CA4">
-        <v>0.3485086933450294</v>
+        <v>0.3485548172234963</v>
       </c>
       <c r="CB4">
-        <v>0.3494496401681699</v>
+        <v>0.3494853362953579</v>
       </c>
       <c r="CC4">
-        <v>0.3508009484014023</v>
+        <v>0.3508271472016041</v>
       </c>
       <c r="CD4">
-        <v>0.3509967557662177</v>
+        <v>0.3510108373388974</v>
       </c>
       <c r="CE4">
-        <v>0.3517692055552144</v>
+        <v>0.3517724773384168</v>
       </c>
       <c r="CF4">
-        <v>0.3738878430991728</v>
+        <v>0.3739287039217228</v>
       </c>
       <c r="CG4">
-        <v>0.3872053494266871</v>
+        <v>0.3872638442292504</v>
       </c>
       <c r="CH4">
-        <v>0.3918929782419688</v>
+        <v>0.3919495402536874</v>
       </c>
       <c r="CI4">
-        <v>0.3948290428141747</v>
+        <v>0.3948797006627853</v>
       </c>
       <c r="CJ4">
-        <v>0.3981311158953819</v>
+        <v>0.3981766994425618</v>
       </c>
       <c r="CK4">
-        <v>0.3982536221583946</v>
+        <v>0.3982869222803445</v>
       </c>
       <c r="CL4">
-        <v>0.3988174700022612</v>
+        <v>0.3988394873655108</v>
       </c>
       <c r="CM4">
-        <v>0.4048789441513296</v>
+        <v>0.4049021436829912</v>
       </c>
       <c r="CN4">
-        <v>0.4167617334435602</v>
+        <v>0.4167993139798092</v>
       </c>
       <c r="CO4">
-        <v>0.4418078930595145</v>
+        <v>0.4418897002905683</v>
       </c>
       <c r="CP4">
-        <v>0.4800272939994351</v>
+        <v>0.4801831959963156</v>
       </c>
       <c r="CQ4">
-        <v>0.4972432784228237</v>
+        <v>0.4974256535318476</v>
       </c>
       <c r="CR4">
-        <v>0.5025161105524972</v>
+        <v>0.5026978797190751</v>
       </c>
       <c r="CS4">
-        <v>0.5025891413442932</v>
+        <v>0.5027585149084743</v>
       </c>
       <c r="CT4">
-        <v>0.523470233857817</v>
+        <v>0.5236743905397085</v>
       </c>
       <c r="CU4">
-        <v>0.5462743284186327</v>
+        <v>0.5465176282963894</v>
       </c>
       <c r="CV4">
-        <v>0.5816674092890463</v>
+        <v>0.5819783957353993</v>
       </c>
       <c r="CW4">
-        <v>0.6135899660741101</v>
+        <v>0.6139607702694339</v>
       </c>
       <c r="CX4">
-        <v>0.6263982073891001</v>
+        <v>0.6267854908931465</v>
       </c>
       <c r="CY4">
-        <v>0.6331401095549021</v>
+        <v>0.6335301179814806</v>
       </c>
       <c r="CZ4">
-        <v>0.6373614870587174</v>
+        <v>0.6377485055493688</v>
       </c>
       <c r="DA4">
-        <v>0.6374157746000525</v>
+        <v>0.6377903549911933</v>
       </c>
       <c r="DB4">
-        <v>0.6409212439862617</v>
+        <v>0.6412912112422964</v>
       </c>
       <c r="DC4">
-        <v>0.6527634122774933</v>
+        <v>0.6531476684369452</v>
       </c>
       <c r="DD4">
-        <v>0.6775740228876548</v>
+        <v>0.6780019716748387</v>
       </c>
       <c r="DE4">
-        <v>0.7016663834801524</v>
+        <v>0.7021363963860316</v>
       </c>
       <c r="DF4">
-        <v>0.7231491890084739</v>
+        <v>0.7236553493133836</v>
       </c>
       <c r="DG4">
-        <v>0.7312273902071392</v>
+        <v>0.7317393052640238</v>
       </c>
       <c r="DH4">
-        <v>0.7312413968884837</v>
+        <v>0.7317407825158988</v>
       </c>
       <c r="DI4">
-        <v>0.7314000476223853</v>
+        <v>0.7318872317759746</v>
       </c>
       <c r="DJ4">
-        <v>0.7333228954696734</v>
+        <v>0.7338018781645723</v>
       </c>
       <c r="DK4">
-        <v>0.7356715898274343</v>
+        <v>0.7361433365977513</v>
       </c>
       <c r="DL4">
-        <v>0.7387095714021467</v>
+        <v>0.7391756450887229</v>
       </c>
       <c r="DM4">
-        <v>0.7453295335649498</v>
+        <v>0.7457980556959629</v>
       </c>
       <c r="DN4">
-        <v>0.7481654199346921</v>
+        <v>0.7486278107656616</v>
       </c>
       <c r="DO4">
-        <v>0.7620876872770791</v>
+        <v>0.7625690832802006</v>
       </c>
       <c r="DP4">
-        <v>0.7784777206801553</v>
+        <v>0.7789837170927855</v>
       </c>
       <c r="DQ4">
-        <v>0.7818569437632598</v>
+        <v>0.7823580407988897</v>
       </c>
       <c r="DR4">
-        <v>0.782318839674619</v>
+        <v>0.7828084227929837</v>
       </c>
       <c r="DS4">
-        <v>0.7859936677649932</v>
+        <v>0.7864790217401395</v>
       </c>
       <c r="DT4">
-        <v>0.7974923055477765</v>
+        <v>0.7979911695296833</v>
       </c>
       <c r="DU4">
-        <v>0.8060302987577493</v>
+        <v>0.8065359599913554</v>
       </c>
       <c r="DV4">
-        <v>0.8138494909500449</v>
+        <v>0.8143603196770152</v>
       </c>
       <c r="DW4">
-        <v>0.8162793770098025</v>
+        <v>0.8167831539004849</v>
       </c>
       <c r="DX4">
-        <v>0.8179805758516396</v>
+        <v>0.8184756487324315</v>
       </c>
       <c r="DY4">
-        <v>0.8233579759838847</v>
+        <v>0.823852680012287</v>
       </c>
       <c r="DZ4">
-        <v>0.823720653892804</v>
+        <v>0.8242036190440947</v>
       </c>
       <c r="EA4">
-        <v>0.8237808809142851</v>
+        <v>0.8242514214328204</v>
       </c>
       <c r="EB4">
-        <v>0.8248386786402994</v>
+        <v>0.825299056346987</v>
       </c>
       <c r="EC4">
-        <v>0.8303207731751192</v>
+        <v>0.8307810194060639</v>
       </c>
       <c r="ED4">
-        <v>0.8322436210224073</v>
+        <v>0.8326956657946616</v>
       </c>
       <c r="EE4">
-        <v>0.8329714517403067</v>
+        <v>0.8334125855569734</v>
       </c>
       <c r="EF4">
-        <v>0.8352474644962802</v>
+        <v>0.8356811975952673</v>
       </c>
       <c r="EG4">
-        <v>0.8368959488368209</v>
+        <v>0.8373208584048042</v>
       </c>
       <c r="EH4">
-        <v>0.838435510574683</v>
+        <v>0.8388513496482953</v>
       </c>
       <c r="EI4">
-        <v>0.8403851352226297</v>
+        <v>0.8407928335493661</v>
       </c>
       <c r="EJ4">
-        <v>0.8404003711260044</v>
+        <v>0.8407955428103221</v>
       </c>
       <c r="EK4">
-        <v>0.8413564318095166</v>
+        <v>0.8417412100106481</v>
       </c>
       <c r="EL4">
-        <v>0.8420264726259947</v>
+        <v>0.8424002088428238</v>
       </c>
       <c r="EM4">
-        <v>0.8420988339377743</v>
+        <v>0.8424601730342752</v>
       </c>
       <c r="EN4">
-        <v>0.8426517257013715</v>
+        <v>0.8430017571981344</v>
       </c>
       <c r="EO4">
-        <v>0.8435330597930459</v>
+        <v>0.8438725283768599</v>
       </c>
       <c r="EP4">
-        <v>0.843581938189248</v>
+        <v>0.8439089564092401</v>
       </c>
       <c r="EQ4">
-        <v>0.847746903291676</v>
+        <v>0.8480708036702719</v>
       </c>
       <c r="ER4">
-        <v>0.8566237525099822</v>
+        <v>0.8569552184383047</v>
       </c>
       <c r="ES4">
-        <v>0.8644864007033465</v>
+        <v>0.8648231326540812</v>
       </c>
       <c r="ET4">
-        <v>0.8693594438231881</v>
+        <v>0.8696946633782929</v>
       </c>
       <c r="EU4">
-        <v>0.869964090698058</v>
+        <v>0.8702881199992855</v>
       </c>
       <c r="EV4">
-        <v>0.8699679560061531</v>
+        <v>0.8702881199992855</v>
       </c>
       <c r="EW4">
-        <v>0.8704615987182931</v>
+        <v>0.8707703207745997</v>
       </c>
       <c r="EX4">
-        <v>0.8709379500000078</v>
+        <v>0.8712351909141285</v>
       </c>
       <c r="EY4">
-        <v>0.8761856958290644</v>
+        <v>0.8764822739218442</v>
       </c>
       <c r="EZ4">
-        <v>0.8837900700160769</v>
+        <v>0.8840913285391452</v>
       </c>
       <c r="FA4">
-        <v>0.8896160428593537</v>
+        <v>0.8899179495919126</v>
       </c>
       <c r="FB4">
-        <v>0.8948894162890405</v>
+        <v>0.8951907183064586</v>
       </c>
       <c r="FC4">
-        <v>0.8983144380732713</v>
+        <v>0.8986109445544087</v>
       </c>
       <c r="FD4">
-        <v>0.899010322590385</v>
+        <v>0.8992958456833899</v>
       </c>
       <c r="FE4">
-        <v>0.8990685285388165</v>
+        <v>0.8993416224166285</v>
       </c>
       <c r="FF4">
-        <v>0.9009431519849186</v>
+        <v>0.9012079350634608</v>
       </c>
       <c r="FG4">
-        <v>0.906516638121986</v>
+        <v>0.906781496939608</v>
       </c>
       <c r="FH4">
-        <v>0.9166067503701297</v>
+        <v>0.9168819256038332</v>
       </c>
       <c r="FI4">
-        <v>0.9244311500625534</v>
+        <v>0.9247115045967367</v>
       </c>
       <c r="FJ4">
-        <v>0.926984487625347</v>
+        <v>0.9272580702284055</v>
       </c>
       <c r="FK4">
-        <v>0.9285977906650226</v>
+        <v>0.9288624699694963</v>
       </c>
       <c r="FL4">
-        <v>0.9291700599390963</v>
+        <v>0.9294234755790219</v>
       </c>
       <c r="FM4">
-        <v>0.9295434248482783</v>
+        <v>0.9297851258420372</v>
       </c>
       <c r="FN4">
-        <v>0.9299811756290438</v>
+        <v>0.9302113079605846</v>
       </c>
       <c r="FO4">
-        <v>0.9304201593998397</v>
+        <v>0.9306387258647563</v>
       </c>
       <c r="FP4">
-        <v>0.9345628318017194</v>
+        <v>0.9347782298803551</v>
       </c>
       <c r="FQ4">
-        <v>0.9413192479678784</v>
+        <v>0.9415374038770589</v>
       </c>
       <c r="FR4">
-        <v>0.9465584650967251</v>
+        <v>0.9467759388471961</v>
       </c>
       <c r="FS4">
-        <v>0.9505969345960422</v>
+        <v>0.9508110036979779</v>
       </c>
       <c r="FT4">
-        <v>0.9510064079061123</v>
+        <v>0.9512088442315028</v>
       </c>
       <c r="FU4">
-        <v>0.951167291700069</v>
+        <v>0.951357531614715</v>
       </c>
       <c r="FV4">
-        <v>0.9511944858087378</v>
+        <v>0.9513722261941499</v>
       </c>
       <c r="FW4">
-        <v>0.9515959037786098</v>
+        <v>0.9517619931233708</v>
       </c>
       <c r="FX4">
-        <v>0.9519459826872192</v>
+        <v>0.9521003045887909</v>
       </c>
       <c r="FY4">
-        <v>0.9523474006570912</v>
+        <v>0.9524900715180119</v>
       </c>
       <c r="FZ4">
-        <v>0.953639479688867</v>
+        <v>0.9537725189307201</v>
       </c>
       <c r="GA4">
-        <v>0.9556764063389607</v>
+        <v>0.9558015027762921</v>
       </c>
       <c r="GB4">
-        <v>0.9585014524084363</v>
+        <v>0.9586203929671979</v>
       </c>
       <c r="GC4">
-        <v>0.9632573605253972</v>
+        <v>0.9633745231049494</v>
       </c>
       <c r="GD4">
-        <v>0.9642470956497375</v>
+        <v>0.9643539410971371</v>
       </c>
       <c r="GE4">
-        <v>0.964353366448351</v>
+        <v>0.9644478916593826</v>
       </c>
       <c r="GF4">
-        <v>0.9644505324707406</v>
+        <v>0.9645327168018817</v>
       </c>
       <c r="GG4">
-        <v>0.9648973654817296</v>
+        <v>0.9649680017430556</v>
       </c>
       <c r="GH4">
-        <v>0.9658898073061364</v>
+        <v>0.9659501325722892</v>
       </c>
       <c r="GI4">
-        <v>0.9695627079964632</v>
+        <v>0.9696187997493478</v>
       </c>
       <c r="GJ4">
-        <v>0.973795572100561</v>
+        <v>0.9738486999614195</v>
       </c>
       <c r="GK4">
-        <v>0.9770191564798378</v>
+        <v>0.977067032079562</v>
       </c>
       <c r="GL4">
-        <v>0.9828676253236679</v>
+        <v>0.9829162001387153</v>
       </c>
       <c r="GM4">
-        <v>0.9842621217579625</v>
+        <v>0.9843012971678808</v>
       </c>
       <c r="GN4">
-        <v>0.9849405114746459</v>
+        <v>0.9849686638299648</v>
       </c>
       <c r="GO4">
-        <v>0.9849525366299416</v>
+        <v>0.9849686638299648</v>
       </c>
       <c r="GP4">
-        <v>0.9862123614609242</v>
+        <v>0.9862187839109976</v>
       </c>
       <c r="GQ4">
-        <v>0.9897890854488857</v>
+        <v>0.9897910563214722</v>
       </c>
       <c r="GR4">
-        <v>0.9951938708818042</v>
+        <v>0.9951955349934853</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.039695572785836E-05</v>
+        <v>5.45831488693472E-05</v>
       </c>
       <c r="C5">
-        <v>0.0001105958739951173</v>
+        <v>9.895707456522313E-05</v>
       </c>
       <c r="D5">
-        <v>0.0001110876013173264</v>
+        <v>9.895707456522313E-05</v>
       </c>
       <c r="E5">
-        <v>0.0001141369666550525</v>
+        <v>9.895707456522313E-05</v>
       </c>
       <c r="F5">
-        <v>0.0001531230804158796</v>
+        <v>0.0001321058969950106</v>
       </c>
       <c r="G5">
-        <v>0.0002260343737089542</v>
+        <v>0.0001992171097751897</v>
       </c>
       <c r="H5">
-        <v>0.0002642566284352812</v>
+        <v>0.0002316012353320334</v>
       </c>
       <c r="I5">
-        <v>0.0002714862830618121</v>
+        <v>0.0002329587665693884</v>
       </c>
       <c r="J5">
-        <v>0.0003144050550002597</v>
+        <v>0.0002700445607111766</v>
       </c>
       <c r="K5">
-        <v>0.0003169123590135033</v>
+        <v>0.0002700445607111766</v>
       </c>
       <c r="L5">
-        <v>0.0003185934821894321</v>
+        <v>0.0002700445607111766</v>
       </c>
       <c r="M5">
-        <v>0.0003192248181179467</v>
+        <v>0.0002700445607111766</v>
       </c>
       <c r="N5">
-        <v>0.0003323454527105467</v>
+        <v>0.0002772995334333673</v>
       </c>
       <c r="O5">
-        <v>0.000358330473884173</v>
+        <v>0.0002974330030333079</v>
       </c>
       <c r="P5">
-        <v>0.0003642040846494576</v>
+        <v>0.0002974330030333079</v>
       </c>
       <c r="Q5">
-        <v>0.0003941974820041242</v>
+        <v>0.0003215792453999277</v>
       </c>
       <c r="R5">
-        <v>0.0003952170078501715</v>
+        <v>0.0003215792453999277</v>
       </c>
       <c r="S5">
-        <v>0.0004295061793988589</v>
+        <v>0.0003500259737785903</v>
       </c>
       <c r="T5">
-        <v>0.0004370201071382292</v>
+        <v>0.0003516680899336226</v>
       </c>
       <c r="U5">
-        <v>0.0004469486715866577</v>
+        <v>0.000355727491290918</v>
       </c>
       <c r="V5">
-        <v>0.0004624710342877329</v>
+        <v>0.0003653868264559959</v>
       </c>
       <c r="W5">
-        <v>0.0004625620390278432</v>
+        <v>0.0003653868264559959</v>
       </c>
       <c r="X5">
-        <v>0.0005124551012812879</v>
+        <v>0.0004094545606600243</v>
       </c>
       <c r="Y5">
-        <v>0.0005254195978668359</v>
+        <v>0.000416553224115259</v>
       </c>
       <c r="Z5">
-        <v>0.0005279233345799184</v>
+        <v>0.000416553224115259</v>
       </c>
       <c r="AA5">
-        <v>0.0005298774770681781</v>
+        <v>0.000416553224115259</v>
       </c>
       <c r="AB5">
-        <v>0.0005516502030515541</v>
+        <v>0.0004324697782708355</v>
       </c>
       <c r="AC5">
-        <v>0.0006339434367683686</v>
+        <v>0.0005089732220519531</v>
       </c>
       <c r="AD5">
-        <v>0.0006464690433340939</v>
+        <v>0.0005156325140910412</v>
       </c>
       <c r="AE5">
-        <v>0.000651386449056191</v>
+        <v>0.0005156325140910412</v>
       </c>
       <c r="AF5">
-        <v>0.0006516442092678328</v>
+        <v>0.0005156325140910412</v>
       </c>
       <c r="AG5">
-        <v>0.0006666859759472016</v>
+        <v>0.0005248107260928793</v>
       </c>
       <c r="AH5">
-        <v>0.0006864160768383213</v>
+        <v>0.0005386824147037719</v>
       </c>
       <c r="AI5">
-        <v>0.000690384650817564</v>
+        <v>0.0005386824147037719</v>
       </c>
       <c r="AJ5">
-        <v>0.0006933276173504845</v>
+        <v>0.0005386824147037719</v>
       </c>
       <c r="AK5">
-        <v>0.000709658656088084</v>
+        <v>0.0005491513129013266</v>
       </c>
       <c r="AL5">
-        <v>0.000765815708624445</v>
+        <v>0.0005994899080432387</v>
       </c>
       <c r="AM5">
-        <v>0.000778780205209993</v>
+        <v>0.0006065885714984735</v>
       </c>
       <c r="AN5">
-        <v>0.0008564920387198864</v>
+        <v>0.000678505589965882</v>
       </c>
       <c r="AO5">
-        <v>0.0008730724394687484</v>
+        <v>0.0006892241236873108</v>
       </c>
       <c r="AP5">
-        <v>0.0008745229574342617</v>
+        <v>0.0006892241236873108</v>
       </c>
       <c r="AQ5">
-        <v>0.0008749336955228129</v>
+        <v>0.0006892241236873108</v>
       </c>
       <c r="AR5">
-        <v>0.0008756299528542597</v>
+        <v>0.0006892241236873108</v>
       </c>
       <c r="AS5">
-        <v>0.0008840628832351372</v>
+        <v>0.0006917862504914906</v>
       </c>
       <c r="AT5">
-        <v>0.0008994153759285401</v>
+        <v>0.0007012755293270536</v>
       </c>
       <c r="AU5">
-        <v>0.001050172232737548</v>
+        <v>0.0008463176904950302</v>
       </c>
       <c r="AV5">
-        <v>0.07656092564321805</v>
+        <v>0.07643401498417685</v>
       </c>
       <c r="AW5">
-        <v>0.0913910533130281</v>
+        <v>0.0912745290197205</v>
       </c>
       <c r="AX5">
-        <v>0.1230110987411631</v>
+        <v>0.1229233768274459</v>
       </c>
       <c r="AY5">
-        <v>0.1235934525074654</v>
+        <v>0.1235004892949862</v>
       </c>
       <c r="AZ5">
-        <v>0.131656324871629</v>
+        <v>0.1315663253638987</v>
       </c>
       <c r="BA5">
-        <v>0.1345874859040163</v>
+        <v>0.1344948213857335</v>
       </c>
       <c r="BB5">
-        <v>0.1381141517632999</v>
+        <v>0.1380194754136702</v>
       </c>
       <c r="BC5">
-        <v>0.1428197419758302</v>
+        <v>0.1427243468975083</v>
       </c>
       <c r="BD5">
-        <v>0.2184544153919077</v>
+        <v>0.2184361001183903</v>
       </c>
       <c r="BE5">
-        <v>0.2226729195824385</v>
+        <v>0.2226533513201415</v>
       </c>
       <c r="BF5">
-        <v>0.2313393339738614</v>
+        <v>0.2313233914111185</v>
       </c>
       <c r="BG5">
-        <v>0.2325890715303064</v>
+        <v>0.2325686196884162</v>
       </c>
       <c r="BH5">
-        <v>0.2334997032714355</v>
+        <v>0.2334743702023346</v>
       </c>
       <c r="BI5">
-        <v>0.2335115847119721</v>
+        <v>0.2334803846217914</v>
       </c>
       <c r="BJ5">
-        <v>0.2340203294749498</v>
+        <v>0.2339838073480044</v>
       </c>
       <c r="BK5">
-        <v>0.236876539503952</v>
+        <v>0.2368372701564791</v>
       </c>
       <c r="BL5">
-        <v>0.2666126178469966</v>
+        <v>0.2666000844506514</v>
       </c>
       <c r="BM5">
-        <v>0.2848004136684574</v>
+        <v>0.2848019494946707</v>
       </c>
       <c r="BN5">
-        <v>0.2860486232248334</v>
+        <v>0.2860456480959132</v>
       </c>
       <c r="BO5">
-        <v>0.2864475672428519</v>
+        <v>0.2864391496422685</v>
       </c>
       <c r="BP5">
-        <v>0.2947665496185829</v>
+        <v>0.2947613766369011</v>
       </c>
       <c r="BQ5">
-        <v>0.2955520236240592</v>
+        <v>0.2955418321359597</v>
       </c>
       <c r="BR5">
-        <v>0.3000916830290952</v>
+        <v>0.3000805908111708</v>
       </c>
       <c r="BS5">
-        <v>0.3083992514043106</v>
+        <v>0.3083913912858465</v>
       </c>
       <c r="BT5">
-        <v>0.3140688193603794</v>
+        <v>0.3140612978517842</v>
       </c>
       <c r="BU5">
-        <v>0.3161835452558921</v>
+        <v>0.316172463230226</v>
       </c>
       <c r="BV5">
-        <v>0.3291454478413228</v>
+        <v>0.329142703019534</v>
       </c>
       <c r="BW5">
-        <v>0.3404058883499062</v>
+        <v>0.3404096144840693</v>
       </c>
       <c r="BX5">
-        <v>0.3498381707759199</v>
+        <v>0.3498463626516516</v>
       </c>
       <c r="BY5">
-        <v>0.3500070824035489</v>
+        <v>0.3500095794966919</v>
       </c>
       <c r="BZ5">
-        <v>0.3500315242796528</v>
+        <v>0.3500281681286242</v>
       </c>
       <c r="CA5">
-        <v>0.3500854016790862</v>
+        <v>0.3500762245702266</v>
       </c>
       <c r="CB5">
-        <v>0.3504782302668286</v>
+        <v>0.3504636039785988</v>
       </c>
       <c r="CC5">
-        <v>0.3523595013517971</v>
+        <v>0.3523410584816909</v>
       </c>
       <c r="CD5">
-        <v>0.352389832350167</v>
+        <v>0.3523655426953703</v>
       </c>
       <c r="CE5">
-        <v>0.3526799241632692</v>
+        <v>0.3526500726423166</v>
       </c>
       <c r="CF5">
-        <v>0.3697497019342341</v>
+        <v>0.3697326933382366</v>
       </c>
       <c r="CG5">
-        <v>0.3848656586169538</v>
+        <v>0.3848593498981161</v>
       </c>
       <c r="CH5">
-        <v>0.3925270383629837</v>
+        <v>0.3925232529718946</v>
       </c>
       <c r="CI5">
-        <v>0.3945651012550339</v>
+        <v>0.3945576712590925</v>
       </c>
       <c r="CJ5">
-        <v>0.3995254954790725</v>
+        <v>0.3995176262361061</v>
       </c>
       <c r="CK5">
-        <v>0.4000882382044891</v>
+        <v>0.4000751061523992</v>
       </c>
       <c r="CL5">
-        <v>0.4000987563519641</v>
+        <v>0.400079755783467</v>
       </c>
       <c r="CM5">
-        <v>0.4063052076322816</v>
+        <v>0.4062871345538897</v>
       </c>
       <c r="CN5">
-        <v>0.4182430651714608</v>
+        <v>0.4182322060735908</v>
       </c>
       <c r="CO5">
-        <v>0.4403347761692439</v>
+        <v>0.4403422683015645</v>
       </c>
       <c r="CP5">
-        <v>0.4766308098085722</v>
+        <v>0.4766722331760817</v>
       </c>
       <c r="CQ5">
-        <v>0.5011202029146478</v>
+        <v>0.5011826074089064</v>
       </c>
       <c r="CR5">
-        <v>0.5075925668069753</v>
+        <v>0.5076561904574699</v>
       </c>
       <c r="CS5">
-        <v>0.5086463794545713</v>
+        <v>0.508705278925769</v>
       </c>
       <c r="CT5">
-        <v>0.5178785248715456</v>
+        <v>0.5179416705641223</v>
       </c>
       <c r="CU5">
-        <v>0.5399059918664271</v>
+        <v>0.5399874183231883</v>
       </c>
       <c r="CV5">
-        <v>0.5722700153281641</v>
+        <v>0.5723810601964925</v>
       </c>
       <c r="CW5">
-        <v>0.6084252269611321</v>
+        <v>0.608570048604094</v>
       </c>
       <c r="CX5">
-        <v>0.6251090317146644</v>
+        <v>0.6252662729282482</v>
       </c>
       <c r="CY5">
-        <v>0.6320254237270466</v>
+        <v>0.6321843711289132</v>
       </c>
       <c r="CZ5">
-        <v>0.6372002274607692</v>
+        <v>0.6373589707905866</v>
       </c>
       <c r="DA5">
-        <v>0.6375639257971958</v>
+        <v>0.6377171879961397</v>
       </c>
       <c r="DB5">
-        <v>0.6391445498685855</v>
+        <v>0.6392936657211093</v>
       </c>
       <c r="DC5">
-        <v>0.6479989082684969</v>
+        <v>0.6481518559668774</v>
       </c>
       <c r="DD5">
-        <v>0.6694496802373316</v>
+        <v>0.6696202761522128</v>
       </c>
       <c r="DE5">
-        <v>0.693400161319067</v>
+        <v>0.693591147255282</v>
       </c>
       <c r="DF5">
-        <v>0.7160928323439927</v>
+        <v>0.716302828673138</v>
       </c>
       <c r="DG5">
-        <v>0.7277369978699072</v>
+        <v>0.7279538860436197</v>
       </c>
       <c r="DH5">
-        <v>0.7281770580897827</v>
+        <v>0.7283885488901198</v>
       </c>
       <c r="DI5">
-        <v>0.728189152362329</v>
+        <v>0.7283947763750309</v>
       </c>
       <c r="DJ5">
-        <v>0.7290997841034581</v>
+        <v>0.7293005268889493</v>
       </c>
       <c r="DK5">
-        <v>0.732990716079194</v>
+        <v>0.7331898465784668</v>
       </c>
       <c r="DL5">
-        <v>0.7358743687094356</v>
+        <v>0.736070782088586</v>
       </c>
       <c r="DM5">
-        <v>0.7416930179722377</v>
+        <v>0.7418899334810223</v>
       </c>
       <c r="DN5">
-        <v>0.7449453639191316</v>
+        <v>0.7451399667088948</v>
       </c>
       <c r="DO5">
-        <v>0.7542940333413688</v>
+        <v>0.7544930101618146</v>
       </c>
       <c r="DP5">
-        <v>0.7731229591917865</v>
+        <v>0.7733367084579792</v>
       </c>
       <c r="DQ5">
-        <v>0.7794606738780325</v>
+        <v>0.7796754946105391</v>
       </c>
       <c r="DR5">
-        <v>0.7806368377311546</v>
+        <v>0.7808470684852298</v>
       </c>
       <c r="DS5">
-        <v>0.781825055784821</v>
+        <v>0.7820307097821094</v>
       </c>
       <c r="DT5">
-        <v>0.7927082002763636</v>
+        <v>0.7929199113926347</v>
       </c>
       <c r="DU5">
-        <v>0.8026731647264361</v>
+        <v>0.8028899258563181</v>
       </c>
       <c r="DV5">
-        <v>0.8102025940665065</v>
+        <v>0.8104217337943926</v>
       </c>
       <c r="DW5">
-        <v>0.815068355686271</v>
+        <v>0.8152869523694021</v>
       </c>
       <c r="DX5">
-        <v>0.8164809938500736</v>
+        <v>0.8166952599315163</v>
       </c>
       <c r="DY5">
-        <v>0.8204105060275519</v>
+        <v>0.8206232021394534</v>
       </c>
       <c r="DZ5">
-        <v>0.8216386069830197</v>
+        <v>0.8218467700836776</v>
       </c>
       <c r="EA5">
-        <v>0.8216791434908506</v>
+        <v>0.8218814710007264</v>
       </c>
       <c r="EB5">
-        <v>0.8222389735161356</v>
+        <v>0.8224360350220941</v>
       </c>
       <c r="EC5">
-        <v>0.8249364749379696</v>
+        <v>0.8251306151439352</v>
       </c>
       <c r="ED5">
-        <v>0.8282286728866634</v>
+        <v>0.8284205440852581</v>
       </c>
       <c r="EE5">
-        <v>0.8287235970090169</v>
+        <v>0.8289101310116833</v>
       </c>
       <c r="EF5">
-        <v>0.830082757270404</v>
+        <v>0.8302649020141686</v>
       </c>
       <c r="EG5">
-        <v>0.8323537546729748</v>
+        <v>0.8325325103060018</v>
       </c>
       <c r="EH5">
-        <v>0.8338777805418082</v>
+        <v>0.8340523277487017</v>
       </c>
       <c r="EI5">
-        <v>0.8352957300058506</v>
+        <v>0.8354659524367531</v>
       </c>
       <c r="EJ5">
-        <v>0.8355108051355645</v>
+        <v>0.8356753834182953</v>
       </c>
       <c r="EK5">
-        <v>0.8361744918655403</v>
+        <v>0.8363339180595342</v>
       </c>
       <c r="EL5">
-        <v>0.8369866043722197</v>
+        <v>0.8371410412782242</v>
       </c>
       <c r="EM5">
-        <v>0.83698882480972</v>
+        <v>0.8371410412782242</v>
       </c>
       <c r="EN5">
-        <v>0.8373930616279776</v>
+        <v>0.8375398414302242</v>
       </c>
       <c r="EO5">
-        <v>0.8383826249726717</v>
+        <v>0.838524610123802</v>
       </c>
       <c r="EP5">
-        <v>0.8384087030408495</v>
+        <v>0.8385448367424647</v>
       </c>
       <c r="EQ5">
-        <v>0.8416565052875381</v>
+        <v>0.8417903212863764</v>
       </c>
       <c r="ER5">
-        <v>0.8490074272195461</v>
+        <v>0.8491434260206171</v>
       </c>
       <c r="ES5">
-        <v>0.8560111895358745</v>
+        <v>0.8561489903573075</v>
       </c>
       <c r="ET5">
-        <v>0.8628631651453473</v>
+        <v>0.8630026014999602</v>
       </c>
       <c r="EU5">
-        <v>0.8644584867174008</v>
+        <v>0.8645937928465408</v>
       </c>
       <c r="EV5">
-        <v>0.8647721093315657</v>
+        <v>0.8649018794042985</v>
       </c>
       <c r="EW5">
-        <v>0.8648498211650756</v>
+        <v>0.864973796422766</v>
       </c>
       <c r="EX5">
-        <v>0.8654401133417364</v>
+        <v>0.8655588560079066</v>
       </c>
       <c r="EY5">
-        <v>0.870060199950405</v>
+        <v>0.8701781301032929</v>
       </c>
       <c r="EZ5">
-        <v>0.8790342923557243</v>
+        <v>0.8791561856846597</v>
       </c>
       <c r="FA5">
-        <v>0.8864078780887559</v>
+        <v>0.8865319790787042</v>
       </c>
       <c r="FB5">
-        <v>0.8929064619822676</v>
+        <v>0.8930318108878486</v>
       </c>
       <c r="FC5">
-        <v>0.8969914761667693</v>
+        <v>0.8971154256651166</v>
       </c>
       <c r="FD5">
-        <v>0.8986687574425246</v>
+        <v>0.8987886666128636</v>
       </c>
       <c r="FE5">
-        <v>0.8986913991685472</v>
+        <v>0.8988054531202208</v>
       </c>
       <c r="FF5">
-        <v>0.899761236316867</v>
+        <v>0.8998705836657102</v>
       </c>
       <c r="FG5">
-        <v>0.9047913032440524</v>
+        <v>0.9049002877663442</v>
       </c>
       <c r="FH5">
-        <v>0.912967002613312</v>
+        <v>0.9130790745946031</v>
       </c>
       <c r="FI5">
-        <v>0.9232037950756617</v>
+        <v>0.9233212152249987</v>
       </c>
       <c r="FJ5">
-        <v>0.9278059467835202</v>
+        <v>0.9279225347476869</v>
       </c>
       <c r="FK5">
-        <v>0.9289941648371867</v>
+        <v>0.9291061760445666</v>
       </c>
       <c r="FL5">
-        <v>0.9298833506373472</v>
+        <v>0.9299904570945455</v>
       </c>
       <c r="FM5">
-        <v>0.9299529755154918</v>
+        <v>0.9300542782874742</v>
       </c>
       <c r="FN5">
-        <v>0.9307263734504228</v>
+        <v>0.9308226444703549</v>
       </c>
       <c r="FO5">
-        <v>0.9310617295955693</v>
+        <v>0.9311524883975081</v>
       </c>
       <c r="FP5">
-        <v>0.93432109074278</v>
+        <v>0.9344095445203168</v>
       </c>
       <c r="FQ5">
-        <v>0.9420994920940954</v>
+        <v>0.9421905975544765</v>
       </c>
       <c r="FR5">
-        <v>0.948058081363218</v>
+        <v>0.9481498424463672</v>
       </c>
       <c r="FS5">
-        <v>0.9520635988441292</v>
+        <v>0.9521538733241206</v>
       </c>
       <c r="FT5">
-        <v>0.9532830193992049</v>
+        <v>0.9533687513468594</v>
       </c>
       <c r="FU5">
-        <v>0.9537102788685022</v>
+        <v>0.9537905994022838</v>
       </c>
       <c r="FV5">
-        <v>0.9537105366287139</v>
+        <v>0.9537905994022838</v>
       </c>
       <c r="FW5">
-        <v>0.9539750809706621</v>
+        <v>0.9540495538563437</v>
       </c>
       <c r="FX5">
-        <v>0.9545555126968776</v>
+        <v>0.9546247421756083</v>
       </c>
       <c r="FY5">
-        <v>0.9550513990192745</v>
+        <v>0.9551152923574657</v>
       </c>
       <c r="FZ5">
-        <v>0.9560033673122706</v>
+        <v>0.9560624247632298</v>
       </c>
       <c r="GA5">
-        <v>0.9582443020134835</v>
+        <v>0.9582999373794445</v>
       </c>
       <c r="GB5">
-        <v>0.9599520227906136</v>
+        <v>0.96000365121612</v>
       </c>
       <c r="GC5">
-        <v>0.9639408419707707</v>
+        <v>0.9639909654775953</v>
       </c>
       <c r="GD5">
-        <v>0.965994763063537</v>
+        <v>0.96604125935957</v>
       </c>
       <c r="GE5">
-        <v>0.9661126017648592</v>
+        <v>0.9661533472589869</v>
       </c>
       <c r="GF5">
-        <v>0.9662702563319798</v>
+        <v>0.966305294696217</v>
       </c>
       <c r="GG5">
-        <v>0.9663358382649418</v>
+        <v>0.9663650685094605</v>
       </c>
       <c r="GH5">
-        <v>0.967394238912745</v>
+        <v>0.9674187500103127</v>
       </c>
       <c r="GI5">
-        <v>0.9700230097314747</v>
+        <v>0.970044524141918</v>
       </c>
       <c r="GJ5">
-        <v>0.9737733621008612</v>
+        <v>0.9737931100304071</v>
       </c>
       <c r="GK5">
-        <v>0.9762214970114325</v>
+        <v>0.9762380501234381</v>
       </c>
       <c r="GL5">
-        <v>0.9802790554946941</v>
+        <v>0.9802941790846923</v>
       </c>
       <c r="GM5">
-        <v>0.9822912997855781</v>
+        <v>0.9823027504516029</v>
       </c>
       <c r="GN5">
-        <v>0.9835914373442994</v>
+        <v>0.983598434012397</v>
       </c>
       <c r="GO5">
-        <v>0.983592909908966</v>
+        <v>0.983598434012397</v>
       </c>
       <c r="GP5">
-        <v>0.9840121599779016</v>
+        <v>0.9840122638823524</v>
       </c>
       <c r="GQ5">
-        <v>0.9881855367663942</v>
+        <v>0.9881843381840945</v>
       </c>
       <c r="GR5">
-        <v>0.993588485710421</v>
+        <v>0.993587333297045</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>6.37420269413542E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>3.362925366905943E-05</v>
+        <v>1.906474883736207E-05</v>
       </c>
       <c r="D6">
-        <v>9.521536361239718E-05</v>
+        <v>7.251479442316167E-05</v>
       </c>
       <c r="E6">
-        <v>0.0001723458835414333</v>
+        <v>0.0001415338077658073</v>
       </c>
       <c r="F6">
-        <v>0.0002684969834529696</v>
+        <v>0.0002296034506747415</v>
       </c>
       <c r="G6">
-        <v>0.0003296206833967327</v>
+        <v>0.0002825903557244614</v>
       </c>
       <c r="H6">
-        <v>0.0003901305413410607</v>
+        <v>0.0003349624489990288</v>
       </c>
       <c r="I6">
-        <v>0.0004173855923159847</v>
+        <v>0.0003540271978363909</v>
       </c>
       <c r="J6">
-        <v>0.0004232154993106209</v>
+        <v>0.0003540271978363909</v>
       </c>
       <c r="K6">
-        <v>0.0004374458882975283</v>
+        <v>0.0003600467077279314</v>
       </c>
       <c r="L6">
-        <v>0.000439464472495671</v>
+        <v>0.0003600467077279314</v>
       </c>
       <c r="M6">
-        <v>0.0004476848464881079</v>
+        <v>0.0003600467077279314</v>
       </c>
       <c r="N6">
-        <v>0.0004958556044437884</v>
+        <v>0.0004000602071383059</v>
       </c>
       <c r="O6">
-        <v>0.0005185710254228892</v>
+        <v>0.0004145781540643693</v>
       </c>
       <c r="P6">
-        <v>0.0005237100114181611</v>
+        <v>0.0004145781540643693</v>
       </c>
       <c r="Q6">
-        <v>0.0005545480373897885</v>
+        <v>0.0004372315384465082</v>
       </c>
       <c r="R6">
-        <v>0.0005940026993534883</v>
+        <v>0.0004685151717770782</v>
       </c>
       <c r="S6">
-        <v>0.00060205468534608</v>
+        <v>0.0004685151717770782</v>
       </c>
       <c r="T6">
-        <v>0.0006057585088426723</v>
+        <v>0.0004685151717770782</v>
       </c>
       <c r="U6">
-        <v>0.0006163393028329375</v>
+        <v>0.0004708793208745746</v>
       </c>
       <c r="V6">
-        <v>0.0006381449028128752</v>
+        <v>0.0004844860094245721</v>
       </c>
       <c r="W6">
-        <v>0.0007261778027318807</v>
+        <v>0.0005644246268366475</v>
       </c>
       <c r="X6">
-        <v>0.0008000596526639058</v>
+        <v>0.0006301898377845652</v>
       </c>
       <c r="Y6">
-        <v>0.000858746572609911</v>
+        <v>0.0006807361130998322</v>
       </c>
       <c r="Z6">
-        <v>0.0009627709025142035</v>
+        <v>0.0007766914244910203</v>
       </c>
       <c r="AA6">
-        <v>0.001017458145463888</v>
+        <v>0.0008232317039369812</v>
       </c>
       <c r="AB6">
-        <v>0.001039540285443572</v>
+        <v>0.000837115369377287</v>
       </c>
       <c r="AC6">
-        <v>0.001048229813435577</v>
+        <v>0.0008375852645678408</v>
       </c>
       <c r="AD6">
-        <v>0.00105024839763372</v>
+        <v>0.0008375852645678408</v>
       </c>
       <c r="AE6">
-        <v>0.001060124426624634</v>
+        <v>0.000839243535245947</v>
       </c>
       <c r="AF6">
-        <v>0.001075800180610211</v>
+        <v>0.0008467106935900099</v>
       </c>
       <c r="AG6">
-        <v>0.001158345475534265</v>
+        <v>0.0009211530364373184</v>
       </c>
       <c r="AH6">
-        <v>0.001189183501505893</v>
+        <v>0.0009438064208194573</v>
       </c>
       <c r="AI6">
-        <v>0.001247991086451787</v>
+        <v>0.000994473551766709</v>
       </c>
       <c r="AJ6">
-        <v>0.001323710980382121</v>
+        <v>0.001062079710539064</v>
       </c>
       <c r="AK6">
-        <v>0.001337941369369028</v>
+        <v>0.001068099220430605</v>
       </c>
       <c r="AL6">
-        <v>0.001377396031332728</v>
+        <v>0.001099382853761175</v>
       </c>
       <c r="AM6">
-        <v>0.0013807958180296</v>
+        <v>0.001099382853761175</v>
       </c>
       <c r="AN6">
-        <v>0.001399080694012777</v>
+        <v>0.00110946325611332</v>
       </c>
       <c r="AO6">
-        <v>0.001418216707995171</v>
+        <v>0.001120396141131493</v>
       </c>
       <c r="AP6">
-        <v>0.001435018323979713</v>
+        <v>0.001128990940162894</v>
       </c>
       <c r="AQ6">
-        <v>0.001435616401729162</v>
+        <v>0.001128990940162894</v>
       </c>
       <c r="AR6">
-        <v>0.001453151804713029</v>
+        <v>0.001138320685463943</v>
       </c>
       <c r="AS6">
-        <v>0.001481969631686515</v>
+        <v>0.001158950679244997</v>
       </c>
       <c r="AT6">
-        <v>0.001485023135583706</v>
+        <v>0.001158950679244997</v>
       </c>
       <c r="AU6">
-        <v>0.00148606217508275</v>
+        <v>0.001158950679244997</v>
       </c>
       <c r="AV6">
-        <v>0.0330628001460306</v>
+        <v>0.03277734166678462</v>
       </c>
       <c r="AW6">
-        <v>0.03332298524579122</v>
+        <v>0.03302970445797171</v>
       </c>
       <c r="AX6">
-        <v>0.07398523520837995</v>
+        <v>0.07374796114529908</v>
       </c>
       <c r="AY6">
-        <v>0.07506428460738716</v>
+        <v>0.07482048191507348</v>
       </c>
       <c r="AZ6">
-        <v>0.07643481490612621</v>
+        <v>0.0761849440794609</v>
       </c>
       <c r="BA6">
-        <v>0.08383755349931532</v>
+        <v>0.08359114449736062</v>
       </c>
       <c r="BB6">
-        <v>0.08861183949492274</v>
+        <v>0.08836473976782803</v>
       </c>
       <c r="BC6">
-        <v>0.0891357791644407</v>
+        <v>0.08888127382032712</v>
       </c>
       <c r="BD6">
-        <v>0.1930790790688078</v>
+        <v>0.1929805547516987</v>
       </c>
       <c r="BE6">
-        <v>0.1934409519084748</v>
+        <v>0.1933347659337432</v>
       </c>
       <c r="BF6">
-        <v>0.1952959565067681</v>
+        <v>0.1951844677923821</v>
       </c>
       <c r="BG6">
-        <v>0.2024615605001754</v>
+        <v>0.2023531589743937</v>
       </c>
       <c r="BH6">
-        <v>0.2067589034962216</v>
+        <v>0.2066490577488954</v>
       </c>
       <c r="BI6">
-        <v>0.2071321695958782</v>
+        <v>0.2070146801905235</v>
       </c>
       <c r="BJ6">
-        <v>0.2101436227931075</v>
+        <v>0.2100226576585841</v>
       </c>
       <c r="BK6">
-        <v>0.2116937947916813</v>
+        <v>0.2115670453289949</v>
       </c>
       <c r="BL6">
-        <v>0.248514962757804</v>
+        <v>0.248438151702518</v>
       </c>
       <c r="BM6">
-        <v>0.2605841117466998</v>
+        <v>0.2605181347250847</v>
       </c>
       <c r="BN6">
-        <v>0.2619883580454078</v>
+        <v>0.2619163661555228</v>
       </c>
       <c r="BO6">
-        <v>0.2619933640754032</v>
+        <v>0.2619163661555228</v>
       </c>
       <c r="BP6">
-        <v>0.2752826275631764</v>
+        <v>0.2752183912697584</v>
       </c>
       <c r="BQ6">
-        <v>0.2763250189622173</v>
+        <v>0.2762541961255786</v>
       </c>
       <c r="BR6">
-        <v>0.2795241846592739</v>
+        <v>0.2794501826502747</v>
       </c>
       <c r="BS6">
-        <v>0.2893831776502032</v>
+        <v>0.2893165179691589</v>
       </c>
       <c r="BT6">
-        <v>0.2971266766430787</v>
+        <v>0.2970640171356383</v>
       </c>
       <c r="BU6">
-        <v>0.2972422016329724</v>
+        <v>0.2971714912762885</v>
       </c>
       <c r="BV6">
-        <v>0.3143264716172541</v>
+        <v>0.3142745184121848</v>
       </c>
       <c r="BW6">
-        <v>0.3232900081090072</v>
+        <v>0.3232439825486851</v>
       </c>
       <c r="BX6">
-        <v>0.3358654760974372</v>
+        <v>0.3358310844767412</v>
       </c>
       <c r="BY6">
-        <v>0.3371917845962169</v>
+        <v>0.3371512549775434</v>
       </c>
       <c r="BZ6">
-        <v>0.3379888513954836</v>
+        <v>0.3379413476585456</v>
       </c>
       <c r="CA6">
-        <v>0.338076478575403</v>
+        <v>0.338020879914983</v>
       </c>
       <c r="CB6">
-        <v>0.3380889831423914</v>
+        <v>0.3380251708763435</v>
       </c>
       <c r="CC6">
-        <v>0.3402745078403807</v>
+        <v>0.3402059150054764</v>
       </c>
       <c r="CD6">
-        <v>0.3403174993343411</v>
+        <v>0.340240741058453</v>
       </c>
       <c r="CE6">
-        <v>0.3404022402082631</v>
+        <v>0.3403173824489746</v>
       </c>
       <c r="CF6">
-        <v>0.3513260501982127</v>
+        <v>0.3512502170135645</v>
       </c>
       <c r="CG6">
-        <v>0.3725412521786937</v>
+        <v>0.372490702381309</v>
       </c>
       <c r="CH6">
-        <v>0.3830959691689828</v>
+        <v>0.3830538608362056</v>
       </c>
       <c r="CI6">
-        <v>0.3888500534636888</v>
+        <v>0.3888088023360193</v>
       </c>
       <c r="CJ6">
-        <v>0.3979617494553056</v>
+        <v>0.39792666004155</v>
       </c>
       <c r="CK6">
-        <v>0.3996038954537948</v>
+        <v>0.3995631670166156</v>
       </c>
       <c r="CL6">
-        <v>0.3996045883261941</v>
+        <v>0.3995631670166156</v>
       </c>
       <c r="CM6">
-        <v>0.4055449533207287</v>
+        <v>0.405504683511043</v>
       </c>
       <c r="CN6">
-        <v>0.4179313583093326</v>
+        <v>0.4179024237488829</v>
       </c>
       <c r="CO6">
-        <v>0.4401727512888694</v>
+        <v>0.4401707213392441</v>
       </c>
       <c r="CP6">
-        <v>0.4746052332571898</v>
+        <v>0.4746493679593749</v>
       </c>
       <c r="CQ6">
-        <v>0.5051072692291265</v>
+        <v>0.5051913590844419</v>
       </c>
       <c r="CR6">
-        <v>0.5130122992218535</v>
+        <v>0.5131006444448477</v>
       </c>
       <c r="CS6">
-        <v>0.5164308046187084</v>
+        <v>0.5165163171922501</v>
       </c>
       <c r="CT6">
-        <v>0.5209291019145698</v>
+        <v>0.5210134877433776</v>
       </c>
       <c r="CU6">
-        <v>0.5449027608925128</v>
+        <v>0.5450167880453426</v>
       </c>
       <c r="CV6">
-        <v>0.5712224108682974</v>
+        <v>0.5713697856492219</v>
       </c>
       <c r="CW6">
-        <v>0.6109026048317897</v>
+        <v>0.6111044348403872</v>
       </c>
       <c r="CX6">
-        <v>0.630317594813927</v>
+        <v>0.6305418641523864</v>
       </c>
       <c r="CY6">
-        <v>0.6390538068058893</v>
+        <v>0.6392836446514351</v>
       </c>
       <c r="CZ6">
-        <v>0.6445045021008744</v>
+        <v>0.6447347178436847</v>
       </c>
       <c r="DA6">
-        <v>0.6451959835002382</v>
+        <v>0.6454190583161313</v>
       </c>
       <c r="DB6">
-        <v>0.6465868408989586</v>
+        <v>0.646803879694184</v>
       </c>
       <c r="DC6">
-        <v>0.6546271628915611</v>
+        <v>0.6548486707949659</v>
       </c>
       <c r="DD6">
-        <v>0.6733783498743091</v>
+        <v>0.6736212484011816</v>
       </c>
       <c r="DE6">
-        <v>0.7007093298491632</v>
+        <v>0.7009871737496027</v>
       </c>
       <c r="DF6">
-        <v>0.723887761827838</v>
+        <v>0.7241939907162482</v>
       </c>
       <c r="DG6">
-        <v>0.7388124048141066</v>
+        <v>0.7391339789764448</v>
       </c>
       <c r="DH6">
-        <v>0.7406437543124217</v>
+        <v>0.7409599883636947</v>
       </c>
       <c r="DI6">
-        <v>0.7407591101423155</v>
+        <v>0.7410672930770984</v>
       </c>
       <c r="DJ6">
-        <v>0.7407741840803017</v>
+        <v>0.7410741574686666</v>
       </c>
       <c r="DK6">
-        <v>0.7472940558743031</v>
+        <v>0.7475960962939558</v>
       </c>
       <c r="DL6">
-        <v>0.749541838272235</v>
+        <v>0.7498391964805986</v>
       </c>
       <c r="DM6">
-        <v>0.7560967128662042</v>
+        <v>0.7563961934048828</v>
       </c>
       <c r="DN6">
-        <v>0.7603515913622895</v>
+        <v>0.7606495605920609</v>
       </c>
       <c r="DO6">
-        <v>0.7659191317571671</v>
+        <v>0.7662176634814457</v>
       </c>
       <c r="DP6">
-        <v>0.7871429337376401</v>
+        <v>0.7874667624358563</v>
       </c>
       <c r="DQ6">
-        <v>0.7945965523307824</v>
+        <v>0.7949239232362645</v>
       </c>
       <c r="DR6">
-        <v>0.7959670826295214</v>
+        <v>0.7962883854006519</v>
       </c>
       <c r="DS6">
-        <v>0.7960375872894565</v>
+        <v>0.7963507680861635</v>
       </c>
       <c r="DT6">
-        <v>0.8047183422814698</v>
+        <v>0.8050370039717535</v>
       </c>
       <c r="DU6">
-        <v>0.8165718482705639</v>
+        <v>0.8169010033118266</v>
       </c>
       <c r="DV6">
-        <v>0.8248127957629818</v>
+        <v>0.8251467368697812</v>
       </c>
       <c r="DW6">
-        <v>0.8310168932572738</v>
+        <v>0.8313524025206535</v>
       </c>
       <c r="DX6">
-        <v>0.8318056483565481</v>
+        <v>0.8321341703704588</v>
       </c>
       <c r="DY6">
-        <v>0.8337550534547545</v>
+        <v>0.8340784218672461</v>
       </c>
       <c r="DZ6">
-        <v>0.835128353353491</v>
+        <v>0.835445658007172</v>
       </c>
       <c r="EA6">
-        <v>0.8352536362233758</v>
+        <v>0.8355629054437591</v>
       </c>
       <c r="EB6">
-        <v>0.8356051772630524</v>
+        <v>0.835906768503162</v>
       </c>
       <c r="EC6">
-        <v>0.8373215062614733</v>
+        <v>0.8376175756758617</v>
       </c>
       <c r="ED6">
-        <v>0.8406966597583679</v>
+        <v>0.840989828033986</v>
       </c>
       <c r="EE6">
-        <v>0.8408359707682398</v>
+        <v>0.8411211257728586</v>
       </c>
       <c r="EF6">
-        <v>0.8416039737675332</v>
+        <v>0.8418821087375646</v>
       </c>
       <c r="EG6">
-        <v>0.8428800286663591</v>
+        <v>0.8431519462454733</v>
       </c>
       <c r="EH6">
-        <v>0.8441448612651954</v>
+        <v>0.8444105437238886</v>
       </c>
       <c r="EI6">
-        <v>0.8451577313642635</v>
+        <v>0.8454167806406334</v>
       </c>
       <c r="EJ6">
-        <v>0.8453487245340878</v>
+        <v>0.8455998421893028</v>
       </c>
       <c r="EK6">
-        <v>0.846140799073359</v>
+        <v>0.8463849347233086</v>
       </c>
       <c r="EL6">
-        <v>0.8478504493717861</v>
+        <v>0.8480890526446981</v>
       </c>
       <c r="EM6">
-        <v>0.8478662970017715</v>
+        <v>0.8480966919505796</v>
       </c>
       <c r="EN6">
-        <v>0.8485655621011282</v>
+        <v>0.8487888284200649</v>
       </c>
       <c r="EO6">
-        <v>0.8502317180995953</v>
+        <v>0.8504493833272064</v>
       </c>
       <c r="EP6">
-        <v>0.8514248136984975</v>
+        <v>0.8516361304722881</v>
       </c>
       <c r="EQ6">
-        <v>0.8524908450975167</v>
+        <v>0.8526956126756416</v>
       </c>
       <c r="ER6">
-        <v>0.8584357610920471</v>
+        <v>0.8586416873599432</v>
       </c>
       <c r="ES6">
-        <v>0.866111530084985</v>
+        <v>0.8663213495235276</v>
       </c>
       <c r="ET6">
-        <v>0.8724355497791666</v>
+        <v>0.8726471268328757</v>
       </c>
       <c r="EU6">
-        <v>0.8754534857763899</v>
+        <v>0.8756615973427548</v>
       </c>
       <c r="EV6">
-        <v>0.8757665872761019</v>
+        <v>0.8759669601336465</v>
       </c>
       <c r="EW6">
-        <v>0.8757798833480896</v>
+        <v>0.8759720438504621</v>
       </c>
       <c r="EX6">
-        <v>0.8759844346979014</v>
+        <v>0.8761686849989531</v>
       </c>
       <c r="EY6">
-        <v>0.8777641111962641</v>
+        <v>0.8779429397508774</v>
       </c>
       <c r="EZ6">
-        <v>0.8844567167901065</v>
+        <v>0.8846378852687795</v>
       </c>
       <c r="FA6">
-        <v>0.8915760864835564</v>
+        <v>0.8917602691077681</v>
       </c>
       <c r="FB6">
-        <v>0.8967811798787674</v>
+        <v>0.8969653523871088</v>
       </c>
       <c r="FC6">
-        <v>0.9023047581736854</v>
+        <v>0.9024894237231943</v>
       </c>
       <c r="FD6">
-        <v>0.9048689669713262</v>
+        <v>0.9050494502144709</v>
       </c>
       <c r="FE6">
-        <v>0.9050235392911841</v>
+        <v>0.9051960333738462</v>
       </c>
       <c r="FF6">
-        <v>0.9053764837708593</v>
+        <v>0.9055413020904667</v>
       </c>
       <c r="FG6">
-        <v>0.9090289709674989</v>
+        <v>0.9091913262928223</v>
       </c>
       <c r="FH6">
-        <v>0.9153764856616589</v>
+        <v>0.9155406357206263</v>
       </c>
       <c r="FI6">
-        <v>0.9263596106515538</v>
+        <v>0.9265328789937164</v>
       </c>
       <c r="FJ6">
-        <v>0.9320969886462751</v>
+        <v>0.9322710878001672</v>
       </c>
       <c r="FK6">
-        <v>0.9341271459444073</v>
+        <v>0.9342962190729058</v>
       </c>
       <c r="FL6">
-        <v>0.9353330542432978</v>
+        <v>0.9354957991600663</v>
       </c>
       <c r="FM6">
-        <v>0.9353356770859954</v>
+        <v>0.9354957991600663</v>
       </c>
       <c r="FN6">
-        <v>0.9367852655846617</v>
+        <v>0.9369394444241477</v>
       </c>
       <c r="FO6">
-        <v>0.9369347428845242</v>
+        <v>0.9370809245141817</v>
       </c>
       <c r="FP6">
-        <v>0.9388333951827773</v>
+        <v>0.9389743430294168</v>
       </c>
       <c r="FQ6">
-        <v>0.9461567715760394</v>
+        <v>0.9463010558673497</v>
       </c>
       <c r="FR6">
-        <v>0.9506867999718716</v>
+        <v>0.9508300076486937</v>
       </c>
       <c r="FS6">
-        <v>0.9538792910689343</v>
+        <v>0.9540193090285571</v>
       </c>
       <c r="FT6">
-        <v>0.956152334266843</v>
+        <v>0.9562877099233459</v>
       </c>
       <c r="FU6">
-        <v>0.9564093549066065</v>
+        <v>0.956536903255177</v>
       </c>
       <c r="FV6">
-        <v>0.9565474607764795</v>
+        <v>0.9566669939501153</v>
       </c>
       <c r="FW6">
-        <v>0.9568778564761755</v>
+        <v>0.9569896782631607</v>
       </c>
       <c r="FX6">
-        <v>0.9575666495755418</v>
+        <v>0.9576713261885103</v>
       </c>
       <c r="FY6">
-        <v>0.9581752885749818</v>
+        <v>0.9582726933828137</v>
       </c>
       <c r="FZ6">
-        <v>0.9586452900045493</v>
+        <v>0.9587352039812596</v>
       </c>
       <c r="GA6">
-        <v>0.9609162693024599</v>
+        <v>0.9610015377154064</v>
       </c>
       <c r="GB6">
-        <v>0.9618158837016322</v>
+        <v>0.9618943400057114</v>
       </c>
       <c r="GC6">
-        <v>0.9656831284980741</v>
+        <v>0.9657594610917658</v>
       </c>
       <c r="GD6">
-        <v>0.9674304117964666</v>
+        <v>0.9675012714674585</v>
       </c>
       <c r="GE6">
-        <v>0.9675061316903969</v>
+        <v>0.9675688776262308</v>
       </c>
       <c r="GF6">
-        <v>0.9675673785303406</v>
+        <v>0.9676219878658227</v>
       </c>
       <c r="GG6">
-        <v>0.9676289646402839</v>
+        <v>0.9676754379114084</v>
       </c>
       <c r="GH6">
-        <v>0.9687041390392948</v>
+        <v>0.9687440775592838</v>
       </c>
       <c r="GI6">
-        <v>0.9707123670374471</v>
+        <v>0.9707472448871297</v>
       </c>
       <c r="GJ6">
-        <v>0.9746228070338493</v>
+        <v>0.9746556294149005</v>
       </c>
       <c r="GK6">
-        <v>0.9764484348321696</v>
+        <v>0.9764759080627518</v>
       </c>
       <c r="GL6">
-        <v>0.9797508180291312</v>
+        <v>0.9797752751550888</v>
       </c>
       <c r="GM6">
-        <v>0.9831191156260323</v>
+        <v>0.9831406607819544</v>
       </c>
       <c r="GN6">
-        <v>0.9843588792248916</v>
+        <v>0.9843741496552378</v>
       </c>
       <c r="GO6">
-        <v>0.9843659156543851</v>
+        <v>0.9843741496552378</v>
       </c>
       <c r="GP6">
-        <v>0.9845448143142206</v>
+        <v>0.9845450975864574</v>
       </c>
       <c r="GQ6">
-        <v>0.9886090803104812</v>
+        <v>0.9886075511354496</v>
       </c>
       <c r="GR6">
-        <v>0.9932722533061908</v>
+        <v>0.9932698578646108</v>
       </c>
       <c r="GS6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>94</v>
       </c>
       <c r="E2">
-        <v>0.0003589795669730621</v>
+        <v>0.05720908736946871</v>
       </c>
       <c r="F2">
-        <v>0.5105721266202852</v>
+        <v>0.5105738514812689</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>94</v>
       </c>
       <c r="E3">
-        <v>0.001255529070589158</v>
+        <v>0.0277424633433336</v>
       </c>
       <c r="F3">
-        <v>0.5009892534805608</v>
+        <v>0.5010480206387438</v>
       </c>
       <c r="G3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>95</v>
       </c>
       <c r="E4">
-        <v>0.001802049215885368</v>
+        <v>0.001487841603438777</v>
       </c>
       <c r="F4">
-        <v>0.5025161105524972</v>
+        <v>0.5026978797190751</v>
       </c>
       <c r="G4">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>94</v>
       </c>
       <c r="E5">
-        <v>0.0008840628832351372</v>
+        <v>0.0008463176904950302</v>
       </c>
       <c r="F5">
-        <v>0.5011202029146478</v>
+        <v>0.5011826074089064</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>94</v>
       </c>
       <c r="E6">
-        <v>0.03332298524579122</v>
+        <v>0.0761849440794609</v>
       </c>
       <c r="F6">
-        <v>0.5051072692291265</v>
+        <v>0.5051913590844419</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>45</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>108</v>
       </c>
       <c r="E2">
-        <v>0.0003589795669730621</v>
+        <v>0.05720908736946871</v>
       </c>
       <c r="F2">
-        <v>0.7024837205628298</v>
+        <v>0.7024897219715563</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>108</v>
       </c>
       <c r="E3">
-        <v>0.001255529070589158</v>
+        <v>0.0277424633433336</v>
       </c>
       <c r="F3">
-        <v>0.7029113170744313</v>
+        <v>0.7030934878968079</v>
       </c>
       <c r="G3">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>108</v>
       </c>
       <c r="E4">
-        <v>0.001802049215885368</v>
+        <v>0.001487841603438777</v>
       </c>
       <c r="F4">
-        <v>0.7016663834801524</v>
+        <v>0.7021363963860316</v>
       </c>
       <c r="G4">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>109</v>
       </c>
       <c r="E5">
-        <v>0.0008840628832351372</v>
+        <v>0.0008463176904950302</v>
       </c>
       <c r="F5">
-        <v>0.7160928323439927</v>
+        <v>0.716302828673138</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>108</v>
       </c>
       <c r="E6">
-        <v>0.03332298524579122</v>
+        <v>0.0761849440794609</v>
       </c>
       <c r="F6">
-        <v>0.7007093298491632</v>
+        <v>0.7009871737496027</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H6">
         <v>45</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>123</v>
       </c>
       <c r="E2">
-        <v>0.0003589795669730621</v>
+        <v>0.05720908736946871</v>
       </c>
       <c r="F2">
-        <v>0.8053375035649424</v>
+        <v>0.8053444301779374</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>120</v>
       </c>
       <c r="E3">
-        <v>0.001255529070589158</v>
+        <v>0.0277424633433336</v>
       </c>
       <c r="F3">
-        <v>0.8015856122500454</v>
+        <v>0.8018014223986701</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>124</v>
       </c>
       <c r="E4">
-        <v>0.001802049215885368</v>
+        <v>0.001487841603438777</v>
       </c>
       <c r="F4">
-        <v>0.8060302987577493</v>
+        <v>0.8065359599913554</v>
       </c>
       <c r="G4">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>124</v>
       </c>
       <c r="E5">
-        <v>0.0008840628832351372</v>
+        <v>0.0008463176904950302</v>
       </c>
       <c r="F5">
-        <v>0.8026731647264361</v>
+        <v>0.8028899258563181</v>
       </c>
       <c r="G5">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>123</v>
       </c>
       <c r="E6">
-        <v>0.03332298524579122</v>
+        <v>0.0761849440794609</v>
       </c>
       <c r="F6">
-        <v>0.8047183422814698</v>
+        <v>0.8050370039717535</v>
       </c>
       <c r="G6">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H6">
         <v>45</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>158</v>
       </c>
       <c r="E2">
-        <v>0.0003589795669730621</v>
+        <v>0.05720908736946871</v>
       </c>
       <c r="F2">
-        <v>0.9048070497160758</v>
+        <v>0.9048111347910996</v>
       </c>
       <c r="G2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>158</v>
       </c>
       <c r="E3">
-        <v>0.001255529070589158</v>
+        <v>0.0277424633433336</v>
       </c>
       <c r="F3">
-        <v>0.9040837537364882</v>
+        <v>0.9042025143321317</v>
       </c>
       <c r="G3">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>161</v>
       </c>
       <c r="E4">
-        <v>0.001802049215885368</v>
+        <v>0.001487841603438777</v>
       </c>
       <c r="F4">
-        <v>0.9009431519849186</v>
+        <v>0.9012079350634608</v>
       </c>
       <c r="G4">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>162</v>
       </c>
       <c r="E5">
-        <v>0.0008840628832351372</v>
+        <v>0.0008463176904950302</v>
       </c>
       <c r="F5">
-        <v>0.9047913032440524</v>
+        <v>0.9049002877663442</v>
       </c>
       <c r="G5">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>158</v>
       </c>
       <c r="E6">
-        <v>0.03332298524579122</v>
+        <v>0.0761849440794609</v>
       </c>
       <c r="F6">
-        <v>0.9023047581736854</v>
+        <v>0.9024894237231943</v>
       </c>
       <c r="G6">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H6">
         <v>45</v>

--- a/on_trucks/Processed_Stand_Alone/45_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/45_225-80R17.xlsx
@@ -1994,91 +1994,91 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.346972907940767E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.745387182967063E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.64239319423018E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>9.503366833573523E-07</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.874263366368974E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.761184735847026E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.394113039181611E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.093405933850967E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.943782444274552E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.382942053941345E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.067162698449328E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>8.606599379612791E-06</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.050412144933853E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>5.008669136665863E-06</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.510881706696076E-06</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1.966079778030313E-07</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>5.051452461614735E-06</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>7.116348451804011E-07</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>3.537658094634595E-08</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>7.040213048069202E-06</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>3.165412436484031E-06</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1.769098717929311E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1.180495838042879E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>7.305769013422134E-06</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2.744890247587329E-06</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.201513487186159E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -2087,511 +2087,511 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.310186804220609E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.566420793771944E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>5.801115382250116E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>7.969898685350305E-06</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>5.61558025912275E-07</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>3.003604159065284E-07</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>4.654129999638275E-06</v>
+        <v>0</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.977223685238543E-06</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>3.807338316990619E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>9.382799046111559E-06</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>5.234166174177059E-06</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.208067270786164E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>1.670083388673112E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1.43461034458179E-06</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0568561702454154</v>
+        <v>0.3331480128603397</v>
       </c>
       <c r="AW2">
-        <v>0.0008601811505056023</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.07406060747234902</v>
+        <v>0.546574311085007</v>
       </c>
       <c r="AY2">
-        <v>0.0009409594297288992</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.003116947789642771</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.01345177615944337</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0001558864669544977</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.02585495625260778</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.02183969913465642</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0003011375042147014</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.03531678650567081</v>
+        <v>0.06594537920385811</v>
       </c>
       <c r="BG2">
-        <v>6.433404370263804E-05</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.005377152051308952</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.001555088819470339</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0006085972231654754</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.001638715800231424</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.01548885776822981</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.01790534890051229</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.001674166263811208</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.001547811260072407</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.003014229128386734</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.001139708813859218</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.004605721254789559</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.01228439354980228</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.003513419721303325</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.001479016807995054</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.01653648410933433</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.01083146176217952</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.008896589796505913</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.00226738540823762</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.000475315432531514</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>1.940393623485005E-05</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0004092924792401705</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.00119471467446245</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>5.554006725424443E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>2.050412144933853E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.01730303343186074</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.02419872821878847</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.009461158919744337</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.004122905645535246</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.007148122674959597</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.000265294126630074</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.001450730199760387</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.002520417027178591</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.01235972323481843</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.02717427627783521</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.03438064813839161</v>
+        <v>0.0543322968507951</v>
       </c>
       <c r="CQ2">
-        <v>0.02447753515645288</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.006527796964359388</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>9.139478373303023E-06</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.01492901881359131</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.02392442044149004</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.02602196920553955</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.02299066315908111</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.01600553018426034</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.007045840829273209</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.004382787908657382</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.0005148320410430707</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.003475520770450803</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.01415787932745525</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.02210574061731491</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.0298247307493978</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.02337529386867868</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.009589210483954546</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.0001737504136886805</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.0005256701273507625</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.001024516608001977</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.007059140003302765</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.001893685088237767</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.006229097117641412</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.005294249696376092</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.008718960465168901</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.02165011237711449</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.004753775631970704</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>1.314637119312124E-05</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.00148511372531073</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.01106898622839078</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.01422705579314891</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.004016340847189292</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.003724112631143102</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.001567604565575754</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.0007135166628650327</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.001834099964413414</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>1.979012099983964E-05</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.001573137862802018</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.002066295240673508</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.003474416231081117</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.0009088497852277115</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.0003816244930553798</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.001208705373140386</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.001694748997452563</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.001152478369011285</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.0004929083596055984</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.0002262935365112359</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.00153847922744579</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>4.959973851993855E-05</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.0007414894599143598</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.0006577415348423919</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.0003137703244930536</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.003347568809790814</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.009708471734846931</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.007447336139984743</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.004706052430947192</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.003090053831047058</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>2.649140185716796E-05</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>8.45815453951417E-05</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.0001162494091497024</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.003566814324475648</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.009644315448090178</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.005501734791878032</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.004566397953168144</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.005077577673419596</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.0008371124582558987</v>
+        <v>0</v>
       </c>
       <c r="FE2">
         <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.000336963381175545</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.005558085800427089</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.009524704184722113</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.007239256723299097</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.003231011855289108</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.00194422378961566</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.0004189625039140184</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.0001808848579854844</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.0008371124582558987</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.0004004164428668712</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.002791415486521238</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.007452553325943686</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.004323578798235474</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.002872884190353708</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.001478296182309408</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.0005358323895696958</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.000376848342816509</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.0001181682325433482</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.0004287454026110952</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.0007776512088468671</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.0005915968772130758</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.002451982087915545</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.002593825143703247</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.002677839138258871</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.001550928071166567</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>1.511327630056921E-05</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.0001388999814961353</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0003847251335731637</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.001408108980589537</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.002560714463521611</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.003032065064122505</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.001628048220001171</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.004850714787224725</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.001921352274394042</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.0007278951353645981</v>
+        <v>0</v>
       </c>
       <c r="GO2">
         <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0009213943323596967</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.005631130904012682</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.005587641253887883</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.004850182068236739</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.684549551014077E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.914579455048731E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3.707523489105008E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.060235978916256E-06</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.053845493695816E-06</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2803,28 +2803,28 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.625632385725274E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>2.497378230971316E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.888795427060974E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>5.59089621390938E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>3.007374897490595E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1.742488969288279E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -2833,19 +2833,19 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>1.684549551014077E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>2.636743916132839E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>5.455961970901511E-06</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.130497213575854E-05</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -2854,22 +2854,22 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.392146238483488E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.062215082079112E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0001340932389381264</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0001631509533142977</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>3.637099828991993E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1.25851851092485E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
         <v>0</v>
@@ -2878,493 +2878,493 @@
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.655426643493904E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>3.855163438455151E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>7.414808196934082E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>4.823173321981054E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>9.003254315225723E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0001017130214913582</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.934918518550901E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>4.334953698011222E-07</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>1.348074602100906E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.02665804405246533</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.01011876062959432</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.094411614001235</v>
+        <v>0.781925944191362</v>
       </c>
       <c r="AY3">
-        <v>0.0106735905201457</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0002540076041710159</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.007023160329790491</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0004401190257632132</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.01263056348179409</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.03018070599056295</v>
+        <v>0.001904049553404614</v>
       </c>
       <c r="BE3">
-        <v>7.827249224169929E-07</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.03799068248491721</v>
+        <v>0.09674861661435809</v>
       </c>
       <c r="BG3">
-        <v>0.002225121101892026</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.007718271592408561</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>1.903124355604546E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0005677359114119237</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>2.898426373422012E-05</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.01348479386211897</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.01787829026272636</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.006432240483658193</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.000557304838206821</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.003567843119650307</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.003621398992161773</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.000246048935658311</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.01103702102735366</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.005775361251366368</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0003135303159728748</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.01275923110515386</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.01390736014635608</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.01240985471031129</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.002421409420502371</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0001663983186088392</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0002349866210529036</v>
+        <v>0</v>
       </c>
       <c r="CB3">
         <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0006081290349041426</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0003595882362066994</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>2.933821255777144E-05</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.009820404651501554</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.02912997628725562</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01060719371031155</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.001022836707540493</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.001445115313141252</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0007942520076844526</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.001745334595971604</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.001528424804059357</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.005740549633943064</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.02453927488016321</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.03397924213162237</v>
+        <v>0.04803357581057074</v>
       </c>
       <c r="CQ3">
-        <v>0.03285969277178877</v>
+        <v>0.03443773792123227</v>
       </c>
       <c r="CR3">
-        <v>0.01311583149692966</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.0008286029789405593</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.01265411829623674</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.02782676603933849</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.0322643831738828</v>
+        <v>0.02720828196557886</v>
       </c>
       <c r="CW3">
-        <v>0.02672279276600593</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.01623027104382787</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.006633658470701917</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.003052002693051235</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.00280690359787815</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.0005157614405957459</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.009890305355095552</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.01867796480200212</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.03082610510357708</v>
+        <v>0.009741793943493131</v>
       </c>
       <c r="DF3">
-        <v>0.02628648317043541</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.01408175005486424</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.00109316062104212</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.0008643983892342881</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>9.830679332730372E-05</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.006874289137898058</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.00126676556926275</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.00638237068135687</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.006035485299229834</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.006576275491376749</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.02092994900213506</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.008218700291699682</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.001039543489196815</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.0004699113216316093</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.006019216942217651</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.01345325231197863</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.005482311913115854</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.002578276657108907</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.002331252297185736</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.000781339250799621</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.002510148670512103</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.0001802630175143769</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.000404503029243949</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.002249785591130326</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.002826753223593075</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.0007907343005454156</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.0001802884921883343</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.000143327542990765</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.0009683356195234096</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.00112300522757696</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.0004322690225002064</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>1.832167629180488E-05</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.001635086813482718</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>2.848988489463032E-05</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.000840084899963371</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.0008564587591616096</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.0007657508023251812</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.001148887696511581</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.007150619782955114</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.00871720512759803</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.004691865912308378</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.002689174669389648</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.0003981871919251869</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.0001237797696404209</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.000111813199201629</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.001361759677528867</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.008884910561737317</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.007352368190033155</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.005162774018894129</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.006499035379065351</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.002252743956508759</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>2.567185744304194E-05</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.0003285263006057176</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.0039877453235441</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.009946139434205329</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.009631824999259806</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.003335969734478469</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.002679485584851123</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.0006563371977944831</v>
+        <v>0</v>
       </c>
       <c r="FM3">
         <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.0002053974919653774</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.000404503029243949</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.001481708556190364</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.007238849539485699</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.005829147847349236</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.003916042174158549</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.00221639414924379</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.0001716034601430586</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.0004895665991070231</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>7.01166872889206E-05</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.0002005785544961083</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0003763932830395402</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.0004591141438292603</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.001928823517493804</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.002403037826361728</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.002874354528700305</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.001747941220665218</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0002856335760795912</v>
+        <v>0</v>
       </c>
       <c r="GF3">
         <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.0001378144331682756</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0005632728286121475</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.002790415628156094</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.003584103969391186</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.001591734523836461</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.004056365787138431</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.003091151911736898</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0006866231618141189</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.0001030045774513034</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0006127645647306135</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.003409565416911222</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.005212003100613915</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.004815015190775139</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3549,10 +3549,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.423213753050784E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.199481195515084E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3561,19 +3561,19 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.621063333179885E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001399208613735156</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3.661803420702106E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>4.012380103795717E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>6.266669512087914E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -3585,19 +3585,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.877491831962582E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0002539183292160915</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0003603664888300993</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0001910872812923069</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>7.890589182637623E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -3615,19 +3615,19 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>2.251963446444769E-06</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>4.272268229029461E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>6.114046244021232E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>3.204388144746904E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1.422263579238492E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>1.174032825594101E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>6.075634447922459E-07</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -3669,475 +3669,475 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>3.125984778746666E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>3.70323544924412E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.07370939441262075</v>
+        <v>0.5137312904721306</v>
       </c>
       <c r="AW4">
-        <v>0.04904396968929384</v>
+        <v>0.2234619193236076</v>
       </c>
       <c r="AX4">
-        <v>0.01987440559239842</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>1.977243869139656E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.007698530030756046</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.001027891049115228</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.002682924906935642</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.03386033991296052</v>
+        <v>0.04477686863562606</v>
       </c>
       <c r="BD4">
-        <v>0.03301212806750709</v>
+        <v>0.03479488285016963</v>
       </c>
       <c r="BE4">
-        <v>0.0004659958862203035</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0169904003255852</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>1.801615658733257E-06</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.002099174532650297</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0006478414917691153</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
         <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.01088049334550748</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.02567091860502563</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.007667498831222216</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0009199151433968498</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.002106061913450548</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.005793060731793597</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
         <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.005004797503559159</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.009235148205740538</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.001759172772404186</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.008764334118669156</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.008731225218911379</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.01338881974245002</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.005769127489431003</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.0001316919256751663</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0001101401206580183</v>
+        <v>0</v>
       </c>
       <c r="CA4">
         <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0009305190718615616</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.001341810906246166</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0001836901372933575</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.0007616399995193344</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.022156226583306</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.01333514030752761</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.004685696024437008</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.00293016040909794</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.003296998779776462</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.0001102228377827083</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.0005525650851663101</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.006062656317480328</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.01189717029681808</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.02509038631075913</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.03829349570574724</v>
+        <v>0.09694744176014457</v>
       </c>
       <c r="CQ4">
-        <v>0.01724245753553205</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.005272226187227475</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>6.063518939925791E-05</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.02091587563123425</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.0228432377566809</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.03546076743900994</v>
+        <v>0.06361113144545333</v>
       </c>
       <c r="CW4">
-        <v>0.03198237453403448</v>
+        <v>0.02267646551286833</v>
       </c>
       <c r="CX4">
-        <v>0.01282472062371262</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.006744627088334135</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.004218387567888205</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>4.184944182448788E-05</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.003500856251103056</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.01185645719464878</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.02485430323789346</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.02413442471119298</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.02151895292735192</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.008083955950640171</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>1.477251875097931E-06</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.000146449260075739</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.00191464638859768</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.002341458433179025</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.003032308490971566</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.00662241060724001</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.002829755069698698</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.01394127251453896</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.01641463381258491</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.003374323706104261</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0004503819940940241</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.003670598947155833</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.01151214778954377</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.00854479046167207</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.007824359685659787</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.002422834223469741</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.001692494831946609</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.005377031279855411</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.0003509390318076794</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>4.780238872566004E-05</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.001047634914166642</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.005481963059076837</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.00191464638859768</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.0007169197623117533</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.002268612038293912</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.00163966080953693</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.001530491243491146</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.00194148390107071</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>2.709260955985927E-06</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0009456672003259642</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.0006589988321757735</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>5.996419145139096E-05</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.0005415841638592269</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.000870771178725477</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>3.64280323802704E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.004161847261031765</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.008884414768032827</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.007867914215776451</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.004871530724211736</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.000593456620992566</v>
+        <v>0</v>
       </c>
       <c r="EV4">
         <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.0004822007753142879</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.0004648701395287756</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.005247083007715653</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.007609054617300939</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.005826621052767422</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.005272768714545962</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.003420226247950132</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.0006849011289811881</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>4.577673323858159E-05</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.001866312646832259</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.005573561876147215</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.01010042866422523</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.007829578992903492</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.002546565631668785</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.001604399741090836</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.0005610056095256712</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.0003616502630152643</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.0004261821185473603</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.0004274179041716365</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.004139504015598872</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.006759173996703826</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.005238534970137275</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.004035064850781725</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.0003978405335248518</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.0001486873832122984</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>1.469457943476377E-05</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0003897669292209586</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.0003383114654200717</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0003897669292209586</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.001282447412708195</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.002028983845571933</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.002818890190905812</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.004754130137751508</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.0009794179921876606</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>9.395056224547406E-05</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>8.48251424991214E-05</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0004352849411739594</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0009821308292335639</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.003668667177058565</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.004229900212071703</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.003218332118142442</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.005849168059153295</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.001385097029165547</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.0006673666620839804</v>
+        <v>0</v>
       </c>
       <c r="GO4">
         <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.001250120081032731</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.003572272410474628</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.005404478672013087</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.004804465006515064</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,10 +4313,10 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.45831488693472E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.437392569587593E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4325,19 +4325,19 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.314882242978743E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>6.711121278017915E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>3.238412555684369E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.357531237354996E-06</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>3.708579414178819E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -4349,40 +4349,40 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7.254972722190638E-06</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.013346959994067E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.41462423666198E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>2.844672837866264E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1.642116155032242E-06</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>4.059401357295372E-06</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>9.659335165077912E-06</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>4.40677342040285E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>7.098663455234708E-06</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -4391,13 +4391,13 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>1.591655415557652E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>7.650344378111756E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>6.65929203908817E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -4406,10 +4406,10 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>9.178212001838006E-06</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>1.38716886108926E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -4418,19 +4418,19 @@
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>1.046889819755466E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>5.033859514191216E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>7.098663455234708E-06</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>7.191701846740855E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>1.071853372142883E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -4442,475 +4442,475 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.562126804179755E-06</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>9.48927883556297E-06</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0001450421611679765</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.07558769729368181</v>
+        <v>0.4230381106526279</v>
       </c>
       <c r="AW5">
-        <v>0.01484051403554365</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.03164884780772541</v>
+        <v>0.01505887962144403</v>
       </c>
       <c r="AY5">
-        <v>0.0005771124675402842</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.008065836068912488</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.002928496021834825</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.003524654027936722</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.004704871483838127</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.07571175322088197</v>
+        <v>0.4241899897385871</v>
       </c>
       <c r="BE5">
-        <v>0.00421725120175115</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.008670040090977047</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.001245228277297632</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.000905750513918413</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>6.014419456770386E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0005034227262130026</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.002853462808474759</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.02976281429417224</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.01820186504401939</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.00124369860124242</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0003935015463553208</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.008322226994632576</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0007804554990586846</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.004538758675211071</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.008310800474675648</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.005669906565937705</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.002111165378441853</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.01297023978930799</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.01126691146453521</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.009436748167582387</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.0001632168450402787</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>1.858863193225754E-05</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>4.80564416024542E-05</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0003873794083721246</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.001877454503092205</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>2.448421367939176E-05</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0002845299469462062</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.01708262069592004</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.01512665655987947</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.007663903073778499</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.002034418287197938</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.004959954977013644</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0005574799162930322</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>4.649631067805807E-06</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.006207378770422717</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.01194507151970106</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.02211006222797372</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.03632996487451714</v>
+        <v>0.05852379879023215</v>
       </c>
       <c r="CQ5">
-        <v>0.02451037423282474</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.0064735830485635</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.001049088468299092</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.009236391638353377</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.02204574775906597</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.03239364187330419</v>
+        <v>0.0219744114049637</v>
       </c>
       <c r="CW5">
-        <v>0.03618898840760154</v>
+        <v>0.05721480979214512</v>
       </c>
       <c r="CX5">
-        <v>0.01669622432415416</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.006918098200665068</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.005174599661673288</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.0003582172055531888</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.001576477724969649</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.0088581902457681</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.02146842018533536</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.0239708711030693</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.02271168141785598</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.01165105737048164</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0004346628465001506</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>6.227484911078529E-06</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.000905750513918413</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.003889319689517475</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.002880935510119233</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.005819151392436297</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.003250033227872521</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.009353043452919806</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.01884369829616464</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.006338786152559949</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.001171573874690735</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.001183641296879698</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.01088920161052527</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.009970014463683395</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.007531807938074558</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.004865218575009431</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.001408307562114148</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.003927942207937163</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.001223567944224205</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>3.470091704886076E-05</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.0005545640213676294</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.002694580121841127</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.00328992894132298</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.0004895869264252392</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.001354771002485213</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.002267608291833236</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.001519817442699957</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.001413624688051351</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.0002094309815420918</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.0006585346412389099</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.000807123218690072</v>
+        <v>0</v>
       </c>
       <c r="EM5">
         <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0003988001519999708</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.0009847686935778089</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>2.022661866270854E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.003245484543911745</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.007353104734240712</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.007005564336690378</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.006853611142652669</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.001591191346580562</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.0003080865577577102</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>7.191701846740855E-05</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.0005850595851407122</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.004619274095386288</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.008978055581366745</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.007375793394044448</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.006499831809144425</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.004083614777268018</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.001673240947747018</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>1.678650735713349E-05</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.001065130545489368</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.005029704100634034</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.008178786828258943</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.01024214063039551</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.00460131952268824</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.001183641296879698</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.0008842810499789436</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>6.38211929287466E-05</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0007683661828806337</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.0003298439271531471</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.003257056122808727</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.007781053034159764</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.005959244891890709</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.004004030877753387</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.001214878022738825</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0004218480554243963</v>
+        <v>0</v>
       </c>
       <c r="FV5">
         <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.0002589544540599222</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.0005751883192646564</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0004905501818573888</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0009471324057640059</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.00223751261621477</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.001703713836675434</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.003987314261475415</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.002050293881974613</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.0001120878994169458</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0001519474372300152</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>5.97738132435121E-05</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.001053681500852306</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.002625774131605302</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.003748585888489168</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.002444940093030934</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.004056128961254223</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.002008571366910574</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.001295683560794147</v>
+        <v>0</v>
       </c>
       <c r="GO5">
         <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0004138298699554084</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.004172074301742009</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.005402995112950455</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.006412666702955374</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5089,31 +5089,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.906474883736207E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>5.345004558579961E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>6.901901334264567E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>8.806964290893421E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>5.298690504971987E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>5.23720932745674E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.906474883736207E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.019509891540508E-06</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -5122,19 +5122,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4.001349941037446E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.451794692606334E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.265338438213898E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>3.12836333305699E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -5143,79 +5143,79 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>2.364149097496438E-06</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1.360668854999751E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>7.993861741207536E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>6.576521094791771E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>5.054627531526694E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>9.595531139118816E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>4.654027944596095E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1.388366544030587E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>4.698951905537332E-07</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>1.65827067810621E-06</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>7.467158344062916E-06</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>7.44423428473085E-05</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>2.265338438213898E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>5.066713094725169E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>6.760615877235521E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>6.019509891540508E-06</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>3.12836333305699E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>1.008040235214541E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.093288501817304E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>8.59479903140056E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>9.329745301049446E-06</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.062999378105391E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -5224,466 +5224,466 @@
         <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.03161839098753962</v>
+        <v>0.01465122483063729</v>
       </c>
       <c r="AW6">
-        <v>0.0002523627911870925</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.04071825668732738</v>
+        <v>0.09907481412934663</v>
       </c>
       <c r="AY6">
-        <v>0.0010725207697744</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.001364462164387413</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.007406200417899718</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.004773595270467413</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0005165340524990882</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.1040992809313716</v>
+        <v>0.6870893779306044</v>
       </c>
       <c r="BE6">
-        <v>0.0003542111820444197</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.001849701858638952</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.007168691182011537</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.004295898774501762</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0003656224416281134</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.003007977468060587</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.001544387670410801</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.03687110637352314</v>
+        <v>0.06338305242888718</v>
       </c>
       <c r="BM6">
-        <v>0.01207998302256668</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.001398231430438027</v>
+        <v>0</v>
       </c>
       <c r="BO6">
         <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.01330202511423567</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.001035804855820093</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.003195986524696187</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.00986633531888414</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.007747499166479431</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.000107474140650224</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.01710302713589627</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.008969464136500363</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.01258710192805608</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.00132017050080226</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0007900926810021902</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>7.953225643740295E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>4.290961360457271E-06</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.002180744129132946</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>3.482605297656361E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>7.664139052159195E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.01093283456458993</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.02124048536774447</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.01056315845489663</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.005754941499813692</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.009117857705530674</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.001636506975065539</v>
+        <v>0</v>
       </c>
       <c r="CL6">
         <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.005941516494427364</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.01239774023783995</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.0222682975903612</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.03447864662013079</v>
+        <v>0.04118711610437657</v>
       </c>
       <c r="CQ6">
-        <v>0.030541991125067</v>
+        <v>0.004664974164026362</v>
       </c>
       <c r="CR6">
-        <v>0.007909285360405808</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.003415672747402375</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.004497170551127543</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.02400330030196497</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.02635299760387935</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.03973464919116528</v>
+        <v>0.08994944041212158</v>
       </c>
       <c r="CX6">
-        <v>0.0194374293119992</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.008741780499048626</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.005451073192249636</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.0006843404724465941</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.001384821378052659</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.00804479110078188</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.01877257760621573</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.02736592534842104</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.02320681696664549</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.01493998826019663</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.001826009387249883</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.0001073047134036609</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>6.864391568125194E-06</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.006521938825289265</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.002243100186642713</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.006556996924284294</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.004253367187178048</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.005568102889384842</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.0212490989544106</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.007457160800408177</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.001364462164387413</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>6.238268551152336E-05</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.008686235885590064</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.01186399934007313</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.008245733557954656</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.006205665650872183</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.0007817678498053433</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.001944251496787338</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.001367236139925845</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.0001172474365871668</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.0003438630594028925</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.00171080717269968</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.003372252358124298</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.0001312977388725879</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0007609829647060154</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.001269837507908645</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.001258597478415235</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.001006236916744877</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0001830615486694319</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.000785092534005695</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.001704117921389553</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>7.639305881484771E-06</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.0006921364694853341</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.001660554907141564</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.001186747145081717</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.001059482203353505</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.005946074684301498</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.007679662163584423</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.006325777309348126</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.003014470509879099</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.0003053627908917046</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>5.083716815594033E-06</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.0001966411484909442</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.001774254751924418</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.006694945517902075</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.007122383838988526</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.005205083279340743</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.005524071336085409</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.002560026491276653</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.0001465831593753431</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.0003452687166204175</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.003650024202355557</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.006349309427804027</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.01099224327309012</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.005738208806450855</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.002025131272738589</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.001199580087160454</v>
+        <v>0</v>
       </c>
       <c r="FM6">
         <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.001443645264081405</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.0001414800900339859</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.001893418515235149</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.007326712837932877</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.004528951781344018</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.003189301379863424</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.002268400894788736</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0002491933318311035</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.0001300906949383064</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0003226843130453565</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.000681647925349552</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.0006013671943035352</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0004625105984457645</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.002266333734146849</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.0008928022903049522</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.003865121086054433</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.001741810375692636</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>6.760615877235521E-05</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>5.311023959182072E-05</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>5.345004558579961E-05</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.001068639647875416</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.002003167327845846</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.003908384527770813</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.001820278647851324</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.003299367092337047</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.003365385626865655</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.001233488873283463</v>
+        <v>0</v>
       </c>
       <c r="GO6">
         <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0001709479312195028</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.004062453548992243</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.004662306729161152</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.006730142135389655</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.346972907940767E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.109236009090783E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.373475328513801E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.468508996849536E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3.34277236321851E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>5.103957099065536E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>8.498070138247147E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>9.591476072098114E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0001153525851637267</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0001291820057031401</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0001398536326876334</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0001484602320672462</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0001689643535165847</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001739730226532506</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001739730226532506</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0001764839043599466</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001764839043599466</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0001766805123377497</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0001766805123377497</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0001817319647993644</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0001824435996445448</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0001824789762254911</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0001895191892735603</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0001926846017100444</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0002103755888893375</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0002221805472697663</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0002294863162831884</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0002322312065307757</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0002442463414026373</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0002442463414026373</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0002442463414026373</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0002673482094448434</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0002830124173825628</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.000288813532764813</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0002967834314501633</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0002973449894760755</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0002976453498919821</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0003022994798916203</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0003022994798916203</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0003042767035768589</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0003080840418938495</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.000317466840939961</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0003227010071141381</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0003347816798219997</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0003514825137087308</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0003529171240533127</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.05720908736946871</v>
+        <v>0.3331480128603397</v>
       </c>
       <c r="AW2">
-        <v>0.05806926851997431</v>
+        <v>0.3331480128603397</v>
       </c>
       <c r="AX2">
-        <v>0.1321298759923233</v>
+        <v>0.8797223239453467</v>
       </c>
       <c r="AY2">
-        <v>0.1330708354220523</v>
+        <v>0.8797223239453467</v>
       </c>
       <c r="AZ2">
-        <v>0.136187783211695</v>
+        <v>0.8797223239453467</v>
       </c>
       <c r="BA2">
-        <v>0.1496395593711384</v>
+        <v>0.8797223239453467</v>
       </c>
       <c r="BB2">
-        <v>0.1497954458380929</v>
+        <v>0.8797223239453467</v>
       </c>
       <c r="BC2">
-        <v>0.1756504020907007</v>
+        <v>0.8797223239453467</v>
       </c>
       <c r="BD2">
-        <v>0.1974901012253571</v>
+        <v>0.8797223239453467</v>
       </c>
       <c r="BE2">
-        <v>0.1977912387295718</v>
+        <v>0.8797223239453467</v>
       </c>
       <c r="BF2">
-        <v>0.2331080252352426</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BG2">
-        <v>0.2331723592789453</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BH2">
-        <v>0.2385495113302542</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BI2">
-        <v>0.2401046001497245</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BJ2">
-        <v>0.24071319737289</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BK2">
-        <v>0.2423519131731214</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BL2">
-        <v>0.2578407709413513</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BM2">
-        <v>0.2757461198418635</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BN2">
-        <v>0.2774202861056748</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BO2">
-        <v>0.2789680973657472</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BP2">
-        <v>0.2819823264941339</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BQ2">
-        <v>0.2831220353079931</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BR2">
-        <v>0.2877277565627827</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BS2">
-        <v>0.300012150112585</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BT2">
-        <v>0.3035255698338883</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BU2">
-        <v>0.3050045866418833</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BV2">
-        <v>0.3215410707512177</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BW2">
-        <v>0.3323725325133972</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BX2">
-        <v>0.3412691223099031</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BY2">
-        <v>0.3435365077181408</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="BZ2">
-        <v>0.3440118231506722</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="CA2">
-        <v>0.3440312270869071</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="CB2">
-        <v>0.3444405195661472</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="CC2">
-        <v>0.3456352342406097</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="CD2">
-        <v>0.3456907743078639</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="CE2">
-        <v>0.3457112784293133</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="CF2">
-        <v>0.363014311861174</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="CG2">
-        <v>0.3872130400799625</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="CH2">
-        <v>0.3966741989997069</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="CI2">
-        <v>0.4007971046452421</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="CJ2">
-        <v>0.4079452273202017</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="CK2">
-        <v>0.4082105214468318</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="CL2">
-        <v>0.4096612516465922</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="CM2">
-        <v>0.4121816686737708</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="CN2">
-        <v>0.4245413919085892</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="CO2">
-        <v>0.4517156681864244</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="CP2">
-        <v>0.486096316324816</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CQ2">
-        <v>0.5105738514812689</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CR2">
-        <v>0.5171016484456282</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CS2">
-        <v>0.5171107879240016</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CT2">
-        <v>0.5320398067375929</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CU2">
-        <v>0.5559642271790829</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CV2">
-        <v>0.5819861963846225</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CW2">
-        <v>0.6049768595437036</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CX2">
-        <v>0.6209823897279639</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CY2">
-        <v>0.6280282305572371</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CZ2">
-        <v>0.6324110184658945</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DA2">
-        <v>0.6329258505069376</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB2">
-        <v>0.6364013712773884</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DC2">
-        <v>0.6505592506048437</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD2">
-        <v>0.6726649912221585</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE2">
-        <v>0.7024897219715563</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF2">
-        <v>0.725865015840235</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG2">
-        <v>0.7354542263241896</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH2">
-        <v>0.7356279767378783</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI2">
-        <v>0.736153646865229</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ2">
-        <v>0.737178163473231</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK2">
-        <v>0.7442373034765337</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL2">
-        <v>0.7461309885647714</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM2">
-        <v>0.7523600856824129</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN2">
-        <v>0.7576543353787889</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO2">
-        <v>0.7663732958439577</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP2">
-        <v>0.7880234082210722</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ2">
-        <v>0.7927771838530429</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR2">
-        <v>0.792790330224236</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS2">
-        <v>0.7942754439495466</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT2">
-        <v>0.8053444301779374</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU2">
-        <v>0.8195714859710863</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV2">
-        <v>0.8235878268182756</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW2">
-        <v>0.8273119394494187</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX2">
-        <v>0.8288795440149945</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY2">
-        <v>0.8295930606778595</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ2">
-        <v>0.831427160642273</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA2">
-        <v>0.8314469507632728</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB2">
-        <v>0.8330200886260748</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC2">
-        <v>0.8350863838667483</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED2">
-        <v>0.8385608000978294</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE2">
-        <v>0.8394696498830572</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF2">
-        <v>0.8398512743761125</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG2">
-        <v>0.841059979749253</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH2">
-        <v>0.8427547287467055</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI2">
-        <v>0.8439072071157169</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ2">
-        <v>0.8444001154753225</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK2">
-        <v>0.8446264090118337</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL2">
-        <v>0.8461648882392795</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM2">
-        <v>0.8462144879777994</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN2">
-        <v>0.8469559774377138</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO2">
-        <v>0.8476137189725562</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP2">
-        <v>0.8479274892970493</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ2">
-        <v>0.8512750581068401</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER2">
-        <v>0.860983529841687</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES2">
-        <v>0.8684308659816717</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET2">
-        <v>0.873136918412619</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU2">
-        <v>0.8762269722436661</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV2">
-        <v>0.8762534636455233</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW2">
-        <v>0.8763380451909184</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX2">
-        <v>0.8764542946000681</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY2">
-        <v>0.8800211089245438</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ2">
-        <v>0.889665424372634</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA2">
-        <v>0.8951671591645119</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB2">
-        <v>0.8997335571176801</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC2">
-        <v>0.9048111347910996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD2">
-        <v>0.9056482472493556</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE2">
-        <v>0.9056482472493556</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF2">
-        <v>0.9059852106305311</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG2">
-        <v>0.9115432964309581</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH2">
-        <v>0.9210680006156802</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI2">
-        <v>0.9283072573389792</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ2">
-        <v>0.9315382691942683</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK2">
-        <v>0.933482492983884</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL2">
-        <v>0.933901455487798</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM2">
-        <v>0.9340823403457835</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN2">
-        <v>0.9349194528040394</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO2">
-        <v>0.9353198692469064</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP2">
-        <v>0.9381112847334276</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ2">
-        <v>0.9455638380593713</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR2">
-        <v>0.9498874168576068</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS2">
-        <v>0.9527603010479605</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT2">
-        <v>0.9542385972302699</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU2">
-        <v>0.9547744296198396</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV2">
-        <v>0.9551512779626561</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW2">
-        <v>0.9552694461951995</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX2">
-        <v>0.9556981915978106</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY2">
-        <v>0.9564758428066574</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ2">
-        <v>0.9570674396838705</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA2">
-        <v>0.9595194217717861</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB2">
-        <v>0.9621132469154893</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC2">
-        <v>0.9647910860537482</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD2">
-        <v>0.9663420141249147</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE2">
-        <v>0.9663571274012153</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF2">
-        <v>0.9664960273827115</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG2">
-        <v>0.9668807525162846</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH2">
-        <v>0.9682888614968741</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI2">
-        <v>0.9708495759603957</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ2">
-        <v>0.9738816410245181</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK2">
-        <v>0.9755096892445193</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL2">
-        <v>0.9803604040317441</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM2">
-        <v>0.9822817563061381</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN2">
-        <v>0.9830096514415028</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO2">
-        <v>0.9830096514415028</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP2">
-        <v>0.9839310457738625</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ2">
-        <v>0.9895621766778752</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR2">
-        <v>0.995149817931763</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.684549551014077E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.599129006062808E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>6.599129006062808E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6.969881354973308E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7.175904952864935E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>7.175904952864935E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>7.175904952864935E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>7.175904952864935E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.681289502234516E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.681289502234516E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>7.681289502234516E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>7.681289502234516E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>9.306921887959789E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.306921887959789E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.000118043001189311</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.000119931796616372</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.000119931796616372</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0001758407587554658</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0002059145077303718</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0002233393974232545</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0002233393974232545</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0002233393974232545</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0002401848929333953</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0002665523320947237</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0002665523320947237</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0002720082940656252</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0002833132662013837</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0002833132662013837</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0002833132662013837</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0002972347285862186</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0003378568794070097</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0004719501183451362</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0006351010716594339</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0006714720699493538</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0006840572550586023</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0006840572550586023</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0006840572550586023</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0007006115214935413</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0007391631558780928</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0008133112378474336</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0008615429710672442</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0009515755142195014</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.001053288535710859</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.001082637720896368</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.00108307121626617</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.001084419290868271</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0277424633433336</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.03786122397292791</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.1322728379741629</v>
+        <v>0.781925944191362</v>
       </c>
       <c r="AY3">
-        <v>0.1429464284943086</v>
+        <v>0.781925944191362</v>
       </c>
       <c r="AZ3">
-        <v>0.1432004360984797</v>
+        <v>0.781925944191362</v>
       </c>
       <c r="BA3">
-        <v>0.1502235964282702</v>
+        <v>0.781925944191362</v>
       </c>
       <c r="BB3">
-        <v>0.1506637154540334</v>
+        <v>0.781925944191362</v>
       </c>
       <c r="BC3">
-        <v>0.1632942789358275</v>
+        <v>0.781925944191362</v>
       </c>
       <c r="BD3">
-        <v>0.1934749849263904</v>
+        <v>0.7838299937447666</v>
       </c>
       <c r="BE3">
-        <v>0.1934757676513128</v>
+        <v>0.7838299937447666</v>
       </c>
       <c r="BF3">
-        <v>0.23146645013623</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BG3">
-        <v>0.2336915712381221</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BH3">
-        <v>0.2414098428305306</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BI3">
-        <v>0.2414288740740867</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BJ3">
-        <v>0.2419966099854986</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BK3">
-        <v>0.2420255942492328</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BL3">
-        <v>0.2555103881113518</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BM3">
-        <v>0.2733886783740782</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BN3">
-        <v>0.2798209188577364</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BO3">
-        <v>0.2803782236959432</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BP3">
-        <v>0.2839460668155935</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BQ3">
-        <v>0.2875674658077553</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BR3">
-        <v>0.2878135147434136</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BS3">
-        <v>0.2988505357707673</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BT3">
-        <v>0.3046258970221336</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BU3">
-        <v>0.3049394273381065</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BV3">
-        <v>0.3176986584432603</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BW3">
-        <v>0.3316060185896164</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BX3">
-        <v>0.3440158732999277</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BY3">
-        <v>0.3464372827204301</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="BZ3">
-        <v>0.3466036810390389</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="CA3">
-        <v>0.3468386676600919</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="CB3">
-        <v>0.3468386676600919</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="CC3">
-        <v>0.347446796694996</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="CD3">
-        <v>0.3478063849312027</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="CE3">
-        <v>0.3478357231437605</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="CF3">
-        <v>0.3576561277952621</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="CG3">
-        <v>0.3867861040825177</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="CH3">
-        <v>0.3973932977928292</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="CI3">
-        <v>0.3984161345003697</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="CJ3">
-        <v>0.399861249813511</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="CK3">
-        <v>0.4006555018211954</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="CL3">
-        <v>0.402400836417167</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="CM3">
-        <v>0.4039292612212264</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="CN3">
-        <v>0.4096698108551694</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="CO3">
-        <v>0.4342090857353326</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="CP3">
-        <v>0.468188327866955</v>
+        <v>0.9286121861696954</v>
       </c>
       <c r="CQ3">
-        <v>0.5010480206387438</v>
+        <v>0.9630499240909277</v>
       </c>
       <c r="CR3">
-        <v>0.5141638521356734</v>
+        <v>0.9630499240909277</v>
       </c>
       <c r="CS3">
-        <v>0.514992455114614</v>
+        <v>0.9630499240909277</v>
       </c>
       <c r="CT3">
-        <v>0.5276465734108507</v>
+        <v>0.9630499240909277</v>
       </c>
       <c r="CU3">
-        <v>0.5554733394501893</v>
+        <v>0.9630499240909277</v>
       </c>
       <c r="CV3">
-        <v>0.5877377226240721</v>
+        <v>0.9902582060565066</v>
       </c>
       <c r="CW3">
-        <v>0.6144605153900781</v>
+        <v>0.9902582060565066</v>
       </c>
       <c r="CX3">
-        <v>0.630690786433906</v>
+        <v>0.9902582060565066</v>
       </c>
       <c r="CY3">
-        <v>0.6373244449046079</v>
+        <v>0.9902582060565066</v>
       </c>
       <c r="CZ3">
-        <v>0.6403764475976592</v>
+        <v>0.9902582060565066</v>
       </c>
       <c r="DA3">
-        <v>0.6431833511955374</v>
+        <v>0.9902582060565066</v>
       </c>
       <c r="DB3">
-        <v>0.6436991126361331</v>
+        <v>0.9902582060565066</v>
       </c>
       <c r="DC3">
-        <v>0.6535894179912287</v>
+        <v>0.9902582060565066</v>
       </c>
       <c r="DD3">
-        <v>0.6722673827932308</v>
+        <v>0.9902582060565066</v>
       </c>
       <c r="DE3">
-        <v>0.7030934878968079</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DF3">
-        <v>0.7293799710672433</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DG3">
-        <v>0.7434617211221075</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DH3">
-        <v>0.7445548817431497</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DI3">
-        <v>0.7454192801323839</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DJ3">
-        <v>0.7455175869257112</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DK3">
-        <v>0.7523918760636092</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DL3">
-        <v>0.753658641632872</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DM3">
-        <v>0.7600410123142288</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DN3">
-        <v>0.7660764976134586</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DO3">
-        <v>0.7726527731048354</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DP3">
-        <v>0.7935827221069705</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DQ3">
-        <v>0.8018014223986701</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DR3">
-        <v>0.8028409658878669</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DS3">
-        <v>0.8033108772094986</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DT3">
-        <v>0.8093300941517162</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DU3">
-        <v>0.8227833464636948</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DV3">
-        <v>0.8282656583768107</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DW3">
-        <v>0.8308439350339195</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DX3">
-        <v>0.8331751873311053</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DY3">
-        <v>0.8339565265819049</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DZ3">
-        <v>0.836466675252417</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EA3">
-        <v>0.8366469382699314</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EB3">
-        <v>0.8370514412991754</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EC3">
-        <v>0.8393012268903057</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ED3">
-        <v>0.8421279801138988</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EE3">
-        <v>0.8429187144144442</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EF3">
-        <v>0.8430990029066325</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EG3">
-        <v>0.8432423304496233</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EH3">
-        <v>0.8442106660691466</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EI3">
-        <v>0.8453336712967235</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EJ3">
-        <v>0.8457659403192237</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EK3">
-        <v>0.8457842619955155</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EL3">
-        <v>0.8474193488089982</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EM3">
-        <v>0.8474478386938928</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EN3">
-        <v>0.8482879235938562</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EO3">
-        <v>0.8491443823530178</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EP3">
-        <v>0.849910133155343</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EQ3">
-        <v>0.8510590208518546</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ER3">
-        <v>0.8582096406348096</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ES3">
-        <v>0.8669268457624076</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ET3">
-        <v>0.8716187116747161</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EU3">
-        <v>0.8743078863441057</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EV3">
-        <v>0.8747060735360309</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EW3">
-        <v>0.8748298533056713</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EX3">
-        <v>0.8749416665048729</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EY3">
-        <v>0.8763034261824018</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EZ3">
-        <v>0.8851883367441391</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA3">
-        <v>0.8925407049341723</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB3">
-        <v>0.8977034789530663</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC3">
-        <v>0.9042025143321317</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD3">
-        <v>0.9064552582886405</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE3">
-        <v>0.9064809301460836</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF3">
-        <v>0.9068094564466893</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG3">
-        <v>0.9107972017702334</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH3">
-        <v>0.9207433412044387</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI3">
-        <v>0.9303751662036985</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ3">
-        <v>0.933711135938177</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK3">
-        <v>0.9363906215230281</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL3">
-        <v>0.9370469587208226</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM3">
-        <v>0.9370469587208226</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN3">
-        <v>0.9372523562127879</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO3">
-        <v>0.9376568592420319</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP3">
-        <v>0.9391385677982222</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ3">
-        <v>0.946377417337708</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR3">
-        <v>0.9522065651850572</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS3">
-        <v>0.9561226073592157</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT3">
-        <v>0.9583390015084595</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU3">
-        <v>0.9585106049686026</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV3">
-        <v>0.9590001715677097</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW3">
-        <v>0.9590702882549986</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX3">
-        <v>0.9592708668094947</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY3">
-        <v>0.9596472600925342</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ3">
-        <v>0.9601063742363635</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA3">
-        <v>0.9620351977538573</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB3">
-        <v>0.964438235580219</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC3">
-        <v>0.9673125901089193</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD3">
-        <v>0.9690605313295846</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE3">
-        <v>0.9693461649056642</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF3">
-        <v>0.9693461649056642</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG3">
-        <v>0.9694839793388325</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH3">
-        <v>0.9700472521674446</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI3">
-        <v>0.9728376677956007</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ3">
-        <v>0.9764217717649919</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK3">
-        <v>0.9780135062888283</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL3">
-        <v>0.9820698720759667</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM3">
-        <v>0.9851610239877037</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN3">
-        <v>0.9858476471495178</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO3">
-        <v>0.9859506517269691</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP3">
-        <v>0.9865634162916996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ3">
-        <v>0.9899729817086108</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR3">
-        <v>0.9951849848092247</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS3">
         <v>0.9999999999999998</v>
@@ -8200,592 +8200,592 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.423213753050784E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3.622694948565868E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.622694948565868E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.622694948565868E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>6.243758281745753E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0002023584441909731</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0002389764783979942</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0002791002794359514</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0003417669745568305</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0003417669745568305</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0003417669745568305</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0003417669745568305</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0003705418928764563</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0006244602220925478</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.000984826710922647</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001175913992214954</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.00125481988404133</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.00125481988404133</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.00125481988404133</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.00125481988404133</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.00125481988404133</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.00125481988404133</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001257071847487775</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.001299794529778069</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.001360934992218282</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.001392978873665751</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.001407201509458136</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.001407201509458136</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.001407201509458136</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.001407201509458136</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.001418941837714077</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.001418941837714077</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.001418941837714077</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.001418941837714077</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.001418941837714077</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.001418941837714077</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.001419549401158869</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.001419549401158869</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.001419549401158869</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.001419549401158869</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.001450809248946336</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.001487841603438777</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.001487841603438777</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.07519723601605953</v>
+        <v>0.5137312904721306</v>
       </c>
       <c r="AW4">
-        <v>0.1242412057053534</v>
+        <v>0.7371932097957382</v>
       </c>
       <c r="AX4">
-        <v>0.1441156112977518</v>
+        <v>0.7371932097957382</v>
       </c>
       <c r="AY4">
-        <v>0.1441353837364432</v>
+        <v>0.7371932097957382</v>
       </c>
       <c r="AZ4">
-        <v>0.1518339137671992</v>
+        <v>0.7371932097957382</v>
       </c>
       <c r="BA4">
-        <v>0.1528618048163145</v>
+        <v>0.7371932097957382</v>
       </c>
       <c r="BB4">
-        <v>0.1555447297232501</v>
+        <v>0.7371932097957382</v>
       </c>
       <c r="BC4">
-        <v>0.1894050696362106</v>
+        <v>0.7819700784313642</v>
       </c>
       <c r="BD4">
-        <v>0.2224171977037177</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BE4">
-        <v>0.222883193589938</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BF4">
-        <v>0.2398735939155232</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BG4">
-        <v>0.239875395531182</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BH4">
-        <v>0.2419745700638323</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BI4">
-        <v>0.2426224115556014</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BJ4">
-        <v>0.2426224115556014</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BK4">
-        <v>0.2535029049011089</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BL4">
-        <v>0.2791738235061345</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BM4">
-        <v>0.2868413223373567</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BN4">
-        <v>0.2877612374807536</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BO4">
-        <v>0.2898672993942041</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BP4">
-        <v>0.2956603601259977</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BQ4">
-        <v>0.2956603601259977</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BR4">
-        <v>0.3006651576295568</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BS4">
-        <v>0.3099003058352974</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BT4">
-        <v>0.3116594786077015</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BU4">
-        <v>0.3204238127263707</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BV4">
-        <v>0.3291550379452821</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BW4">
-        <v>0.3425438576877322</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BX4">
-        <v>0.3483129851771631</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BY4">
-        <v>0.3484446771028383</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="BZ4">
-        <v>0.3485548172234963</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="CA4">
-        <v>0.3485548172234963</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="CB4">
-        <v>0.3494853362953579</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="CC4">
-        <v>0.3508271472016041</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="CD4">
-        <v>0.3510108373388974</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="CE4">
-        <v>0.3517724773384168</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="CF4">
-        <v>0.3739287039217228</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="CG4">
-        <v>0.3872638442292504</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="CH4">
-        <v>0.3919495402536874</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="CI4">
-        <v>0.3948797006627853</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="CJ4">
-        <v>0.3981766994425618</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="CK4">
-        <v>0.3982869222803445</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="CL4">
-        <v>0.3988394873655108</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="CM4">
-        <v>0.4049021436829912</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="CN4">
-        <v>0.4167993139798092</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="CO4">
-        <v>0.4418897002905683</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="CP4">
-        <v>0.4801831959963156</v>
+        <v>0.9137124030416784</v>
       </c>
       <c r="CQ4">
-        <v>0.4974256535318476</v>
+        <v>0.9137124030416784</v>
       </c>
       <c r="CR4">
-        <v>0.5026978797190751</v>
+        <v>0.9137124030416784</v>
       </c>
       <c r="CS4">
-        <v>0.5027585149084743</v>
+        <v>0.9137124030416784</v>
       </c>
       <c r="CT4">
-        <v>0.5236743905397085</v>
+        <v>0.9137124030416784</v>
       </c>
       <c r="CU4">
-        <v>0.5465176282963894</v>
+        <v>0.9137124030416784</v>
       </c>
       <c r="CV4">
-        <v>0.5819783957353993</v>
+        <v>0.9773235344871318</v>
       </c>
       <c r="CW4">
-        <v>0.6139607702694339</v>
+        <v>1</v>
       </c>
       <c r="CX4">
-        <v>0.6267854908931465</v>
+        <v>1</v>
       </c>
       <c r="CY4">
-        <v>0.6335301179814806</v>
+        <v>1</v>
       </c>
       <c r="CZ4">
-        <v>0.6377485055493688</v>
+        <v>1</v>
       </c>
       <c r="DA4">
-        <v>0.6377903549911933</v>
+        <v>1</v>
       </c>
       <c r="DB4">
-        <v>0.6412912112422964</v>
+        <v>1</v>
       </c>
       <c r="DC4">
-        <v>0.6531476684369452</v>
+        <v>1</v>
       </c>
       <c r="DD4">
-        <v>0.6780019716748387</v>
+        <v>1</v>
       </c>
       <c r="DE4">
-        <v>0.7021363963860316</v>
+        <v>1</v>
       </c>
       <c r="DF4">
-        <v>0.7236553493133836</v>
+        <v>1</v>
       </c>
       <c r="DG4">
-        <v>0.7317393052640238</v>
+        <v>1</v>
       </c>
       <c r="DH4">
-        <v>0.7317407825158988</v>
+        <v>1</v>
       </c>
       <c r="DI4">
-        <v>0.7318872317759746</v>
+        <v>1</v>
       </c>
       <c r="DJ4">
-        <v>0.7338018781645723</v>
+        <v>1</v>
       </c>
       <c r="DK4">
-        <v>0.7361433365977513</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.7391756450887229</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.7457980556959629</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.7486278107656616</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.7625690832802006</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.7789837170927855</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.7823580407988897</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.7828084227929837</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.7864790217401395</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.7979911695296833</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.8065359599913554</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.8143603196770152</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.8167831539004849</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.8184756487324315</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.823852680012287</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.8242036190440947</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.8242514214328204</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.825299056346987</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.8307810194060639</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.8326956657946616</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.8334125855569734</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.8356811975952673</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.8373208584048042</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.8388513496482953</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.8407928335493661</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.8407955428103221</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.8417412100106481</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.8424002088428238</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.8424601730342752</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.8430017571981344</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.8438725283768599</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.8439089564092401</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.8480708036702719</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.8569552184383047</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.8648231326540812</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.8696946633782929</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.8702881199992855</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.8702881199992855</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.8707703207745997</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8712351909141285</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8764822739218442</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8840913285391452</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8899179495919126</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8951907183064586</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8986109445544087</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8992958456833899</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8993416224166285</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.9012079350634608</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.906781496939608</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.9168819256038332</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.9247115045967367</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.9272580702284055</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.9288624699694963</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9294234755790219</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9297851258420372</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9302113079605846</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9306387258647563</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9347782298803551</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9415374038770589</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9467759388471961</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9508110036979779</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9512088442315028</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.951357531614715</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9513722261941499</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9517619931233708</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9521003045887909</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9524900715180119</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9537725189307201</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9558015027762921</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9586203929671979</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9633745231049494</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9643539410971371</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9644478916593826</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9645327168018817</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9649680017430556</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9659501325722892</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9696187997493478</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9738486999614195</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.977067032079562</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9829162001387153</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9843012971678808</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9849686638299648</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9849686638299648</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9862187839109976</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9897910563214722</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9951955349934853</v>
+        <v>1</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.45831488693472E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>9.895707456522313E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>9.895707456522313E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>9.895707456522313E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0001321058969950106</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0001992171097751897</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0002316012353320334</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0002329587665693884</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0002700445607111766</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0002700445607111766</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0002700445607111766</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0002700445607111766</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0002772995334333673</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0002974330030333079</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0002974330030333079</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0003215792453999277</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0003215792453999277</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0003500259737785903</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0003516680899336226</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.000355727491290918</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0003653868264559959</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0003653868264559959</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0004094545606600243</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.000416553224115259</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.000416553224115259</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.000416553224115259</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0004324697782708355</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0005089732220519531</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0005156325140910412</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0005156325140910412</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0005156325140910412</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0005248107260928793</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0005386824147037719</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0005386824147037719</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0005386824147037719</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0005491513129013266</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0005994899080432387</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0006065885714984735</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.000678505589965882</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0006892241236873108</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0006892241236873108</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0006892241236873108</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0006892241236873108</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0006917862504914906</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0007012755293270536</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0008463176904950302</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.07643401498417685</v>
+        <v>0.4230381106526279</v>
       </c>
       <c r="AW5">
-        <v>0.0912745290197205</v>
+        <v>0.4230381106526279</v>
       </c>
       <c r="AX5">
-        <v>0.1229233768274459</v>
+        <v>0.4380969902740719</v>
       </c>
       <c r="AY5">
-        <v>0.1235004892949862</v>
+        <v>0.4380969902740719</v>
       </c>
       <c r="AZ5">
-        <v>0.1315663253638987</v>
+        <v>0.4380969902740719</v>
       </c>
       <c r="BA5">
-        <v>0.1344948213857335</v>
+        <v>0.4380969902740719</v>
       </c>
       <c r="BB5">
-        <v>0.1380194754136702</v>
+        <v>0.4380969902740719</v>
       </c>
       <c r="BC5">
-        <v>0.1427243468975083</v>
+        <v>0.4380969902740719</v>
       </c>
       <c r="BD5">
-        <v>0.2184361001183903</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BE5">
-        <v>0.2226533513201415</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BF5">
-        <v>0.2313233914111185</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BG5">
-        <v>0.2325686196884162</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BH5">
-        <v>0.2334743702023346</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BI5">
-        <v>0.2334803846217914</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BJ5">
-        <v>0.2339838073480044</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BK5">
-        <v>0.2368372701564791</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BL5">
-        <v>0.2666000844506514</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BM5">
-        <v>0.2848019494946707</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BN5">
-        <v>0.2860456480959132</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BO5">
-        <v>0.2864391496422685</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BP5">
-        <v>0.2947613766369011</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BQ5">
-        <v>0.2955418321359597</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BR5">
-        <v>0.3000805908111708</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BS5">
-        <v>0.3083913912858465</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BT5">
-        <v>0.3140612978517842</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BU5">
-        <v>0.316172463230226</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BV5">
-        <v>0.329142703019534</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BW5">
-        <v>0.3404096144840693</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BX5">
-        <v>0.3498463626516516</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BY5">
-        <v>0.3500095794966919</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="BZ5">
-        <v>0.3500281681286242</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="CA5">
-        <v>0.3500762245702266</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="CB5">
-        <v>0.3504636039785988</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="CC5">
-        <v>0.3523410584816909</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="CD5">
-        <v>0.3523655426953703</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="CE5">
-        <v>0.3526500726423166</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="CF5">
-        <v>0.3697326933382366</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="CG5">
-        <v>0.3848593498981161</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="CH5">
-        <v>0.3925232529718946</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="CI5">
-        <v>0.3945576712590925</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="CJ5">
-        <v>0.3995176262361061</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="CK5">
-        <v>0.4000751061523992</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="CL5">
-        <v>0.400079755783467</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="CM5">
-        <v>0.4062871345538897</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="CN5">
-        <v>0.4182322060735908</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="CO5">
-        <v>0.4403422683015645</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="CP5">
-        <v>0.4766722331760817</v>
+        <v>0.9208107788028912</v>
       </c>
       <c r="CQ5">
-        <v>0.5011826074089064</v>
+        <v>0.9208107788028912</v>
       </c>
       <c r="CR5">
-        <v>0.5076561904574699</v>
+        <v>0.9208107788028912</v>
       </c>
       <c r="CS5">
-        <v>0.508705278925769</v>
+        <v>0.9208107788028912</v>
       </c>
       <c r="CT5">
-        <v>0.5179416705641223</v>
+        <v>0.9208107788028912</v>
       </c>
       <c r="CU5">
-        <v>0.5399874183231883</v>
+        <v>0.9208107788028912</v>
       </c>
       <c r="CV5">
-        <v>0.5723810601964925</v>
+        <v>0.9427851902078549</v>
       </c>
       <c r="CW5">
-        <v>0.608570048604094</v>
+        <v>1</v>
       </c>
       <c r="CX5">
-        <v>0.6252662729282482</v>
+        <v>1</v>
       </c>
       <c r="CY5">
-        <v>0.6321843711289132</v>
+        <v>1</v>
       </c>
       <c r="CZ5">
-        <v>0.6373589707905866</v>
+        <v>1</v>
       </c>
       <c r="DA5">
-        <v>0.6377171879961397</v>
+        <v>1</v>
       </c>
       <c r="DB5">
-        <v>0.6392936657211093</v>
+        <v>1</v>
       </c>
       <c r="DC5">
-        <v>0.6481518559668774</v>
+        <v>1</v>
       </c>
       <c r="DD5">
-        <v>0.6696202761522128</v>
+        <v>1</v>
       </c>
       <c r="DE5">
-        <v>0.693591147255282</v>
+        <v>1</v>
       </c>
       <c r="DF5">
-        <v>0.716302828673138</v>
+        <v>1</v>
       </c>
       <c r="DG5">
-        <v>0.7279538860436197</v>
+        <v>1</v>
       </c>
       <c r="DH5">
-        <v>0.7283885488901198</v>
+        <v>1</v>
       </c>
       <c r="DI5">
-        <v>0.7283947763750309</v>
+        <v>1</v>
       </c>
       <c r="DJ5">
-        <v>0.7293005268889493</v>
+        <v>1</v>
       </c>
       <c r="DK5">
-        <v>0.7331898465784668</v>
+        <v>1</v>
       </c>
       <c r="DL5">
-        <v>0.736070782088586</v>
+        <v>1</v>
       </c>
       <c r="DM5">
-        <v>0.7418899334810223</v>
+        <v>1</v>
       </c>
       <c r="DN5">
-        <v>0.7451399667088948</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.7544930101618146</v>
+        <v>1</v>
       </c>
       <c r="DP5">
-        <v>0.7733367084579792</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.7796754946105391</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.7808470684852298</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.7820307097821094</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.7929199113926347</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.8028899258563181</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.8104217337943926</v>
+        <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.8152869523694021</v>
+        <v>1</v>
       </c>
       <c r="DX5">
-        <v>0.8166952599315163</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.8206232021394534</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.8218467700836776</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.8218814710007264</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.8224360350220941</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.8251306151439352</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.8284205440852581</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.8289101310116833</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.8302649020141686</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.8325325103060018</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.8340523277487017</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.8354659524367531</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.8356753834182953</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.8363339180595342</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.8371410412782242</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.8371410412782242</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.8375398414302242</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.838524610123802</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.8385448367424647</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.8417903212863764</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.8491434260206171</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.8561489903573075</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.8630026014999602</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.8645937928465408</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.8649018794042985</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.864973796422766</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.8655588560079066</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.8701781301032929</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.8791561856846597</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.8865319790787042</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.8930318108878486</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8971154256651166</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8987886666128636</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8988054531202208</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8998705836657102</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.9049002877663442</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.9130790745946031</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.9233212152249987</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.9279225347476869</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.9291061760445666</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.9299904570945455</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9300542782874742</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9308226444703549</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9311524883975081</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9344095445203168</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9421905975544765</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9481498424463672</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9521538733241206</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9533687513468594</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9537905994022838</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9537905994022838</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9540495538563437</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9546247421756083</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9551152923574657</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9560624247632298</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9582999373794445</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.96000365121612</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9639909654775953</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.96604125935957</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9661533472589869</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.966305294696217</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9663650685094605</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9674187500103127</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.970044524141918</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9737931100304071</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9762380501234381</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9802941790846923</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9823027504516029</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.983598434012397</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.983598434012397</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9840122638823524</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9881843381840945</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.993587333297045</v>
+        <v>1</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9740,598 +9740,598 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.906474883736207E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>7.251479442316167E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0001415338077658073</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0002296034506747415</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0002825903557244614</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0003349624489990288</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0003540271978363909</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0003540271978363909</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0003600467077279314</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0003600467077279314</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0003600467077279314</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0004000602071383059</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0004145781540643693</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0004145781540643693</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0004372315384465082</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0004685151717770782</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0004685151717770782</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0004685151717770782</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0004708793208745746</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0004844860094245721</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0005644246268366475</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0006301898377845652</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0006807361130998322</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0007766914244910203</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0008232317039369812</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.000837115369377287</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0008375852645678408</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0008375852645678408</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.000839243535245947</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0008467106935900099</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0009211530364373184</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0009438064208194573</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.000994473551766709</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001062079710539064</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.001068099220430605</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.001099382853761175</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.001099382853761175</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.00110946325611332</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.001120396141131493</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.001128990940162894</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.001128990940162894</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.001138320685463943</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.001158950679244997</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.001158950679244997</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.001158950679244997</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.03277734166678462</v>
+        <v>0.01465122483063729</v>
       </c>
       <c r="AW6">
-        <v>0.03302970445797171</v>
+        <v>0.01465122483063729</v>
       </c>
       <c r="AX6">
-        <v>0.07374796114529908</v>
+        <v>0.1137260389599839</v>
       </c>
       <c r="AY6">
-        <v>0.07482048191507348</v>
+        <v>0.1137260389599839</v>
       </c>
       <c r="AZ6">
-        <v>0.0761849440794609</v>
+        <v>0.1137260389599839</v>
       </c>
       <c r="BA6">
-        <v>0.08359114449736062</v>
+        <v>0.1137260389599839</v>
       </c>
       <c r="BB6">
-        <v>0.08836473976782803</v>
+        <v>0.1137260389599839</v>
       </c>
       <c r="BC6">
-        <v>0.08888127382032712</v>
+        <v>0.1137260389599839</v>
       </c>
       <c r="BD6">
-        <v>0.1929805547516987</v>
+        <v>0.8008154168905883</v>
       </c>
       <c r="BE6">
-        <v>0.1933347659337432</v>
+        <v>0.8008154168905883</v>
       </c>
       <c r="BF6">
-        <v>0.1951844677923821</v>
+        <v>0.8008154168905883</v>
       </c>
       <c r="BG6">
-        <v>0.2023531589743937</v>
+        <v>0.8008154168905883</v>
       </c>
       <c r="BH6">
-        <v>0.2066490577488954</v>
+        <v>0.8008154168905883</v>
       </c>
       <c r="BI6">
-        <v>0.2070146801905235</v>
+        <v>0.8008154168905883</v>
       </c>
       <c r="BJ6">
-        <v>0.2100226576585841</v>
+        <v>0.8008154168905883</v>
       </c>
       <c r="BK6">
-        <v>0.2115670453289949</v>
+        <v>0.8008154168905883</v>
       </c>
       <c r="BL6">
-        <v>0.248438151702518</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="BM6">
-        <v>0.2605181347250847</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="BN6">
-        <v>0.2619163661555228</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="BO6">
-        <v>0.2619163661555228</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="BP6">
-        <v>0.2752183912697584</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="BQ6">
-        <v>0.2762541961255786</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="BR6">
-        <v>0.2794501826502747</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="BS6">
-        <v>0.2893165179691589</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="BT6">
-        <v>0.2970640171356383</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="BU6">
-        <v>0.2971714912762885</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="BV6">
-        <v>0.3142745184121848</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="BW6">
-        <v>0.3232439825486851</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="BX6">
-        <v>0.3358310844767412</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="BY6">
-        <v>0.3371512549775434</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="BZ6">
-        <v>0.3379413476585456</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="CA6">
-        <v>0.338020879914983</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="CB6">
-        <v>0.3380251708763435</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="CC6">
-        <v>0.3402059150054764</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="CD6">
-        <v>0.340240741058453</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="CE6">
-        <v>0.3403173824489746</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="CF6">
-        <v>0.3512502170135645</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="CG6">
-        <v>0.372490702381309</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="CH6">
-        <v>0.3830538608362056</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="CI6">
-        <v>0.3888088023360193</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="CJ6">
-        <v>0.39792666004155</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="CK6">
-        <v>0.3995631670166156</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="CL6">
-        <v>0.3995631670166156</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="CM6">
-        <v>0.405504683511043</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="CN6">
-        <v>0.4179024237488829</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="CO6">
-        <v>0.4401707213392441</v>
+        <v>0.8641984693194755</v>
       </c>
       <c r="CP6">
-        <v>0.4746493679593749</v>
+        <v>0.9053855854238521</v>
       </c>
       <c r="CQ6">
-        <v>0.5051913590844419</v>
+        <v>0.9100505595878784</v>
       </c>
       <c r="CR6">
-        <v>0.5131006444448477</v>
+        <v>0.9100505595878784</v>
       </c>
       <c r="CS6">
-        <v>0.5165163171922501</v>
+        <v>0.9100505595878784</v>
       </c>
       <c r="CT6">
-        <v>0.5210134877433776</v>
+        <v>0.9100505595878784</v>
       </c>
       <c r="CU6">
-        <v>0.5450167880453426</v>
+        <v>0.9100505595878784</v>
       </c>
       <c r="CV6">
-        <v>0.5713697856492219</v>
+        <v>0.9100505595878784</v>
       </c>
       <c r="CW6">
-        <v>0.6111044348403872</v>
+        <v>1</v>
       </c>
       <c r="CX6">
-        <v>0.6305418641523864</v>
+        <v>1</v>
       </c>
       <c r="CY6">
-        <v>0.6392836446514351</v>
+        <v>1</v>
       </c>
       <c r="CZ6">
-        <v>0.6447347178436847</v>
+        <v>1</v>
       </c>
       <c r="DA6">
-        <v>0.6454190583161313</v>
+        <v>1</v>
       </c>
       <c r="DB6">
-        <v>0.646803879694184</v>
+        <v>1</v>
       </c>
       <c r="DC6">
-        <v>0.6548486707949659</v>
+        <v>1</v>
       </c>
       <c r="DD6">
-        <v>0.6736212484011816</v>
+        <v>1</v>
       </c>
       <c r="DE6">
-        <v>0.7009871737496027</v>
+        <v>1</v>
       </c>
       <c r="DF6">
-        <v>0.7241939907162482</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.7391339789764448</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.7409599883636947</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.7410672930770984</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.7410741574686666</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.7475960962939558</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.7498391964805986</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.7563961934048828</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.7606495605920609</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.7662176634814457</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.7874667624358563</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.7949239232362645</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.7962883854006519</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.7963507680861635</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.8050370039717535</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.8169010033118266</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.8251467368697812</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.8313524025206535</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.8321341703704588</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.8340784218672461</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.835445658007172</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.8355629054437591</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.835906768503162</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.8376175756758617</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.840989828033986</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.8411211257728586</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.8418821087375646</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.8431519462454733</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.8444105437238886</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.8454167806406334</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.8455998421893028</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.8463849347233086</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.8480890526446981</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.8480966919505796</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.8487888284200649</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.8504493833272064</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.8516361304722881</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.8526956126756416</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.8586416873599432</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.8663213495235276</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.8726471268328757</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.8756615973427548</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.8759669601336465</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.8759720438504621</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8761686849989531</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.8779429397508774</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.8846378852687795</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8917602691077681</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8969653523871088</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.9024894237231943</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.9050494502144709</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.9051960333738462</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.9055413020904667</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.9091913262928223</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.9155406357206263</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.9265328789937164</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.9322710878001672</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.9342962190729058</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9354957991600663</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9354957991600663</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9369394444241477</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9370809245141817</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9389743430294168</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9463010558673497</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9508300076486937</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9540193090285571</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9562877099233459</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.956536903255177</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9566669939501153</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9569896782631607</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9576713261885103</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9582726933828137</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9587352039812596</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9610015377154064</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9618943400057114</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9657594610917658</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9675012714674585</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9675688776262308</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9676219878658227</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9676754379114084</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9687440775592838</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9707472448871297</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9746556294149005</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9764759080627518</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9797752751550888</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9831406607819544</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9843741496552378</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9843741496552378</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9845450975864574</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9886075511354496</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9932698578646108</v>
+        <v>1</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="E2">
-        <v>0.05720908736946871</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5105738514812689</v>
+        <v>0.8797223239453467</v>
       </c>
       <c r="G2">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -10611,16 +10611,16 @@
         <v>47</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="E3">
-        <v>0.0277424633433336</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5010480206387438</v>
+        <v>0.781925944191362</v>
       </c>
       <c r="G3">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="E4">
-        <v>0.001487841603438777</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5026978797190751</v>
+        <v>0.5137312904721306</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>0.0008463176904950302</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5011826074089064</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>0.0761849440794609</v>
+        <v>0.01465122483063729</v>
       </c>
       <c r="F6">
-        <v>0.5051913590844419</v>
+        <v>0.8008154168905883</v>
       </c>
       <c r="G6">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>45</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="E2">
-        <v>0.05720908736946871</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7024897219715563</v>
+        <v>0.8797223239453467</v>
       </c>
       <c r="G2">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -10870,16 +10870,16 @@
         <v>47</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="E3">
-        <v>0.0277424633433336</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7030934878968079</v>
+        <v>0.781925944191362</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="E4">
-        <v>0.001487841603438777</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7021363963860316</v>
+        <v>0.7371932097957382</v>
       </c>
       <c r="G4">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>0.0008463176904950302</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.716302828673138</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="G5">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>0.0761849440794609</v>
+        <v>0.01465122483063729</v>
       </c>
       <c r="F6">
-        <v>0.7009871737496027</v>
+        <v>0.8008154168905883</v>
       </c>
       <c r="G6">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>45</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="E2">
-        <v>0.05720908736946871</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8053444301779374</v>
+        <v>0.8797223239453467</v>
       </c>
       <c r="G2">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -11129,16 +11129,16 @@
         <v>47</v>
       </c>
       <c r="D3">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="E3">
-        <v>0.0277424633433336</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8018014223986701</v>
+        <v>0.8805786103591247</v>
       </c>
       <c r="G3">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>0.001487841603438777</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8065359599913554</v>
+        <v>0.8167649612815339</v>
       </c>
       <c r="G4">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>0.0008463176904950302</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8028899258563181</v>
+        <v>0.862286980012659</v>
       </c>
       <c r="G5">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>0.0761849440794609</v>
+        <v>0.01465122483063729</v>
       </c>
       <c r="F6">
-        <v>0.8050370039717535</v>
+        <v>0.8008154168905883</v>
       </c>
       <c r="G6">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>45</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="E2">
-        <v>0.05720908736946871</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9048111347910996</v>
+        <v>0.9456677031492048</v>
       </c>
       <c r="G2">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -11388,16 +11388,16 @@
         <v>47</v>
       </c>
       <c r="D3">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.0277424633433336</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9042025143321317</v>
+        <v>0.9286121861696954</v>
       </c>
       <c r="G3">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.001487841603438777</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9012079350634608</v>
+        <v>0.9137124030416784</v>
       </c>
       <c r="G4">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.0008463176904950302</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9049002877663442</v>
+        <v>0.9208107788028912</v>
       </c>
       <c r="G5">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.0761849440794609</v>
+        <v>0.01465122483063729</v>
       </c>
       <c r="F6">
-        <v>0.9024894237231943</v>
+        <v>0.9053855854238521</v>
       </c>
       <c r="G6">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>45</v>

--- a/on_trucks/Processed_Stand_Alone/45_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/45_225-80R17.xlsx
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2488911628984476</v>
+        <v>0.1969241056386636</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3408872138962423</v>
+        <v>0.2603460341224777</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -683,28 +683,28 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01679796512674963</v>
+        <v>0.03691943118791798</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.08312059883657408</v>
+        <v>0.0826421473956334</v>
       </c>
       <c r="L2">
-        <v>0.06165010295693942</v>
+        <v>0.06784042232786003</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1337151638904411</v>
+        <v>0.1175219585583207</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.007153375724152243</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.02769070524353802</v>
+        <v>0.0444288685734019</v>
       </c>
       <c r="U2">
-        <v>0.04061223464370663</v>
+        <v>0.05333695000331718</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -734,25 +734,25 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.00430959605488928</v>
       </c>
       <c r="AA2">
-        <v>0.01055570397784361</v>
+        <v>0.03261602646707079</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.0002829679922710583</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.03329260230251332</v>
+        <v>0.04829080732832234</v>
       </c>
       <c r="AE2">
-        <v>0.00278654622700427</v>
+        <v>0.02725998170309484</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.02012732692260714</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -775,43 +775,43 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09605050841939132</v>
+        <v>0.08510480009897121</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.02444407756360171</v>
       </c>
       <c r="F3">
-        <v>0.4956523348291115</v>
+        <v>0.3336029001895509</v>
       </c>
       <c r="G3">
-        <v>0.001776260870429332</v>
+        <v>0.02647901349066408</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01309042057220287</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01331823526824235</v>
+        <v>0.03365655503225319</v>
       </c>
       <c r="L3">
-        <v>0.1168267146820604</v>
+        <v>0.09802478054488062</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.1628889498339606</v>
+        <v>0.1266692390149891</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.01563986303320918</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -823,43 +823,43 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.01835637599515308</v>
+        <v>0.03678959476301413</v>
       </c>
       <c r="U3">
-        <v>0.0442686517222438</v>
+        <v>0.05290351332304366</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0109231184037603</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0004174387266800577</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.0006138642814937081</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.00391972717874517</v>
+        <v>0.02781195861258782</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.00851389861892975</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.01407710033370297</v>
+        <v>0.03412846610604976</v>
       </c>
       <c r="AE3">
-        <v>0.02084861749752705</v>
+        <v>0.03833943071814769</v>
       </c>
       <c r="AF3">
-        <v>0.01201652336943231</v>
+        <v>0.03284706690597038</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -882,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3463960458020187</v>
+        <v>0.2542958706155528</v>
       </c>
       <c r="E4">
-        <v>0.2114170333175489</v>
+        <v>0.1650071381583949</v>
       </c>
       <c r="F4">
-        <v>0.05178957907477744</v>
+        <v>0.05941344035044922</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01533682267003433</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -903,16 +903,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1283261732927057</v>
+        <v>0.110042463029756</v>
       </c>
       <c r="L4">
-        <v>0.1236844207763318</v>
+        <v>0.1069719397614476</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.03600715540759838</v>
+        <v>0.04897335356653973</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.002571314760471534</v>
+        <v>0.02685551631858262</v>
       </c>
       <c r="T4">
-        <v>0.08351040330846077</v>
+        <v>0.08039679277086909</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.01522448985987273</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -942,31 +942,31 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.008439031922507403</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.005585522393231924</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.02089937391956703</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.01919502892939864</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.01907517485327453</v>
       </c>
       <c r="AE4">
-        <v>0.016297874260087</v>
+        <v>0.03593564719344319</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.008352393687077993</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -989,37 +989,37 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3497258735719217</v>
+        <v>0.2644274253067785</v>
       </c>
       <c r="E5">
-        <v>0.02343922127784627</v>
+        <v>0.04163469738567223</v>
       </c>
       <c r="F5">
-        <v>0.1137205259082451</v>
+        <v>0.1032799347788176</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01678829457290371</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0001333275335918596</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.004461822328536215</v>
       </c>
       <c r="L5">
-        <v>0.3503922055895129</v>
+        <v>0.2648824053890361</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.002673455411601627</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.01900423702614715</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.1035902198060399</v>
+        <v>0.09636283131988736</v>
       </c>
       <c r="U5">
-        <v>0.04149378626204137</v>
+        <v>0.05396258685334308</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1049,31 +1049,31 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.01772861856311512</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.003852596948992378</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.01768671134346625</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.008001127148101332</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.01339356171067112</v>
+        <v>0.03477539167089061</v>
       </c>
       <c r="AE5">
-        <v>0.00424460587372162</v>
+        <v>0.02852836681034985</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.02181616960876882</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1147139298528384</v>
+        <v>0.1053669027930353</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1632373037977225</v>
+        <v>0.1393011092542608</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01507749624851224</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.005260278110233952</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5012050542970792</v>
+        <v>0.3756545713137613</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1129,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01419180323798074</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.003478905499396359</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1427230765049774</v>
+        <v>0.1249547444459267</v>
       </c>
       <c r="U6">
-        <v>0.0105289333650116</v>
+        <v>0.03250644620162551</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.01704524990711461</v>
+        <v>0.03706354957118081</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1165,22 +1165,22 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.02425155753761667</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.01635022955923923</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.03731339984987687</v>
+        <v>0.05123782330420684</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.02090704533532731</v>
       </c>
       <c r="AF6">
-        <v>0.01323305242537934</v>
+        <v>0.03439753758769613</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1323,100 +1323,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2488911628984476</v>
+        <v>0.1969241056386636</v>
       </c>
       <c r="E2">
-        <v>0.2488911628984476</v>
+        <v>0.1969241056386636</v>
       </c>
       <c r="F2">
-        <v>0.5897783767946899</v>
+        <v>0.4572701397611413</v>
       </c>
       <c r="G2">
-        <v>0.5897783767946899</v>
+        <v>0.4572701397611413</v>
       </c>
       <c r="H2">
-        <v>0.5897783767946899</v>
+        <v>0.4572701397611413</v>
       </c>
       <c r="I2">
-        <v>0.6065763419214395</v>
+        <v>0.4941895709490593</v>
       </c>
       <c r="J2">
-        <v>0.6065763419214395</v>
+        <v>0.4941895709490593</v>
       </c>
       <c r="K2">
-        <v>0.6896969407580136</v>
+        <v>0.5768317183446927</v>
       </c>
       <c r="L2">
-        <v>0.751347043714953</v>
+        <v>0.6446721406725527</v>
       </c>
       <c r="M2">
-        <v>0.751347043714953</v>
+        <v>0.6446721406725527</v>
       </c>
       <c r="N2">
-        <v>0.885062207605394</v>
+        <v>0.7621940992308734</v>
       </c>
       <c r="O2">
-        <v>0.885062207605394</v>
+        <v>0.7621940992308734</v>
       </c>
       <c r="P2">
-        <v>0.885062207605394</v>
+        <v>0.7693474749550256</v>
       </c>
       <c r="Q2">
-        <v>0.885062207605394</v>
+        <v>0.7693474749550256</v>
       </c>
       <c r="R2">
-        <v>0.885062207605394</v>
+        <v>0.7693474749550256</v>
       </c>
       <c r="S2">
-        <v>0.885062207605394</v>
+        <v>0.7693474749550256</v>
       </c>
       <c r="T2">
-        <v>0.912752912848932</v>
+        <v>0.8137763435284275</v>
       </c>
       <c r="U2">
-        <v>0.9533651474926387</v>
+        <v>0.8671132935317447</v>
       </c>
       <c r="V2">
-        <v>0.9533651474926387</v>
+        <v>0.8671132935317447</v>
       </c>
       <c r="W2">
-        <v>0.9533651474926387</v>
+        <v>0.8671132935317447</v>
       </c>
       <c r="X2">
-        <v>0.9533651474926387</v>
+        <v>0.8671132935317447</v>
       </c>
       <c r="Y2">
-        <v>0.9533651474926387</v>
+        <v>0.8671132935317447</v>
       </c>
       <c r="Z2">
-        <v>0.9533651474926387</v>
+        <v>0.8714228895866339</v>
       </c>
       <c r="AA2">
-        <v>0.9639208514704823</v>
+        <v>0.9040389160537048</v>
       </c>
       <c r="AB2">
-        <v>0.9639208514704823</v>
+        <v>0.9043218840459758</v>
       </c>
       <c r="AC2">
-        <v>0.9639208514704823</v>
+        <v>0.9043218840459758</v>
       </c>
       <c r="AD2">
-        <v>0.9972134537729956</v>
+        <v>0.9526126913742982</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999999</v>
+        <v>0.979872673077393</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1430,88 +1430,88 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09605050841939132</v>
+        <v>0.08510480009897121</v>
       </c>
       <c r="E3">
-        <v>0.09605050841939132</v>
+        <v>0.1095488776625729</v>
       </c>
       <c r="F3">
-        <v>0.5917028432485029</v>
+        <v>0.4431517778521238</v>
       </c>
       <c r="G3">
-        <v>0.5934791041189322</v>
+        <v>0.4696307913427879</v>
       </c>
       <c r="H3">
-        <v>0.5934791041189322</v>
+        <v>0.4696307913427879</v>
       </c>
       <c r="I3">
-        <v>0.5934791041189322</v>
+        <v>0.4827212119149908</v>
       </c>
       <c r="J3">
-        <v>0.5934791041189322</v>
+        <v>0.4827212119149908</v>
       </c>
       <c r="K3">
-        <v>0.6067973393871746</v>
+        <v>0.516377766947244</v>
       </c>
       <c r="L3">
-        <v>0.723624054069235</v>
+        <v>0.6144025474921246</v>
       </c>
       <c r="M3">
-        <v>0.723624054069235</v>
+        <v>0.6144025474921246</v>
       </c>
       <c r="N3">
-        <v>0.8865130039031957</v>
+        <v>0.7410717865071137</v>
       </c>
       <c r="O3">
-        <v>0.8865130039031957</v>
+        <v>0.7410717865071137</v>
       </c>
       <c r="P3">
-        <v>0.8865130039031957</v>
+        <v>0.7567116495403229</v>
       </c>
       <c r="Q3">
-        <v>0.8865130039031957</v>
+        <v>0.7567116495403229</v>
       </c>
       <c r="R3">
-        <v>0.8865130039031957</v>
+        <v>0.7567116495403229</v>
       </c>
       <c r="S3">
-        <v>0.8865130039031957</v>
+        <v>0.7567116495403229</v>
       </c>
       <c r="T3">
-        <v>0.9048693798983487</v>
+        <v>0.793501244303337</v>
       </c>
       <c r="U3">
-        <v>0.9491380316205925</v>
+        <v>0.8464047576263807</v>
       </c>
       <c r="V3">
-        <v>0.9491380316205925</v>
+        <v>0.8573278760301409</v>
       </c>
       <c r="W3">
-        <v>0.9491380316205925</v>
+        <v>0.8573278760301409</v>
       </c>
       <c r="X3">
-        <v>0.9491380316205925</v>
+        <v>0.857745314756821</v>
       </c>
       <c r="Y3">
-        <v>0.9491380316205925</v>
+        <v>0.8583591790383147</v>
       </c>
       <c r="Z3">
-        <v>0.9491380316205925</v>
+        <v>0.8583591790383147</v>
       </c>
       <c r="AA3">
-        <v>0.9530577587993377</v>
+        <v>0.8861711376509025</v>
       </c>
       <c r="AB3">
-        <v>0.9530577587993377</v>
+        <v>0.8946850362698322</v>
       </c>
       <c r="AC3">
-        <v>0.9530577587993377</v>
+        <v>0.8946850362698322</v>
       </c>
       <c r="AD3">
-        <v>0.9671348591330408</v>
+        <v>0.928813502375882</v>
       </c>
       <c r="AE3">
-        <v>0.9879834766305678</v>
+        <v>0.9671529330940297</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1537,100 +1537,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3463960458020187</v>
+        <v>0.2542958706155528</v>
       </c>
       <c r="E4">
-        <v>0.5578130791195676</v>
+        <v>0.4193030087739477</v>
       </c>
       <c r="F4">
-        <v>0.609602658194345</v>
+        <v>0.4787164491243969</v>
       </c>
       <c r="G4">
-        <v>0.609602658194345</v>
+        <v>0.4787164491243969</v>
       </c>
       <c r="H4">
-        <v>0.609602658194345</v>
+        <v>0.4940532717944313</v>
       </c>
       <c r="I4">
-        <v>0.609602658194345</v>
+        <v>0.4940532717944313</v>
       </c>
       <c r="J4">
-        <v>0.609602658194345</v>
+        <v>0.4940532717944313</v>
       </c>
       <c r="K4">
-        <v>0.7379288314870507</v>
+        <v>0.6040957348241872</v>
       </c>
       <c r="L4">
-        <v>0.8616132522633825</v>
+        <v>0.7110676745856348</v>
       </c>
       <c r="M4">
-        <v>0.8616132522633825</v>
+        <v>0.7110676745856348</v>
       </c>
       <c r="N4">
-        <v>0.8976204076709808</v>
+        <v>0.7600410281521746</v>
       </c>
       <c r="O4">
-        <v>0.8976204076709808</v>
+        <v>0.7600410281521746</v>
       </c>
       <c r="P4">
-        <v>0.8976204076709808</v>
+        <v>0.7600410281521746</v>
       </c>
       <c r="Q4">
-        <v>0.8976204076709808</v>
+        <v>0.7600410281521746</v>
       </c>
       <c r="R4">
-        <v>0.8976204076709808</v>
+        <v>0.7600410281521746</v>
       </c>
       <c r="S4">
-        <v>0.9001917224314524</v>
+        <v>0.7868965444707572</v>
       </c>
       <c r="T4">
-        <v>0.9837021257399132</v>
+        <v>0.8672933372416263</v>
       </c>
       <c r="U4">
-        <v>0.9837021257399132</v>
+        <v>0.882517827101499</v>
       </c>
       <c r="V4">
-        <v>0.9837021257399132</v>
+        <v>0.882517827101499</v>
       </c>
       <c r="W4">
-        <v>0.9837021257399132</v>
+        <v>0.882517827101499</v>
       </c>
       <c r="X4">
-        <v>0.9837021257399132</v>
+        <v>0.8909568590240063</v>
       </c>
       <c r="Y4">
-        <v>0.9837021257399132</v>
+        <v>0.8909568590240063</v>
       </c>
       <c r="Z4">
-        <v>0.9837021257399132</v>
+        <v>0.8965423814172383</v>
       </c>
       <c r="AA4">
-        <v>0.9837021257399132</v>
+        <v>0.9174417553368053</v>
       </c>
       <c r="AB4">
-        <v>0.9837021257399132</v>
+        <v>0.9174417553368053</v>
       </c>
       <c r="AC4">
-        <v>0.9837021257399132</v>
+        <v>0.9366367842662039</v>
       </c>
       <c r="AD4">
-        <v>0.9837021257399132</v>
+        <v>0.9557119591194785</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9916476063129217</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1644,100 +1644,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3497258735719217</v>
+        <v>0.2644274253067785</v>
       </c>
       <c r="E5">
-        <v>0.373165094849768</v>
+        <v>0.3060621226924508</v>
       </c>
       <c r="F5">
-        <v>0.4868856207580131</v>
+        <v>0.4093420574712684</v>
       </c>
       <c r="G5">
-        <v>0.4868856207580131</v>
+        <v>0.4093420574712684</v>
       </c>
       <c r="H5">
-        <v>0.4868856207580131</v>
+        <v>0.4261303520441721</v>
       </c>
       <c r="I5">
-        <v>0.4868856207580131</v>
+        <v>0.4261303520441721</v>
       </c>
       <c r="J5">
-        <v>0.4868856207580131</v>
+        <v>0.426263679577764</v>
       </c>
       <c r="K5">
-        <v>0.4868856207580131</v>
+        <v>0.4307255019063002</v>
       </c>
       <c r="L5">
-        <v>0.837277826347526</v>
+        <v>0.6956079072953363</v>
       </c>
       <c r="M5">
-        <v>0.837277826347526</v>
+        <v>0.6982813627069379</v>
       </c>
       <c r="N5">
-        <v>0.837277826347526</v>
+        <v>0.717285599733085</v>
       </c>
       <c r="O5">
-        <v>0.837277826347526</v>
+        <v>0.717285599733085</v>
       </c>
       <c r="P5">
-        <v>0.837277826347526</v>
+        <v>0.717285599733085</v>
       </c>
       <c r="Q5">
-        <v>0.837277826347526</v>
+        <v>0.717285599733085</v>
       </c>
       <c r="R5">
-        <v>0.837277826347526</v>
+        <v>0.717285599733085</v>
       </c>
       <c r="S5">
-        <v>0.837277826347526</v>
+        <v>0.717285599733085</v>
       </c>
       <c r="T5">
-        <v>0.9408680461535659</v>
+        <v>0.8136484310529724</v>
       </c>
       <c r="U5">
-        <v>0.9823618324156073</v>
+        <v>0.8676110179063155</v>
       </c>
       <c r="V5">
-        <v>0.9823618324156073</v>
+        <v>0.8676110179063155</v>
       </c>
       <c r="W5">
-        <v>0.9823618324156073</v>
+        <v>0.8676110179063155</v>
       </c>
       <c r="X5">
-        <v>0.9823618324156073</v>
+        <v>0.8853396364694306</v>
       </c>
       <c r="Y5">
-        <v>0.9823618324156073</v>
+        <v>0.8853396364694306</v>
       </c>
       <c r="Z5">
-        <v>0.9823618324156073</v>
+        <v>0.889192233418423</v>
       </c>
       <c r="AA5">
-        <v>0.9823618324156073</v>
+        <v>0.9068789447618892</v>
       </c>
       <c r="AB5">
-        <v>0.9823618324156073</v>
+        <v>0.9148800719099905</v>
       </c>
       <c r="AC5">
-        <v>0.9823618324156073</v>
+        <v>0.9148800719099905</v>
       </c>
       <c r="AD5">
-        <v>0.9957553941262783</v>
+        <v>0.9496554635808812</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.978183830391231</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1751,100 +1751,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1147139298528384</v>
+        <v>0.1053669027930353</v>
       </c>
       <c r="E6">
-        <v>0.1147139298528384</v>
+        <v>0.1053669027930353</v>
       </c>
       <c r="F6">
-        <v>0.277951233650561</v>
+        <v>0.2446680120472961</v>
       </c>
       <c r="G6">
-        <v>0.277951233650561</v>
+        <v>0.2446680120472961</v>
       </c>
       <c r="H6">
-        <v>0.277951233650561</v>
+        <v>0.2446680120472961</v>
       </c>
       <c r="I6">
-        <v>0.277951233650561</v>
+        <v>0.2597455082958083</v>
       </c>
       <c r="J6">
-        <v>0.277951233650561</v>
+        <v>0.2650057864060423</v>
       </c>
       <c r="K6">
-        <v>0.277951233650561</v>
+        <v>0.2650057864060423</v>
       </c>
       <c r="L6">
-        <v>0.7791562879476401</v>
+        <v>0.6406603577198036</v>
       </c>
       <c r="M6">
-        <v>0.7791562879476401</v>
+        <v>0.6406603577198036</v>
       </c>
       <c r="N6">
-        <v>0.7791562879476401</v>
+        <v>0.6406603577198036</v>
       </c>
       <c r="O6">
-        <v>0.7791562879476401</v>
+        <v>0.6548521609577843</v>
       </c>
       <c r="P6">
-        <v>0.7791562879476401</v>
+        <v>0.6583310664571806</v>
       </c>
       <c r="Q6">
-        <v>0.7791562879476401</v>
+        <v>0.6583310664571806</v>
       </c>
       <c r="R6">
-        <v>0.7791562879476401</v>
+        <v>0.6583310664571806</v>
       </c>
       <c r="S6">
-        <v>0.7791562879476401</v>
+        <v>0.6583310664571806</v>
       </c>
       <c r="T6">
-        <v>0.9218793644526175</v>
+        <v>0.7832858109031073</v>
       </c>
       <c r="U6">
-        <v>0.9324082978176291</v>
+        <v>0.8157922571047328</v>
       </c>
       <c r="V6">
-        <v>0.9324082978176291</v>
+        <v>0.8157922571047328</v>
       </c>
       <c r="W6">
-        <v>0.9324082978176291</v>
+        <v>0.8157922571047328</v>
       </c>
       <c r="X6">
-        <v>0.9494535477247438</v>
+        <v>0.8528558066759137</v>
       </c>
       <c r="Y6">
-        <v>0.9494535477247438</v>
+        <v>0.8528558066759137</v>
       </c>
       <c r="Z6">
-        <v>0.9494535477247438</v>
+        <v>0.8528558066759137</v>
       </c>
       <c r="AA6">
-        <v>0.9494535477247438</v>
+        <v>0.8771073642135303</v>
       </c>
       <c r="AB6">
-        <v>0.9494535477247438</v>
+        <v>0.8934575937727696</v>
       </c>
       <c r="AC6">
-        <v>0.9494535477247438</v>
+        <v>0.8934575937727696</v>
       </c>
       <c r="AD6">
-        <v>0.9867669475746207</v>
+        <v>0.9446954170769764</v>
       </c>
       <c r="AE6">
-        <v>0.9867669475746207</v>
+        <v>0.9656024624123036</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1912,16 +1912,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5897783767946899</v>
+        <v>0.5768317183446927</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -1953,16 +1953,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5917028432485029</v>
+        <v>0.516377766947244</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -1994,16 +1994,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5578130791195676</v>
+        <v>0.6040957348241872</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.837277826347526</v>
+        <v>0.6956079072953363</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7791562879476401</v>
+        <v>0.6406603577198036</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -2171,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.751347043714953</v>
+        <v>0.7621940992308734</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -2212,16 +2212,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.723624054069235</v>
+        <v>0.7410717865071137</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -2253,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.7110676745856348</v>
+      </c>
+      <c r="G4">
         <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.7379288314870507</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -2294,16 +2294,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.837277826347526</v>
+        <v>0.717285599733085</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -2335,16 +2335,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7791562879476401</v>
+        <v>0.7832858109031073</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>45</v>
@@ -2430,16 +2430,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.885062207605394</v>
+        <v>0.8137763435284275</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -2471,16 +2471,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8865130039031957</v>
+        <v>0.8464047576263807</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -2512,16 +2512,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8616132522633825</v>
+        <v>0.8672933372416263</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -2553,16 +2553,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.837277826347526</v>
+        <v>0.8136484310529724</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -2594,16 +2594,16 @@
         <v>1</v>
       </c>
       <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8157922571047328</v>
+      </c>
+      <c r="G6">
         <v>19</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9218793644526175</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
       </c>
       <c r="H6">
         <v>45</v>
@@ -2689,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.912752912848932</v>
+        <v>0.9040389160537048</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>45</v>
@@ -2730,16 +2730,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9048693798983487</v>
+        <v>0.928813502375882</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>45</v>
@@ -2771,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9001917224314524</v>
+        <v>0.9174417553368053</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>45</v>
@@ -2812,16 +2812,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9408680461535659</v>
+        <v>0.9068789447618892</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>45</v>
@@ -2853,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9218793644526175</v>
+        <v>0.9446954170769764</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>45</v>
